--- a/BackTest/2020-01-13 BackTest BTT.xlsx
+++ b/BackTest/2020-01-13 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>0.3424</v>
       </c>
       <c r="F2" t="n">
-        <v>137146.9187</v>
+        <v>1058524.4131</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3415233333333332</v>
+        <v>0.3413433333333332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3409</v>
+        <v>0.3424</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3409</v>
+        <v>0.3424</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3409</v>
+        <v>0.3424</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3409</v>
+        <v>0.3424</v>
       </c>
       <c r="F3" t="n">
-        <v>335286.7241</v>
+        <v>137146.9187</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3416416666666666</v>
+        <v>0.3415233333333332</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3423</v>
+        <v>0.3409</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3423</v>
+        <v>0.3409</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3423</v>
+        <v>0.3409</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3423</v>
+        <v>0.3409</v>
       </c>
       <c r="F4" t="n">
-        <v>53918.3819</v>
+        <v>335286.7241</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3417633333333333</v>
+        <v>0.3416416666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0.3423</v>
       </c>
       <c r="F5" t="n">
-        <v>75901</v>
+        <v>53918.3819</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3418399999999999</v>
+        <v>0.3417633333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>0.3423</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3424</v>
+        <v>0.3423</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3424</v>
+        <v>0.3423</v>
       </c>
       <c r="E6" t="n">
         <v>0.3423</v>
       </c>
       <c r="F6" t="n">
-        <v>432357.1739</v>
+        <v>75901</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3420066666666666</v>
+        <v>0.3418399999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3424</v>
+        <v>0.3423</v>
       </c>
       <c r="C7" t="n">
         <v>0.3424</v>
@@ -617,13 +617,13 @@
         <v>0.3424</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3424</v>
+        <v>0.3423</v>
       </c>
       <c r="F7" t="n">
-        <v>9620661</v>
+        <v>432357.1739</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3420533333333333</v>
+        <v>0.3420066666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0.3424</v>
       </c>
       <c r="F8" t="n">
-        <v>455488.1867</v>
+        <v>9620661</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3420933333333333</v>
+        <v>0.3420533333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0.3424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3446</v>
+        <v>0.3424</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3446</v>
+        <v>0.3424</v>
       </c>
       <c r="E9" t="n">
         <v>0.3424</v>
       </c>
       <c r="F9" t="n">
-        <v>952427</v>
+        <v>455488.1867</v>
       </c>
       <c r="G9" t="n">
-        <v>0.34217</v>
+        <v>0.3420933333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3409</v>
+        <v>0.3424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3409</v>
+        <v>0.3446</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3409</v>
+        <v>0.3446</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3409</v>
+        <v>0.3424</v>
       </c>
       <c r="F10" t="n">
-        <v>3948.6173</v>
+        <v>952427</v>
       </c>
       <c r="G10" t="n">
-        <v>0.342185</v>
+        <v>0.34217</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3448</v>
+        <v>0.3409</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3448</v>
+        <v>0.3409</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3448</v>
+        <v>0.3409</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3448</v>
+        <v>0.3409</v>
       </c>
       <c r="F11" t="n">
-        <v>101508.12064965</v>
+        <v>3948.6173</v>
       </c>
       <c r="G11" t="n">
-        <v>0.342265</v>
+        <v>0.342185</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3409</v>
+        <v>0.3448</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3409</v>
+        <v>0.3448</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3409</v>
+        <v>0.3448</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3409</v>
+        <v>0.3448</v>
       </c>
       <c r="F12" t="n">
-        <v>421311.1243</v>
+        <v>101508.12064965</v>
       </c>
       <c r="G12" t="n">
-        <v>0.34228</v>
+        <v>0.342265</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0.3409</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3447</v>
+        <v>0.3409</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3447</v>
+        <v>0.3409</v>
       </c>
       <c r="E13" t="n">
         <v>0.3409</v>
       </c>
       <c r="F13" t="n">
-        <v>3355602.8683</v>
+        <v>421311.1243</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3423583333333333</v>
+        <v>0.34228</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3445</v>
+        <v>0.3409</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3445</v>
+        <v>0.3447</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3445</v>
+        <v>0.3447</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3445</v>
+        <v>0.3409</v>
       </c>
       <c r="F14" t="n">
-        <v>69555.1324</v>
+        <v>3355602.8683</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3424333333333333</v>
+        <v>0.3423583333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>0.3445</v>
       </c>
       <c r="F15" t="n">
-        <v>487629.6176</v>
+        <v>69555.1324</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3425016666666666</v>
+        <v>0.3424333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3448</v>
+        <v>0.3445</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3448</v>
+        <v>0.3445</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3448</v>
+        <v>0.3445</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3448</v>
+        <v>0.3445</v>
       </c>
       <c r="F16" t="n">
-        <v>217881.1947</v>
+        <v>487629.6176</v>
       </c>
       <c r="G16" t="n">
-        <v>0.342575</v>
+        <v>0.3425016666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0.3448</v>
       </c>
       <c r="F17" t="n">
-        <v>449023.0064</v>
+        <v>217881.1947</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3426483333333333</v>
+        <v>0.342575</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>0.3448</v>
       </c>
       <c r="F18" t="n">
-        <v>855218.9915</v>
+        <v>449023.0064</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3427216666666667</v>
+        <v>0.3426483333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3413</v>
+        <v>0.3448</v>
       </c>
       <c r="C19" t="n">
         <v>0.3448</v>
@@ -1037,13 +1037,13 @@
         <v>0.3448</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3413</v>
+        <v>0.3448</v>
       </c>
       <c r="F19" t="n">
-        <v>659036.3865</v>
+        <v>855218.9915</v>
       </c>
       <c r="G19" t="n">
-        <v>0.342795</v>
+        <v>0.3427216666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>0.3413</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3413</v>
+        <v>0.3448</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3413</v>
+        <v>0.3448</v>
       </c>
       <c r="E20" t="n">
         <v>0.3413</v>
       </c>
       <c r="F20" t="n">
-        <v>12915.3865</v>
+        <v>659036.3865</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3428100000000001</v>
+        <v>0.342795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3448</v>
+        <v>0.3413</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3448</v>
+        <v>0.3413</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3448</v>
+        <v>0.3413</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3448</v>
+        <v>0.3413</v>
       </c>
       <c r="F21" t="n">
-        <v>388622</v>
+        <v>12915.3865</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3428833333333334</v>
+        <v>0.3428100000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0.3448</v>
       </c>
       <c r="F22" t="n">
-        <v>582357</v>
+        <v>388622</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3429566666666667</v>
+        <v>0.3428833333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>0.3448</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3455</v>
+        <v>0.3448</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3455</v>
+        <v>0.3448</v>
       </c>
       <c r="E23" t="n">
         <v>0.3448</v>
       </c>
       <c r="F23" t="n">
-        <v>2707090.245</v>
+        <v>582357</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3430416666666668</v>
+        <v>0.3429566666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3455</v>
+        <v>0.3448</v>
       </c>
       <c r="C24" t="n">
         <v>0.3455</v>
@@ -1212,13 +1212,13 @@
         <v>0.3455</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3455</v>
+        <v>0.3448</v>
       </c>
       <c r="F24" t="n">
-        <v>52987.5094</v>
+        <v>2707090.245</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3431266666666668</v>
+        <v>0.3430416666666668</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0.3455</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3458</v>
+        <v>0.3455</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3458</v>
+        <v>0.3455</v>
       </c>
       <c r="E25" t="n">
         <v>0.3455</v>
       </c>
       <c r="F25" t="n">
-        <v>286814.9226</v>
+        <v>52987.5094</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3431900000000002</v>
+        <v>0.3431266666666668</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="C26" t="n">
         <v>0.3458</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.348</v>
-      </c>
       <c r="D26" t="n">
-        <v>0.348</v>
+        <v>0.3458</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3458</v>
+        <v>0.3455</v>
       </c>
       <c r="F26" t="n">
-        <v>1553337.1723</v>
+        <v>286814.9226</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3432900000000002</v>
+        <v>0.3431900000000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>0.3458</v>
+      </c>
+      <c r="C27" t="n">
         <v>0.348</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.3421</v>
       </c>
       <c r="D27" t="n">
         <v>0.348</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3421</v>
+        <v>0.3458</v>
       </c>
       <c r="F27" t="n">
-        <v>3160.9196</v>
+        <v>1553337.1723</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3432916666666668</v>
+        <v>0.3432900000000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3431</v>
+        <v>0.348</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3431</v>
+        <v>0.3421</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3431</v>
+        <v>0.348</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3431</v>
+        <v>0.3421</v>
       </c>
       <c r="F28" t="n">
-        <v>2862842.44</v>
+        <v>3160.9196</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3433100000000002</v>
+        <v>0.3432916666666668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3466</v>
+        <v>0.3431</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3466</v>
+        <v>0.3431</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3466</v>
+        <v>0.3431</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3466</v>
+        <v>0.3431</v>
       </c>
       <c r="F29" t="n">
-        <v>8567.609200000001</v>
+        <v>2862842.44</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3433866666666668</v>
+        <v>0.3433100000000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3449</v>
+        <v>0.3466</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3449</v>
+        <v>0.3466</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3449</v>
+        <v>0.3466</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3449</v>
+        <v>0.3466</v>
       </c>
       <c r="F30" t="n">
-        <v>730230.998</v>
+        <v>8567.609200000001</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3434350000000002</v>
+        <v>0.3433866666666668</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.345</v>
+        <v>0.3449</v>
       </c>
       <c r="C31" t="n">
-        <v>0.345</v>
+        <v>0.3449</v>
       </c>
       <c r="D31" t="n">
-        <v>0.345</v>
+        <v>0.3449</v>
       </c>
       <c r="E31" t="n">
-        <v>0.345</v>
+        <v>0.3449</v>
       </c>
       <c r="F31" t="n">
-        <v>41658.1444</v>
+        <v>730230.998</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3434850000000002</v>
+        <v>0.3434350000000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>0.345</v>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>41658.1444</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3435350000000002</v>
+        <v>0.3434850000000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0.345</v>
       </c>
       <c r="F33" t="n">
-        <v>874154.9905</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3435850000000002</v>
+        <v>0.3435350000000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3411</v>
+        <v>0.345</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3411</v>
+        <v>0.345</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3411</v>
+        <v>0.345</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3411</v>
+        <v>0.345</v>
       </c>
       <c r="F34" t="n">
-        <v>145824.4216</v>
+        <v>874154.9905</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3435700000000003</v>
+        <v>0.3435850000000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>0.3411</v>
       </c>
       <c r="F35" t="n">
-        <v>447139.2782</v>
+        <v>145824.4216</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3435550000000003</v>
+        <v>0.3435700000000003</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3412</v>
+        <v>0.3411</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3452</v>
+        <v>0.3411</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3452</v>
+        <v>0.3411</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3412</v>
+        <v>0.3411</v>
       </c>
       <c r="F36" t="n">
-        <v>322891.1372</v>
+        <v>447139.2782</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3436083333333336</v>
+        <v>0.3435550000000003</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>0.3412</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.3452</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.341</v>
       </c>
       <c r="D37" t="n">
         <v>0.3452</v>
       </c>
       <c r="E37" t="n">
-        <v>0.341</v>
+        <v>0.3412</v>
       </c>
       <c r="F37" t="n">
-        <v>2954.809</v>
+        <v>322891.1372</v>
       </c>
       <c r="G37" t="n">
-        <v>0.343576666666667</v>
+        <v>0.3436083333333336</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>0.3452</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3452</v>
+        <v>0.341</v>
       </c>
       <c r="D38" t="n">
         <v>0.3452</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3452</v>
+        <v>0.341</v>
       </c>
       <c r="F38" t="n">
-        <v>235104.8343</v>
+        <v>2954.809</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3435966666666669</v>
+        <v>0.343576666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0.3452</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3454</v>
+        <v>0.3452</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3454</v>
+        <v>0.3452</v>
       </c>
       <c r="E39" t="n">
         <v>0.3452</v>
       </c>
       <c r="F39" t="n">
-        <v>769378.3223999999</v>
+        <v>235104.8343</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3436033333333336</v>
+        <v>0.3435966666666669</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3472</v>
+        <v>0.3452</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3472</v>
+        <v>0.3454</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3472</v>
+        <v>0.3454</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3472</v>
+        <v>0.3452</v>
       </c>
       <c r="F40" t="n">
-        <v>2322637.4156</v>
+        <v>769378.3223999999</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3436400000000003</v>
+        <v>0.3436033333333336</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3478</v>
+        <v>0.3472</v>
       </c>
       <c r="C41" t="n">
-        <v>0.348</v>
+        <v>0.3472</v>
       </c>
       <c r="D41" t="n">
-        <v>0.348</v>
+        <v>0.3472</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3478</v>
+        <v>0.3472</v>
       </c>
       <c r="F41" t="n">
-        <v>3161731.96703436</v>
+        <v>2322637.4156</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3436900000000003</v>
+        <v>0.3436400000000003</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3411</v>
+        <v>0.3478</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3411</v>
+        <v>0.348</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3411</v>
+        <v>0.348</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3411</v>
+        <v>0.3478</v>
       </c>
       <c r="F42" t="n">
-        <v>1477.4045</v>
+        <v>3161731.96703436</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3436250000000003</v>
+        <v>0.3436900000000003</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3416</v>
+        <v>0.3411</v>
       </c>
       <c r="C43" t="n">
-        <v>0.348</v>
+        <v>0.3411</v>
       </c>
       <c r="D43" t="n">
-        <v>0.348</v>
+        <v>0.3411</v>
       </c>
       <c r="E43" t="n">
-        <v>0.341</v>
+        <v>0.3411</v>
       </c>
       <c r="F43" t="n">
-        <v>22001429.3883</v>
+        <v>1477.4045</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3436750000000003</v>
+        <v>0.3436250000000003</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3427</v>
+        <v>0.3416</v>
       </c>
       <c r="C44" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="D44" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="E44" t="n">
         <v>0.341</v>
       </c>
       <c r="F44" t="n">
-        <v>3001445.0868</v>
+        <v>22001429.3883</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3436916666666671</v>
+        <v>0.3436750000000003</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3452</v>
+        <v>0.3427</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3452</v>
+        <v>0.346</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3452</v>
+        <v>0.346</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3452</v>
+        <v>0.341</v>
       </c>
       <c r="F45" t="n">
-        <v>600000</v>
+        <v>3001445.0868</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3436950000000004</v>
+        <v>0.3436916666666671</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.346</v>
+        <v>0.3452</v>
       </c>
       <c r="C46" t="n">
-        <v>0.346</v>
+        <v>0.3452</v>
       </c>
       <c r="D46" t="n">
-        <v>0.346</v>
+        <v>0.3452</v>
       </c>
       <c r="E46" t="n">
-        <v>0.346</v>
+        <v>0.3452</v>
       </c>
       <c r="F46" t="n">
-        <v>1888539.3355</v>
+        <v>600000</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3437933333333337</v>
+        <v>0.3436950000000004</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3454</v>
+        <v>0.346</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3454</v>
+        <v>0.346</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3454</v>
+        <v>0.346</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3454</v>
+        <v>0.346</v>
       </c>
       <c r="F47" t="n">
-        <v>14545046.5522</v>
+        <v>1888539.3355</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3438350000000004</v>
+        <v>0.3437933333333337</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0.3454</v>
       </c>
       <c r="F48" t="n">
-        <v>2476128.016</v>
+        <v>14545046.5522</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3438750000000004</v>
+        <v>0.3438350000000004</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>0.3454</v>
       </c>
       <c r="F49" t="n">
-        <v>2572842</v>
+        <v>2476128.016</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3439150000000005</v>
+        <v>0.3438750000000004</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0.3454</v>
       </c>
       <c r="F50" t="n">
-        <v>2942047.0634</v>
+        <v>2572842</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3439550000000005</v>
+        <v>0.3439150000000005</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="C51" t="n">
         <v>0.3454</v>
@@ -2157,13 +2157,13 @@
         <v>0.3454</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="F51" t="n">
-        <v>1092208.9411</v>
+        <v>2942047.0634</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3439950000000005</v>
+        <v>0.3439550000000005</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3454</v>
+        <v>0.3424</v>
       </c>
       <c r="C52" t="n">
         <v>0.3454</v>
@@ -2192,13 +2192,13 @@
         <v>0.3454</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3454</v>
+        <v>0.3424</v>
       </c>
       <c r="F52" t="n">
-        <v>863459.2355</v>
+        <v>1092208.9411</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3440350000000005</v>
+        <v>0.3439950000000005</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="F53" t="n">
-        <v>10981.6384</v>
+        <v>863459.2355</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3440250000000005</v>
+        <v>0.3440350000000005</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3454</v>
+        <v>0.3424</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3454</v>
+        <v>0.3424</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3454</v>
+        <v>0.3424</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3454</v>
+        <v>0.3424</v>
       </c>
       <c r="F54" t="n">
-        <v>2665039</v>
+        <v>10981.6384</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3440683333333339</v>
+        <v>0.3440250000000005</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>0.3454</v>
       </c>
       <c r="F55" t="n">
-        <v>732267</v>
+        <v>2665039</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3441183333333339</v>
+        <v>0.3440683333333339</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0.3454</v>
       </c>
       <c r="F56" t="n">
-        <v>1421388.2083</v>
+        <v>732267</v>
       </c>
       <c r="G56" t="n">
-        <v>0.3441683333333339</v>
+        <v>0.3441183333333339</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3472</v>
+        <v>0.3454</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3472</v>
+        <v>0.3454</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3472</v>
+        <v>0.3454</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3472</v>
+        <v>0.3454</v>
       </c>
       <c r="F57" t="n">
-        <v>293991.0478</v>
+        <v>1421388.2083</v>
       </c>
       <c r="G57" t="n">
-        <v>0.3442483333333339</v>
+        <v>0.3441683333333339</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>0.3472</v>
       </c>
       <c r="F58" t="n">
-        <v>819637.9521</v>
+        <v>293991.0478</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3443283333333339</v>
+        <v>0.3442483333333339</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.348</v>
+        <v>0.3472</v>
       </c>
       <c r="C59" t="n">
-        <v>0.348</v>
+        <v>0.3472</v>
       </c>
       <c r="D59" t="n">
-        <v>0.348</v>
+        <v>0.3472</v>
       </c>
       <c r="E59" t="n">
-        <v>0.348</v>
+        <v>0.3472</v>
       </c>
       <c r="F59" t="n">
-        <v>1200000</v>
+        <v>819637.9521</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3444216666666672</v>
+        <v>0.3443283333333339</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>0.348</v>
       </c>
       <c r="F60" t="n">
-        <v>536744</v>
+        <v>1200000</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3445150000000005</v>
+        <v>0.3444216666666672</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3484</v>
+        <v>0.348</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3487</v>
+        <v>0.348</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3487</v>
+        <v>0.348</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3484</v>
+        <v>0.348</v>
       </c>
       <c r="F61" t="n">
-        <v>1200000</v>
+        <v>536744</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3446200000000005</v>
+        <v>0.3445150000000005</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3487</v>
+        <v>0.3484</v>
       </c>
       <c r="C62" t="n">
         <v>0.3487</v>
@@ -2542,13 +2542,13 @@
         <v>0.3487</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3487</v>
+        <v>0.3484</v>
       </c>
       <c r="F62" t="n">
-        <v>101005.5889</v>
+        <v>1200000</v>
       </c>
       <c r="G62" t="n">
-        <v>0.3447250000000004</v>
+        <v>0.3446200000000005</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3486</v>
+        <v>0.3487</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3486</v>
+        <v>0.3487</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3486</v>
+        <v>0.3487</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3486</v>
+        <v>0.3487</v>
       </c>
       <c r="F63" t="n">
-        <v>18375.7656</v>
+        <v>101005.5889</v>
       </c>
       <c r="G63" t="n">
-        <v>0.3448533333333338</v>
+        <v>0.3447250000000004</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3468</v>
+        <v>0.3486</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3468</v>
+        <v>0.3486</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3468</v>
+        <v>0.3486</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3468</v>
+        <v>0.3486</v>
       </c>
       <c r="F64" t="n">
-        <v>5095355.8977</v>
+        <v>18375.7656</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3449283333333337</v>
+        <v>0.3448533333333338</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>0.3468</v>
       </c>
       <c r="F65" t="n">
-        <v>1551</v>
+        <v>5095355.8977</v>
       </c>
       <c r="G65" t="n">
-        <v>0.3450033333333337</v>
+        <v>0.3449283333333337</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>0.3468</v>
       </c>
       <c r="F66" t="n">
-        <v>65371</v>
+        <v>1551</v>
       </c>
       <c r="G66" t="n">
-        <v>0.3450766666666671</v>
+        <v>0.3450033333333337</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346</v>
+        <v>0.3468</v>
       </c>
       <c r="C67" t="n">
-        <v>0.346</v>
+        <v>0.3468</v>
       </c>
       <c r="D67" t="n">
-        <v>0.346</v>
+        <v>0.3468</v>
       </c>
       <c r="E67" t="n">
-        <v>0.346</v>
+        <v>0.3468</v>
       </c>
       <c r="F67" t="n">
-        <v>49729.3471</v>
+        <v>65371</v>
       </c>
       <c r="G67" t="n">
-        <v>0.345136666666667</v>
+        <v>0.3450766666666671</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="C68" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="D68" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="E68" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="F68" t="n">
-        <v>50018.4857</v>
+        <v>49729.3471</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3451633333333337</v>
+        <v>0.345136666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3469</v>
+        <v>0.344</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3424</v>
+        <v>0.344</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3469</v>
+        <v>0.344</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3424</v>
+        <v>0.344</v>
       </c>
       <c r="F69" t="n">
-        <v>4385.7763</v>
+        <v>50018.4857</v>
       </c>
       <c r="G69" t="n">
-        <v>0.3451266666666671</v>
+        <v>0.3451633333333337</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3429</v>
+        <v>0.3469</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3429</v>
+        <v>0.3424</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3429</v>
+        <v>0.3469</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3429</v>
+        <v>0.3424</v>
       </c>
       <c r="F70" t="n">
-        <v>153600.0107</v>
+        <v>4385.7763</v>
       </c>
       <c r="G70" t="n">
-        <v>0.3451600000000004</v>
+        <v>0.3451266666666671</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3471</v>
+        <v>0.3429</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3471</v>
+        <v>0.3429</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3471</v>
+        <v>0.3429</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3471</v>
+        <v>0.3429</v>
       </c>
       <c r="F71" t="n">
-        <v>20000</v>
+        <v>153600.0107</v>
       </c>
       <c r="G71" t="n">
-        <v>0.3451983333333338</v>
+        <v>0.3451600000000004</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3454</v>
+        <v>0.3471</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3454</v>
+        <v>0.3471</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3454</v>
+        <v>0.3471</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3454</v>
+        <v>0.3471</v>
       </c>
       <c r="F72" t="n">
-        <v>52692.53</v>
+        <v>20000</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3452733333333338</v>
+        <v>0.3451983333333338</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3429</v>
+        <v>0.3454</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3429</v>
+        <v>0.3454</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3429</v>
+        <v>0.3454</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3429</v>
+        <v>0.3454</v>
       </c>
       <c r="F73" t="n">
-        <v>18064.3413</v>
+        <v>52692.53</v>
       </c>
       <c r="G73" t="n">
-        <v>0.3452433333333337</v>
+        <v>0.3452733333333338</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0.3429</v>
       </c>
       <c r="F74" t="n">
-        <v>19428.8</v>
+        <v>18064.3413</v>
       </c>
       <c r="G74" t="n">
-        <v>0.3452166666666671</v>
+        <v>0.3452433333333337</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3454</v>
+        <v>0.3429</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3454</v>
+        <v>0.3429</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3454</v>
+        <v>0.3429</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3454</v>
+        <v>0.3429</v>
       </c>
       <c r="F75" t="n">
-        <v>57126.5353</v>
+        <v>19428.8</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3452316666666671</v>
+        <v>0.3452166666666671</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3032,13 +3032,13 @@
         <v>0.3454</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3429</v>
+        <v>0.3454</v>
       </c>
       <c r="F76" t="n">
-        <v>770374.5954</v>
+        <v>57126.5353</v>
       </c>
       <c r="G76" t="n">
-        <v>0.3452416666666672</v>
+        <v>0.3452316666666671</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3067,13 +3067,13 @@
         <v>0.3454</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3454</v>
+        <v>0.3429</v>
       </c>
       <c r="F77" t="n">
-        <v>2188434.0032</v>
+        <v>770374.5954</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3452516666666672</v>
+        <v>0.3452416666666672</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>0.3454</v>
       </c>
       <c r="F78" t="n">
-        <v>80299.7595</v>
+        <v>2188434.0032</v>
       </c>
       <c r="G78" t="n">
-        <v>0.3452616666666672</v>
+        <v>0.3452516666666672</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3429</v>
+        <v>0.3454</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3477</v>
+        <v>0.3454</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3477</v>
+        <v>0.3454</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3429</v>
+        <v>0.3454</v>
       </c>
       <c r="F79" t="n">
-        <v>47304123.5939</v>
+        <v>80299.7595</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3453100000000006</v>
+        <v>0.3452616666666672</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3462</v>
+        <v>0.3429</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3465</v>
+        <v>0.3477</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3465</v>
+        <v>0.3477</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3462</v>
+        <v>0.3429</v>
       </c>
       <c r="F80" t="n">
-        <v>17931887.1364</v>
+        <v>47304123.5939</v>
       </c>
       <c r="G80" t="n">
-        <v>0.3453966666666672</v>
+        <v>0.3453100000000006</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3447</v>
+        <v>0.3462</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3447</v>
+        <v>0.3465</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3447</v>
+        <v>0.3465</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3447</v>
+        <v>0.3462</v>
       </c>
       <c r="F81" t="n">
-        <v>6441023.4639</v>
+        <v>17931887.1364</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3453950000000006</v>
+        <v>0.3453966666666672</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3429</v>
+        <v>0.3447</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3429</v>
+        <v>0.3447</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3429</v>
+        <v>0.3447</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3429</v>
+        <v>0.3447</v>
       </c>
       <c r="F82" t="n">
-        <v>286421.154</v>
+        <v>6441023.4639</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3453633333333339</v>
+        <v>0.3453950000000006</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3416</v>
+        <v>0.3429</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3416</v>
+        <v>0.3429</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3416</v>
+        <v>0.3429</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3416</v>
+        <v>0.3429</v>
       </c>
       <c r="F83" t="n">
-        <v>3700.2845</v>
+        <v>286421.154</v>
       </c>
       <c r="G83" t="n">
-        <v>0.3452983333333339</v>
+        <v>0.3453633333333339</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>0.3416</v>
       </c>
       <c r="F84" t="n">
-        <v>329993.6401</v>
+        <v>3700.2845</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3452333333333338</v>
+        <v>0.3452983333333339</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3415</v>
+        <v>0.3416</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3415</v>
+        <v>0.3416</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3415</v>
+        <v>0.3416</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3415</v>
+        <v>0.3416</v>
       </c>
       <c r="F85" t="n">
-        <v>20614.6652</v>
+        <v>329993.6401</v>
       </c>
       <c r="G85" t="n">
-        <v>0.3451616666666671</v>
+        <v>0.3452333333333338</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>0.3415</v>
       </c>
       <c r="F86" t="n">
-        <v>218065</v>
+        <v>20614.6652</v>
       </c>
       <c r="G86" t="n">
-        <v>0.3450533333333338</v>
+        <v>0.3451616666666671</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.3423</v>
+        <v>0.3415</v>
       </c>
       <c r="C87" t="n">
         <v>0.3415</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3423</v>
+        <v>0.3415</v>
       </c>
       <c r="E87" t="n">
         <v>0.3415</v>
       </c>
       <c r="F87" t="n">
-        <v>2322637.4156</v>
+        <v>218065</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3450433333333339</v>
+        <v>0.3450533333333338</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,35 +3443,31 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3451</v>
+        <v>0.3423</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3456</v>
+        <v>0.3415</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3456</v>
+        <v>0.3423</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3451</v>
+        <v>0.3415</v>
       </c>
       <c r="F88" t="n">
-        <v>600000</v>
+        <v>2322637.4156</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3450850000000006</v>
+        <v>0.3450433333333339</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.3415</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.3415</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
@@ -3482,40 +3478,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3422</v>
+        <v>0.3451</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3422</v>
+        <v>0.3456</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3422</v>
+        <v>0.3456</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3422</v>
+        <v>0.3451</v>
       </c>
       <c r="F89" t="n">
-        <v>1095089.8078</v>
+        <v>600000</v>
       </c>
       <c r="G89" t="n">
-        <v>0.3450116666666672</v>
+        <v>0.3450850000000006</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.3456</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.3415</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3525,40 +3513,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3423</v>
+        <v>0.3422</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3423</v>
+        <v>0.3422</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3423</v>
+        <v>0.3422</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3423</v>
+        <v>0.3422</v>
       </c>
       <c r="F90" t="n">
-        <v>7329.1639</v>
+        <v>1095089.8078</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3449683333333339</v>
+        <v>0.3450116666666672</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.3422</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.3415</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3568,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3456</v>
+        <v>0.3423</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3456</v>
+        <v>0.3423</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3456</v>
+        <v>0.3423</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3456</v>
+        <v>0.3423</v>
       </c>
       <c r="F91" t="n">
-        <v>94833.43060000001</v>
+        <v>7329.1639</v>
       </c>
       <c r="G91" t="n">
-        <v>0.3449783333333339</v>
+        <v>0.3449683333333339</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -3592,10 +3572,10 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3423</v>
+        <v>0.3422</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3423</v>
+        <v>0.3422</v>
       </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
@@ -3610,19 +3590,19 @@
         <v>0.3456</v>
       </c>
       <c r="C92" t="n">
-        <v>0.347</v>
+        <v>0.3456</v>
       </c>
       <c r="D92" t="n">
-        <v>0.347</v>
+        <v>0.3456</v>
       </c>
       <c r="E92" t="n">
         <v>0.3456</v>
       </c>
       <c r="F92" t="n">
-        <v>13601193.4858</v>
+        <v>94833.43060000001</v>
       </c>
       <c r="G92" t="n">
-        <v>0.3450116666666673</v>
+        <v>0.3449783333333339</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
@@ -3631,10 +3611,10 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0.3456</v>
+        <v>0.3423</v>
       </c>
       <c r="K92" t="n">
-        <v>0.3423</v>
+        <v>0.3422</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3650,22 +3630,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3438</v>
+        <v>0.3456</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3438</v>
+        <v>0.347</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3438</v>
+        <v>0.347</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3438</v>
+        <v>0.3456</v>
       </c>
       <c r="F93" t="n">
-        <v>1465.2155</v>
+        <v>13601193.4858</v>
       </c>
       <c r="G93" t="n">
-        <v>0.3449916666666674</v>
+        <v>0.3450116666666673</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -3674,10 +3654,10 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.347</v>
+        <v>0.3456</v>
       </c>
       <c r="K93" t="n">
-        <v>0.3423</v>
+        <v>0.3422</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3693,22 +3673,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3478</v>
+        <v>0.3438</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3478</v>
+        <v>0.3438</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3478</v>
+        <v>0.3438</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3478</v>
+        <v>0.3438</v>
       </c>
       <c r="F94" t="n">
-        <v>600000</v>
+        <v>1465.2155</v>
       </c>
       <c r="G94" t="n">
-        <v>0.345103333333334</v>
+        <v>0.3449916666666674</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -3717,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0.3438</v>
+        <v>0.347</v>
       </c>
       <c r="K94" t="n">
-        <v>0.3438</v>
+        <v>0.347</v>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
@@ -3732,22 +3712,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3481</v>
+        <v>0.3478</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3481</v>
+        <v>0.3478</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3481</v>
+        <v>0.3478</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3481</v>
+        <v>0.3478</v>
       </c>
       <c r="F95" t="n">
-        <v>1465.0963</v>
+        <v>600000</v>
       </c>
       <c r="G95" t="n">
-        <v>0.3452200000000006</v>
+        <v>0.345103333333334</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
@@ -3756,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0.3478</v>
+        <v>0.3438</v>
       </c>
       <c r="K95" t="n">
-        <v>0.3438</v>
+        <v>0.347</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3775,22 +3755,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3453</v>
+        <v>0.3481</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3453</v>
+        <v>0.3481</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3453</v>
+        <v>0.3481</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3453</v>
+        <v>0.3481</v>
       </c>
       <c r="F96" t="n">
         <v>1465.0963</v>
       </c>
       <c r="G96" t="n">
-        <v>0.3452216666666674</v>
+        <v>0.3452200000000006</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3800,7 +3780,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>0.3438</v>
+        <v>0.347</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3816,22 +3796,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3459</v>
+        <v>0.3453</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3455</v>
+        <v>0.3453</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3459</v>
+        <v>0.3453</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3455</v>
+        <v>0.3453</v>
       </c>
       <c r="F97" t="n">
-        <v>2706423.1383</v>
+        <v>1465.0963</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3452966666666674</v>
+        <v>0.3452216666666674</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3851,22 +3831,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3481</v>
+        <v>0.3459</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3481</v>
+        <v>0.3455</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3481</v>
+        <v>0.3459</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3481</v>
+        <v>0.3455</v>
       </c>
       <c r="F98" t="n">
-        <v>3131753.638</v>
+        <v>2706423.1383</v>
       </c>
       <c r="G98" t="n">
-        <v>0.3453450000000007</v>
+        <v>0.3452966666666674</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3886,22 +3866,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.348</v>
+        <v>0.3481</v>
       </c>
       <c r="C99" t="n">
-        <v>0.348</v>
+        <v>0.3481</v>
       </c>
       <c r="D99" t="n">
-        <v>0.348</v>
+        <v>0.3481</v>
       </c>
       <c r="E99" t="n">
-        <v>0.348</v>
+        <v>0.3481</v>
       </c>
       <c r="F99" t="n">
-        <v>852337.7013</v>
+        <v>3131753.638</v>
       </c>
       <c r="G99" t="n">
-        <v>0.345388333333334</v>
+        <v>0.3453450000000007</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3921,22 +3901,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3481</v>
+        <v>0.348</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3481</v>
+        <v>0.348</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3481</v>
+        <v>0.348</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3481</v>
+        <v>0.348</v>
       </c>
       <c r="F100" t="n">
-        <v>795391.5125</v>
+        <v>852337.7013</v>
       </c>
       <c r="G100" t="n">
-        <v>0.345403333333334</v>
+        <v>0.345388333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3968,10 +3948,10 @@
         <v>0.3481</v>
       </c>
       <c r="F101" t="n">
-        <v>715308.3461</v>
+        <v>795391.5125</v>
       </c>
       <c r="G101" t="n">
-        <v>0.3454050000000006</v>
+        <v>0.345403333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4003,10 +3983,10 @@
         <v>0.3481</v>
       </c>
       <c r="F102" t="n">
-        <v>562960</v>
+        <v>715308.3461</v>
       </c>
       <c r="G102" t="n">
-        <v>0.3455216666666673</v>
+        <v>0.3454050000000006</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4029,19 +4009,19 @@
         <v>0.3481</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3487</v>
+        <v>0.3481</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3487</v>
+        <v>0.3481</v>
       </c>
       <c r="E103" t="n">
         <v>0.3481</v>
       </c>
       <c r="F103" t="n">
-        <v>156711.4487</v>
+        <v>562960</v>
       </c>
       <c r="G103" t="n">
-        <v>0.345533333333334</v>
+        <v>0.3455216666666673</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4061,22 +4041,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>0.3481</v>
+      </c>
+      <c r="C104" t="n">
         <v>0.3487</v>
       </c>
-      <c r="C104" t="n">
-        <v>0.3498</v>
-      </c>
       <c r="D104" t="n">
-        <v>0.3498</v>
+        <v>0.3487</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3487</v>
+        <v>0.3481</v>
       </c>
       <c r="F104" t="n">
-        <v>10173491.5609</v>
+        <v>156711.4487</v>
       </c>
       <c r="G104" t="n">
-        <v>0.3455966666666673</v>
+        <v>0.345533333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4096,7 +4076,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3498</v>
+        <v>0.3487</v>
       </c>
       <c r="C105" t="n">
         <v>0.3498</v>
@@ -4105,13 +4085,13 @@
         <v>0.3498</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3455</v>
+        <v>0.3487</v>
       </c>
       <c r="F105" t="n">
-        <v>232399.952</v>
+        <v>10173491.5609</v>
       </c>
       <c r="G105" t="n">
-        <v>0.3456733333333339</v>
+        <v>0.3455966666666673</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4134,7 +4114,7 @@
         <v>0.3498</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3455</v>
+        <v>0.3498</v>
       </c>
       <c r="D106" t="n">
         <v>0.3498</v>
@@ -4143,10 +4123,10 @@
         <v>0.3455</v>
       </c>
       <c r="F106" t="n">
-        <v>4348.8363</v>
+        <v>232399.952</v>
       </c>
       <c r="G106" t="n">
-        <v>0.3456650000000006</v>
+        <v>0.3456733333333339</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4166,22 +4146,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3455</v>
+        <v>0.3498</v>
       </c>
       <c r="C107" t="n">
         <v>0.3455</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3455</v>
+        <v>0.3498</v>
       </c>
       <c r="E107" t="n">
         <v>0.3455</v>
       </c>
       <c r="F107" t="n">
-        <v>570995.0218</v>
+        <v>4348.8363</v>
       </c>
       <c r="G107" t="n">
-        <v>0.3456666666666673</v>
+        <v>0.3456650000000006</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4213,10 +4193,10 @@
         <v>0.3455</v>
       </c>
       <c r="F108" t="n">
-        <v>513895.5196</v>
+        <v>570995.0218</v>
       </c>
       <c r="G108" t="n">
-        <v>0.345668333333334</v>
+        <v>0.3456666666666673</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4248,10 +4228,10 @@
         <v>0.3455</v>
       </c>
       <c r="F109" t="n">
-        <v>4625059.6773</v>
+        <v>513895.5196</v>
       </c>
       <c r="G109" t="n">
-        <v>0.3456700000000006</v>
+        <v>0.345668333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4283,10 +4263,10 @@
         <v>0.3455</v>
       </c>
       <c r="F110" t="n">
-        <v>549544.5453999999</v>
+        <v>4625059.6773</v>
       </c>
       <c r="G110" t="n">
-        <v>0.3456716666666673</v>
+        <v>0.3456700000000006</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4306,22 +4286,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3493</v>
+        <v>0.3455</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3493</v>
+        <v>0.3455</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3493</v>
+        <v>0.3455</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3493</v>
+        <v>0.3455</v>
       </c>
       <c r="F111" t="n">
-        <v>28628.68594331</v>
+        <v>549544.5453999999</v>
       </c>
       <c r="G111" t="n">
-        <v>0.3457366666666672</v>
+        <v>0.3456716666666673</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4341,22 +4321,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3455</v>
+        <v>0.3493</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3455</v>
+        <v>0.3493</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3455</v>
+        <v>0.3493</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3455</v>
+        <v>0.3493</v>
       </c>
       <c r="F112" t="n">
-        <v>1114289.9198</v>
+        <v>28628.68594331</v>
       </c>
       <c r="G112" t="n">
-        <v>0.3457383333333339</v>
+        <v>0.3457366666666672</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4388,10 +4368,10 @@
         <v>0.3455</v>
       </c>
       <c r="F113" t="n">
-        <v>1114289.9199</v>
+        <v>1114289.9198</v>
       </c>
       <c r="G113" t="n">
-        <v>0.3457900000000006</v>
+        <v>0.3457383333333339</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4411,22 +4391,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3494</v>
+        <v>0.3455</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3494</v>
+        <v>0.3455</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3494</v>
+        <v>0.3455</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3494</v>
+        <v>0.3455</v>
       </c>
       <c r="F114" t="n">
-        <v>20000</v>
+        <v>1114289.9199</v>
       </c>
       <c r="G114" t="n">
-        <v>0.3458566666666672</v>
+        <v>0.3457900000000006</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4446,22 +4426,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3496</v>
+        <v>0.3494</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3496</v>
+        <v>0.3494</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3496</v>
+        <v>0.3494</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3496</v>
+        <v>0.3494</v>
       </c>
       <c r="F115" t="n">
-        <v>596708.1687</v>
+        <v>20000</v>
       </c>
       <c r="G115" t="n">
-        <v>0.3459266666666672</v>
+        <v>0.3458566666666672</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4481,22 +4461,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.35</v>
+        <v>0.3496</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3509</v>
+        <v>0.3496</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3509</v>
+        <v>0.3496</v>
       </c>
       <c r="E116" t="n">
-        <v>0.35</v>
+        <v>0.3496</v>
       </c>
       <c r="F116" t="n">
-        <v>499712.89049846</v>
+        <v>596708.1687</v>
       </c>
       <c r="G116" t="n">
-        <v>0.3460183333333338</v>
+        <v>0.3459266666666672</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4516,22 +4496,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="C117" t="n">
-        <v>0.351</v>
+        <v>0.3509</v>
       </c>
       <c r="D117" t="n">
-        <v>0.351</v>
+        <v>0.3509</v>
       </c>
       <c r="E117" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="F117" t="n">
-        <v>88773</v>
+        <v>499712.89049846</v>
       </c>
       <c r="G117" t="n">
-        <v>0.3460816666666671</v>
+        <v>0.3460183333333338</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4551,22 +4531,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3531</v>
+        <v>0.351</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3531</v>
+        <v>0.351</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3455</v>
+        <v>0.351</v>
       </c>
       <c r="F118" t="n">
-        <v>885475.0598</v>
+        <v>88773</v>
       </c>
       <c r="G118" t="n">
-        <v>0.3461800000000004</v>
+        <v>0.3460816666666671</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4586,22 +4566,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C119" t="n">
         <v>0.3531</v>
       </c>
-      <c r="C119" t="n">
-        <v>0.354</v>
-      </c>
       <c r="D119" t="n">
-        <v>0.354</v>
+        <v>0.3531</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3531</v>
+        <v>0.3455</v>
       </c>
       <c r="F119" t="n">
-        <v>6856711.8061</v>
+        <v>885475.0598</v>
       </c>
       <c r="G119" t="n">
-        <v>0.3462800000000004</v>
+        <v>0.3461800000000004</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4621,7 +4601,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.354</v>
+        <v>0.3531</v>
       </c>
       <c r="C120" t="n">
         <v>0.354</v>
@@ -4630,13 +4610,13 @@
         <v>0.354</v>
       </c>
       <c r="E120" t="n">
-        <v>0.354</v>
+        <v>0.3531</v>
       </c>
       <c r="F120" t="n">
-        <v>243285.5865</v>
+        <v>6856711.8061</v>
       </c>
       <c r="G120" t="n">
-        <v>0.3463800000000005</v>
+        <v>0.3462800000000004</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4656,22 +4636,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="C121" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="D121" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="E121" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="F121" t="n">
-        <v>17788</v>
+        <v>243285.5865</v>
       </c>
       <c r="G121" t="n">
-        <v>0.3464850000000004</v>
+        <v>0.3463800000000005</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4691,22 +4671,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3545</v>
+        <v>0.355</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3545</v>
+        <v>0.355</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3545</v>
+        <v>0.355</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3545</v>
+        <v>0.355</v>
       </c>
       <c r="F122" t="n">
-        <v>15906.3941</v>
+        <v>17788</v>
       </c>
       <c r="G122" t="n">
-        <v>0.3465816666666671</v>
+        <v>0.3464850000000004</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4729,19 +4709,19 @@
         <v>0.3545</v>
       </c>
       <c r="C123" t="n">
-        <v>0.351</v>
+        <v>0.3545</v>
       </c>
       <c r="D123" t="n">
         <v>0.3545</v>
       </c>
       <c r="E123" t="n">
-        <v>0.351</v>
+        <v>0.3545</v>
       </c>
       <c r="F123" t="n">
-        <v>1003200</v>
+        <v>15906.3941</v>
       </c>
       <c r="G123" t="n">
-        <v>0.3466216666666671</v>
+        <v>0.3465816666666671</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4761,28 +4741,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.355</v>
+        <v>0.3545</v>
       </c>
       <c r="C124" t="n">
-        <v>0.355</v>
+        <v>0.351</v>
       </c>
       <c r="D124" t="n">
-        <v>0.355</v>
+        <v>0.3545</v>
       </c>
       <c r="E124" t="n">
-        <v>0.355</v>
+        <v>0.351</v>
       </c>
       <c r="F124" t="n">
-        <v>485212</v>
+        <v>1003200</v>
       </c>
       <c r="G124" t="n">
-        <v>0.3467583333333337</v>
+        <v>0.3466216666666671</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4796,28 +4776,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.351</v>
+        <v>0.355</v>
       </c>
       <c r="C125" t="n">
-        <v>0.351</v>
+        <v>0.355</v>
       </c>
       <c r="D125" t="n">
-        <v>0.351</v>
+        <v>0.355</v>
       </c>
       <c r="E125" t="n">
-        <v>0.351</v>
+        <v>0.355</v>
       </c>
       <c r="F125" t="n">
-        <v>3200</v>
+        <v>485212</v>
       </c>
       <c r="G125" t="n">
-        <v>0.3468283333333337</v>
+        <v>0.3467583333333337</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4831,22 +4811,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3557</v>
+        <v>0.351</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3557</v>
+        <v>0.351</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3557</v>
+        <v>0.351</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3557</v>
+        <v>0.351</v>
       </c>
       <c r="F126" t="n">
-        <v>265661.2551</v>
+        <v>3200</v>
       </c>
       <c r="G126" t="n">
-        <v>0.346976666666667</v>
+        <v>0.3468283333333337</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4866,22 +4846,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3563</v>
+        <v>0.3557</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3563</v>
+        <v>0.3557</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3564</v>
+        <v>0.3557</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3563</v>
+        <v>0.3557</v>
       </c>
       <c r="F127" t="n">
-        <v>3427752.1635</v>
+        <v>265661.2551</v>
       </c>
       <c r="G127" t="n">
-        <v>0.3471483333333337</v>
+        <v>0.346976666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4901,22 +4881,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3564</v>
+        <v>0.3563</v>
       </c>
       <c r="C128" t="n">
         <v>0.3563</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3569</v>
+        <v>0.3564</v>
       </c>
       <c r="E128" t="n">
-        <v>0.3519</v>
+        <v>0.3563</v>
       </c>
       <c r="F128" t="n">
-        <v>8632296.337359</v>
+        <v>3427752.1635</v>
       </c>
       <c r="G128" t="n">
-        <v>0.3473533333333336</v>
+        <v>0.3471483333333337</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4939,25 +4919,25 @@
         <v>0.3564</v>
       </c>
       <c r="C129" t="n">
-        <v>0.358</v>
+        <v>0.3563</v>
       </c>
       <c r="D129" t="n">
-        <v>0.358</v>
+        <v>0.3569</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3525</v>
+        <v>0.3519</v>
       </c>
       <c r="F129" t="n">
-        <v>4819160.39931977</v>
+        <v>8632296.337359</v>
       </c>
       <c r="G129" t="n">
-        <v>0.3476133333333336</v>
+        <v>0.3473533333333336</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -4971,28 +4951,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3588</v>
+        <v>0.3564</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3525</v>
+        <v>0.358</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3588</v>
+        <v>0.358</v>
       </c>
       <c r="E130" t="n">
         <v>0.3525</v>
       </c>
       <c r="F130" t="n">
-        <v>2842.8094</v>
+        <v>4819160.39931977</v>
       </c>
       <c r="G130" t="n">
-        <v>0.3477733333333336</v>
+        <v>0.3476133333333336</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5012,22 +4992,22 @@
         <v>0.3525</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3598</v>
+        <v>0.3588</v>
       </c>
       <c r="E131" t="n">
         <v>0.3525</v>
       </c>
       <c r="F131" t="n">
-        <v>632819.4943</v>
+        <v>2842.8094</v>
       </c>
       <c r="G131" t="n">
-        <v>0.3478633333333336</v>
+        <v>0.3477733333333336</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5041,22 +5021,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3535</v>
+        <v>0.3588</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3535</v>
+        <v>0.3525</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3535</v>
+        <v>0.3598</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3535</v>
+        <v>0.3525</v>
       </c>
       <c r="F132" t="n">
-        <v>2290189.2253</v>
+        <v>632819.4943</v>
       </c>
       <c r="G132" t="n">
-        <v>0.3479983333333336</v>
+        <v>0.3478633333333336</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5088,10 +5068,10 @@
         <v>0.3535</v>
       </c>
       <c r="F133" t="n">
-        <v>238282.6876</v>
+        <v>2290189.2253</v>
       </c>
       <c r="G133" t="n">
-        <v>0.3481750000000002</v>
+        <v>0.3479983333333336</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5111,22 +5091,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3598</v>
+        <v>0.3535</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3598</v>
+        <v>0.3535</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3598</v>
+        <v>0.3535</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3598</v>
+        <v>0.3535</v>
       </c>
       <c r="F134" t="n">
-        <v>778339.5318999999</v>
+        <v>238282.6876</v>
       </c>
       <c r="G134" t="n">
-        <v>0.3484566666666669</v>
+        <v>0.3481750000000002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5146,22 +5126,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3545</v>
+        <v>0.3598</v>
       </c>
       <c r="C135" t="n">
-        <v>0.355</v>
+        <v>0.3598</v>
       </c>
       <c r="D135" t="n">
-        <v>0.355</v>
+        <v>0.3598</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3545</v>
+        <v>0.3598</v>
       </c>
       <c r="F135" t="n">
-        <v>40000</v>
+        <v>778339.5318999999</v>
       </c>
       <c r="G135" t="n">
-        <v>0.3486166666666669</v>
+        <v>0.3484566666666669</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5181,7 +5161,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.355</v>
+        <v>0.3545</v>
       </c>
       <c r="C136" t="n">
         <v>0.355</v>
@@ -5190,13 +5170,13 @@
         <v>0.355</v>
       </c>
       <c r="E136" t="n">
-        <v>0.355</v>
+        <v>0.3545</v>
       </c>
       <c r="F136" t="n">
-        <v>88554.3437</v>
+        <v>40000</v>
       </c>
       <c r="G136" t="n">
-        <v>0.3487766666666668</v>
+        <v>0.3486166666666669</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5216,22 +5196,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.3537</v>
+        <v>0.355</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3537</v>
+        <v>0.355</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3537</v>
+        <v>0.355</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3537</v>
+        <v>0.355</v>
       </c>
       <c r="F137" t="n">
-        <v>3583725.4064</v>
+        <v>88554.3437</v>
       </c>
       <c r="G137" t="n">
-        <v>0.3489150000000001</v>
+        <v>0.3487766666666668</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5251,22 +5231,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3597</v>
+        <v>0.3537</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3597</v>
+        <v>0.3537</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3597</v>
+        <v>0.3537</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3597</v>
+        <v>0.3537</v>
       </c>
       <c r="F138" t="n">
-        <v>600000</v>
+        <v>3583725.4064</v>
       </c>
       <c r="G138" t="n">
-        <v>0.3491533333333335</v>
+        <v>0.3489150000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5286,7 +5266,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3541</v>
+        <v>0.3597</v>
       </c>
       <c r="C139" t="n">
         <v>0.3597</v>
@@ -5295,13 +5275,13 @@
         <v>0.3597</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3541</v>
+        <v>0.3597</v>
       </c>
       <c r="F139" t="n">
-        <v>22704807.7567</v>
+        <v>600000</v>
       </c>
       <c r="G139" t="n">
-        <v>0.3493533333333335</v>
+        <v>0.3491533333333335</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5321,7 +5301,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3597</v>
+        <v>0.3541</v>
       </c>
       <c r="C140" t="n">
         <v>0.3597</v>
@@ -5330,13 +5310,13 @@
         <v>0.3597</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3597</v>
+        <v>0.3541</v>
       </c>
       <c r="F140" t="n">
-        <v>671345.1844</v>
+        <v>22704807.7567</v>
       </c>
       <c r="G140" t="n">
-        <v>0.3495733333333335</v>
+        <v>0.3493533333333335</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5356,22 +5336,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3595</v>
+        <v>0.3597</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3595</v>
+        <v>0.3597</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3595</v>
+        <v>0.3597</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3595</v>
+        <v>0.3597</v>
       </c>
       <c r="F141" t="n">
-        <v>4108.48400556</v>
+        <v>671345.1844</v>
       </c>
       <c r="G141" t="n">
-        <v>0.3498200000000002</v>
+        <v>0.3495733333333335</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5391,22 +5371,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3594</v>
+        <v>0.3595</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3594</v>
+        <v>0.3595</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3594</v>
+        <v>0.3595</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3594</v>
+        <v>0.3595</v>
       </c>
       <c r="F142" t="n">
-        <v>4246.1736</v>
+        <v>4108.48400556</v>
       </c>
       <c r="G142" t="n">
-        <v>0.3500950000000002</v>
+        <v>0.3498200000000002</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5426,22 +5406,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.355</v>
+        <v>0.3594</v>
       </c>
       <c r="C143" t="n">
-        <v>0.355</v>
+        <v>0.3594</v>
       </c>
       <c r="D143" t="n">
-        <v>0.355</v>
+        <v>0.3594</v>
       </c>
       <c r="E143" t="n">
-        <v>0.355</v>
+        <v>0.3594</v>
       </c>
       <c r="F143" t="n">
-        <v>1052523.0726</v>
+        <v>4246.1736</v>
       </c>
       <c r="G143" t="n">
-        <v>0.3503183333333336</v>
+        <v>0.3500950000000002</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5461,22 +5441,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3538</v>
+        <v>0.355</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3538</v>
+        <v>0.355</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3538</v>
+        <v>0.355</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3538</v>
+        <v>0.355</v>
       </c>
       <c r="F144" t="n">
-        <v>15599905.706</v>
+        <v>1052523.0726</v>
       </c>
       <c r="G144" t="n">
-        <v>0.3505216666666669</v>
+        <v>0.3503183333333336</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5508,10 +5488,10 @@
         <v>0.3538</v>
       </c>
       <c r="F145" t="n">
-        <v>6448985.9105</v>
+        <v>15599905.706</v>
       </c>
       <c r="G145" t="n">
-        <v>0.3507266666666669</v>
+        <v>0.3505216666666669</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5540,13 +5520,13 @@
         <v>0.3538</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3536</v>
+        <v>0.3538</v>
       </c>
       <c r="F146" t="n">
-        <v>9787025.4146</v>
+        <v>6448985.9105</v>
       </c>
       <c r="G146" t="n">
-        <v>0.3509316666666669</v>
+        <v>0.3507266666666669</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5575,13 +5555,13 @@
         <v>0.3538</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3538</v>
+        <v>0.3536</v>
       </c>
       <c r="F147" t="n">
-        <v>10309893.1788</v>
+        <v>9787025.4146</v>
       </c>
       <c r="G147" t="n">
-        <v>0.3511366666666669</v>
+        <v>0.3509316666666669</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5613,10 +5593,10 @@
         <v>0.3538</v>
       </c>
       <c r="F148" t="n">
-        <v>3877859.9702</v>
+        <v>10309893.1788</v>
       </c>
       <c r="G148" t="n">
-        <v>0.3512733333333335</v>
+        <v>0.3511366666666669</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5648,19 +5628,23 @@
         <v>0.3538</v>
       </c>
       <c r="F149" t="n">
-        <v>8666170.1042</v>
+        <v>3877859.9702</v>
       </c>
       <c r="G149" t="n">
-        <v>0.3514666666666669</v>
+        <v>0.3512733333333335</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.3538</v>
+      </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
@@ -5671,22 +5655,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.3578</v>
+        <v>0.3538</v>
       </c>
       <c r="C150" t="n">
-        <v>0.3578</v>
+        <v>0.3538</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3578</v>
+        <v>0.3538</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3578</v>
+        <v>0.3538</v>
       </c>
       <c r="F150" t="n">
-        <v>89799.6805</v>
+        <v>8666170.1042</v>
       </c>
       <c r="G150" t="n">
-        <v>0.3517250000000002</v>
+        <v>0.3514666666666669</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5695,8 +5679,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5709,19 +5699,19 @@
         <v>0.3578</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3597</v>
+        <v>0.3578</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3597</v>
+        <v>0.3578</v>
       </c>
       <c r="E151" t="n">
         <v>0.3578</v>
       </c>
       <c r="F151" t="n">
-        <v>4798738.5266</v>
+        <v>89799.6805</v>
       </c>
       <c r="G151" t="n">
-        <v>0.3519600000000002</v>
+        <v>0.3517250000000002</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5730,8 +5720,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5744,19 +5740,19 @@
         <v>0.3578</v>
       </c>
       <c r="C152" t="n">
-        <v>0.3578</v>
+        <v>0.3597</v>
       </c>
       <c r="D152" t="n">
-        <v>0.3578</v>
+        <v>0.3597</v>
       </c>
       <c r="E152" t="n">
         <v>0.3578</v>
       </c>
       <c r="F152" t="n">
-        <v>255946.508</v>
+        <v>4798738.5266</v>
       </c>
       <c r="G152" t="n">
-        <v>0.3521400000000002</v>
+        <v>0.3519600000000002</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5788,10 +5784,10 @@
         <v>0.3578</v>
       </c>
       <c r="F153" t="n">
-        <v>408573.8427</v>
+        <v>255946.508</v>
       </c>
       <c r="G153" t="n">
-        <v>0.3523733333333335</v>
+        <v>0.3521400000000002</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5811,22 +5807,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.3597</v>
+        <v>0.3578</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3597</v>
+        <v>0.3578</v>
       </c>
       <c r="D154" t="n">
-        <v>0.3597</v>
+        <v>0.3578</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3597</v>
+        <v>0.3578</v>
       </c>
       <c r="F154" t="n">
-        <v>1832910</v>
+        <v>408573.8427</v>
       </c>
       <c r="G154" t="n">
-        <v>0.3525716666666668</v>
+        <v>0.3523733333333335</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5849,19 +5845,19 @@
         <v>0.3597</v>
       </c>
       <c r="C155" t="n">
-        <v>0.361</v>
+        <v>0.3597</v>
       </c>
       <c r="D155" t="n">
-        <v>0.361</v>
+        <v>0.3597</v>
       </c>
       <c r="E155" t="n">
         <v>0.3597</v>
       </c>
       <c r="F155" t="n">
-        <v>23572610.9126</v>
+        <v>1832910</v>
       </c>
       <c r="G155" t="n">
-        <v>0.3527866666666669</v>
+        <v>0.3525716666666668</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5881,22 +5877,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.3613</v>
+        <v>0.3597</v>
       </c>
       <c r="C156" t="n">
-        <v>0.3613</v>
+        <v>0.361</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3615</v>
+        <v>0.361</v>
       </c>
       <c r="E156" t="n">
-        <v>0.3613</v>
+        <v>0.3597</v>
       </c>
       <c r="F156" t="n">
-        <v>1007247.8315</v>
+        <v>23572610.9126</v>
       </c>
       <c r="G156" t="n">
-        <v>0.3530533333333335</v>
+        <v>0.3527866666666669</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5919,19 +5915,19 @@
         <v>0.3613</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3537</v>
+        <v>0.3613</v>
       </c>
       <c r="D157" t="n">
+        <v>0.3615</v>
+      </c>
+      <c r="E157" t="n">
         <v>0.3613</v>
       </c>
-      <c r="E157" t="n">
-        <v>0.3537</v>
-      </c>
       <c r="F157" t="n">
-        <v>922357.0658</v>
+        <v>1007247.8315</v>
       </c>
       <c r="G157" t="n">
-        <v>0.3531900000000002</v>
+        <v>0.3530533333333335</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5951,22 +5947,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.3609</v>
+        <v>0.3613</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3619</v>
+        <v>0.3537</v>
       </c>
       <c r="D158" t="n">
-        <v>0.3619</v>
+        <v>0.3613</v>
       </c>
       <c r="E158" t="n">
-        <v>0.3609</v>
+        <v>0.3537</v>
       </c>
       <c r="F158" t="n">
-        <v>6726181.9364</v>
+        <v>922357.0658</v>
       </c>
       <c r="G158" t="n">
-        <v>0.3534200000000001</v>
+        <v>0.3531900000000002</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5986,22 +5982,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.363</v>
+        <v>0.3609</v>
       </c>
       <c r="C159" t="n">
-        <v>0.363</v>
+        <v>0.3619</v>
       </c>
       <c r="D159" t="n">
-        <v>0.363</v>
+        <v>0.3619</v>
       </c>
       <c r="E159" t="n">
-        <v>0.363</v>
+        <v>0.3609</v>
       </c>
       <c r="F159" t="n">
-        <v>5655185.6172</v>
+        <v>6726181.9364</v>
       </c>
       <c r="G159" t="n">
-        <v>0.3536700000000002</v>
+        <v>0.3534200000000001</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6033,10 +6029,10 @@
         <v>0.363</v>
       </c>
       <c r="F160" t="n">
-        <v>2388710.5982</v>
+        <v>5655185.6172</v>
       </c>
       <c r="G160" t="n">
-        <v>0.3539183333333335</v>
+        <v>0.3536700000000002</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6056,22 +6052,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="C161" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="D161" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="E161" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="F161" t="n">
-        <v>440424.1108</v>
+        <v>2388710.5982</v>
       </c>
       <c r="G161" t="n">
-        <v>0.3541833333333335</v>
+        <v>0.3539183333333335</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6103,10 +6099,10 @@
         <v>0.364</v>
       </c>
       <c r="F162" t="n">
-        <v>1442470.1707</v>
+        <v>440424.1108</v>
       </c>
       <c r="G162" t="n">
-        <v>0.3544483333333336</v>
+        <v>0.3541833333333335</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6138,10 +6134,10 @@
         <v>0.364</v>
       </c>
       <c r="F163" t="n">
-        <v>1460517.9766</v>
+        <v>1442470.1707</v>
       </c>
       <c r="G163" t="n">
-        <v>0.3547033333333335</v>
+        <v>0.3544483333333336</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6173,10 +6169,10 @@
         <v>0.364</v>
       </c>
       <c r="F164" t="n">
-        <v>1272676.2352</v>
+        <v>1460517.9766</v>
       </c>
       <c r="G164" t="n">
-        <v>0.3549400000000003</v>
+        <v>0.3547033333333335</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6199,19 +6195,19 @@
         <v>0.364</v>
       </c>
       <c r="C165" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="D165" t="n">
         <v>0.364</v>
       </c>
       <c r="E165" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="F165" t="n">
-        <v>1421431.4078</v>
+        <v>1272676.2352</v>
       </c>
       <c r="G165" t="n">
-        <v>0.3551600000000003</v>
+        <v>0.3549400000000003</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6243,10 +6239,10 @@
         <v>0.363</v>
       </c>
       <c r="F166" t="n">
-        <v>5317514.328</v>
+        <v>1421431.4078</v>
       </c>
       <c r="G166" t="n">
-        <v>0.3554516666666669</v>
+        <v>0.3551600000000003</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6266,22 +6262,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="C167" t="n">
         <v>0.363</v>
       </c>
       <c r="D167" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="E167" t="n">
         <v>0.363</v>
       </c>
       <c r="F167" t="n">
-        <v>501395.4186</v>
+        <v>5317514.328</v>
       </c>
       <c r="G167" t="n">
-        <v>0.3557433333333336</v>
+        <v>0.3554516666666669</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6301,7 +6297,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="C168" t="n">
         <v>0.363</v>
@@ -6310,13 +6306,13 @@
         <v>0.363</v>
       </c>
       <c r="E168" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="F168" t="n">
-        <v>2862819.6999</v>
+        <v>501395.4186</v>
       </c>
       <c r="G168" t="n">
-        <v>0.3560350000000002</v>
+        <v>0.3557433333333336</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6339,19 +6335,19 @@
         <v>0.361</v>
       </c>
       <c r="C169" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="D169" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="E169" t="n">
         <v>0.361</v>
       </c>
       <c r="F169" t="n">
-        <v>1549362.7487</v>
+        <v>2862819.6999</v>
       </c>
       <c r="G169" t="n">
-        <v>0.3562933333333335</v>
+        <v>0.3560350000000002</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6383,10 +6379,10 @@
         <v>0.361</v>
       </c>
       <c r="F170" t="n">
-        <v>1369398.709</v>
+        <v>1549362.7487</v>
       </c>
       <c r="G170" t="n">
-        <v>0.3565516666666669</v>
+        <v>0.3562933333333335</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6406,22 +6402,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.3611</v>
+        <v>0.361</v>
       </c>
       <c r="C171" t="n">
-        <v>0.3611</v>
+        <v>0.361</v>
       </c>
       <c r="D171" t="n">
-        <v>0.3611</v>
+        <v>0.361</v>
       </c>
       <c r="E171" t="n">
-        <v>0.3611</v>
+        <v>0.361</v>
       </c>
       <c r="F171" t="n">
-        <v>1000000</v>
+        <v>1369398.709</v>
       </c>
       <c r="G171" t="n">
-        <v>0.3567483333333336</v>
+        <v>0.3565516666666669</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6436,6 +6432,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.3567483333333336</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-13 BackTest BTT.xlsx
+++ b/BackTest/2020-01-13 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1058524.4131</v>
       </c>
       <c r="G2" t="n">
+        <v>0.3426999999999996</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3413433333333332</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>137146.9187</v>
       </c>
       <c r="G3" t="n">
+        <v>0.3426666666666662</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3415233333333332</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>335286.7241</v>
       </c>
       <c r="G4" t="n">
+        <v>0.3425266666666662</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3416416666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>53918.3819</v>
       </c>
       <c r="G5" t="n">
+        <v>0.3424799999999995</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3417633333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3409</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,25 @@
         <v>75901</v>
       </c>
       <c r="G6" t="n">
+        <v>0.3424333333333329</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3418399999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,29 @@
         <v>432357.1739</v>
       </c>
       <c r="G7" t="n">
+        <v>0.3423933333333328</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.3420066666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,29 @@
         <v>9620661</v>
       </c>
       <c r="G8" t="n">
+        <v>0.3423533333333328</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3420533333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +759,29 @@
         <v>455488.1867</v>
       </c>
       <c r="G9" t="n">
+        <v>0.3423133333333327</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.3420933333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +805,29 @@
         <v>952427</v>
       </c>
       <c r="G10" t="n">
+        <v>0.3424333333333328</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.34217</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +851,29 @@
         <v>3948.6173</v>
       </c>
       <c r="G11" t="n">
+        <v>0.3423333333333327</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.342185</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3446</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +897,29 @@
         <v>101508.12064965</v>
       </c>
       <c r="G12" t="n">
+        <v>0.3424933333333328</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.342265</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.3409</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +943,29 @@
         <v>421311.1243</v>
       </c>
       <c r="G13" t="n">
+        <v>0.3423933333333328</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.34228</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.3448</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +989,29 @@
         <v>3355602.8683</v>
       </c>
       <c r="G14" t="n">
+        <v>0.3425466666666662</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.3423583333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3409</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1035,29 @@
         <v>69555.1324</v>
       </c>
       <c r="G15" t="n">
+        <v>0.3426866666666662</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3424333333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.3447</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1081,29 @@
         <v>487629.6176</v>
       </c>
       <c r="G16" t="n">
+        <v>0.3428266666666662</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3425016666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.3445</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1127,29 @@
         <v>217881.1947</v>
       </c>
       <c r="G17" t="n">
+        <v>0.3429866666666663</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.342575</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.3445</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1173,29 @@
         <v>449023.0064</v>
       </c>
       <c r="G18" t="n">
+        <v>0.3431466666666663</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.3426483333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.3448</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1219,29 @@
         <v>855218.9915</v>
       </c>
       <c r="G19" t="n">
+        <v>0.3434066666666663</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.3427216666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3448</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1265,27 @@
         <v>659036.3865</v>
       </c>
       <c r="G20" t="n">
+        <v>0.343573333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.342795</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1309,29 @@
         <v>12915.3865</v>
       </c>
       <c r="G21" t="n">
+        <v>0.3435066666666663</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.3428100000000001</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.3448</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1355,29 @@
         <v>388622</v>
       </c>
       <c r="G22" t="n">
+        <v>0.3436666666666664</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.3428833333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3413</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1401,29 @@
         <v>582357</v>
       </c>
       <c r="G23" t="n">
+        <v>0.3438266666666664</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.3429566666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.3448</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1447,27 @@
         <v>2707090.245</v>
       </c>
       <c r="G24" t="n">
+        <v>0.3440333333333331</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.3430416666666668</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1491,27 @@
         <v>52987.5094</v>
       </c>
       <c r="G25" t="n">
+        <v>0.3440933333333332</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.3431266666666668</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1535,27 @@
         <v>286814.9226</v>
       </c>
       <c r="G26" t="n">
+        <v>0.3444199999999998</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.3431900000000002</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1579,27 @@
         <v>1553337.1723</v>
       </c>
       <c r="G27" t="n">
+        <v>0.3446333333333332</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.3432900000000002</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1623,27 @@
         <v>3160.9196</v>
       </c>
       <c r="G28" t="n">
+        <v>0.3447133333333332</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.3432916666666668</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1667,27 @@
         <v>2862842.44</v>
       </c>
       <c r="G29" t="n">
+        <v>0.3446066666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.3433100000000002</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1711,27 @@
         <v>8567.609200000001</v>
       </c>
       <c r="G30" t="n">
+        <v>0.3447466666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.3433866666666668</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1755,27 @@
         <v>730230.998</v>
       </c>
       <c r="G31" t="n">
+        <v>0.3447733333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.3434350000000002</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1799,27 @@
         <v>41658.1444</v>
       </c>
       <c r="G32" t="n">
+        <v>0.3447866666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.3434850000000002</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1843,27 @@
         <v>5000</v>
       </c>
       <c r="G33" t="n">
+        <v>0.3447999999999999</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.3435350000000002</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1887,27 @@
         <v>874154.9905</v>
       </c>
       <c r="G34" t="n">
+        <v>0.3448133333333331</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.3435850000000002</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1931,27 @@
         <v>145824.4216</v>
       </c>
       <c r="G35" t="n">
+        <v>0.3445666666666665</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.3435700000000003</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1975,29 @@
         <v>447139.2782</v>
       </c>
       <c r="G36" t="n">
+        <v>0.3445533333333331</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.3435550000000003</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +2021,29 @@
         <v>322891.1372</v>
       </c>
       <c r="G37" t="n">
+        <v>0.3445799999999998</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.3436083333333336</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2067,27 @@
         <v>2954.809</v>
       </c>
       <c r="G38" t="n">
+        <v>0.3443266666666664</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.343576666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2111,27 @@
         <v>235104.8343</v>
       </c>
       <c r="G39" t="n">
+        <v>0.3443066666666664</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.3435966666666669</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2155,27 @@
         <v>769378.3223999999</v>
       </c>
       <c r="G40" t="n">
+        <v>0.3442999999999997</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.3436033333333336</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2199,27 @@
         <v>2322637.4156</v>
       </c>
       <c r="G41" t="n">
+        <v>0.3443933333333331</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.3436400000000003</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2243,27 @@
         <v>3161731.96703436</v>
       </c>
       <c r="G42" t="n">
+        <v>0.3443933333333331</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.3436900000000003</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2287,27 @@
         <v>1477.4045</v>
       </c>
       <c r="G43" t="n">
+        <v>0.3443266666666664</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.3436250000000003</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2331,27 @@
         <v>22001429.3883</v>
       </c>
       <c r="G44" t="n">
+        <v>0.3446533333333331</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.3436750000000003</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2375,27 @@
         <v>3001445.0868</v>
       </c>
       <c r="G45" t="n">
+        <v>0.3446133333333331</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.3436916666666671</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2419,27 @@
         <v>600000</v>
       </c>
       <c r="G46" t="n">
+        <v>0.3446333333333331</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.3436950000000004</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2463,27 @@
         <v>1888539.3355</v>
       </c>
       <c r="G47" t="n">
+        <v>0.3446999999999998</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.3437933333333337</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2507,27 @@
         <v>14545046.5522</v>
       </c>
       <c r="G48" t="n">
+        <v>0.3447266666666665</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.3438350000000004</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2551,27 @@
         <v>2476128.016</v>
       </c>
       <c r="G49" t="n">
+        <v>0.3447533333333331</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.3438750000000004</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2595,27 @@
         <v>2572842</v>
       </c>
       <c r="G50" t="n">
+        <v>0.3450399999999998</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.3439150000000005</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2639,27 @@
         <v>2942047.0634</v>
       </c>
       <c r="G51" t="n">
+        <v>0.3453266666666664</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.3439550000000005</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2683,27 @@
         <v>1092208.9411</v>
       </c>
       <c r="G52" t="n">
+        <v>0.3453399999999997</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.3439950000000005</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2727,27 @@
         <v>863459.2355</v>
       </c>
       <c r="G53" t="n">
+        <v>0.345633333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.3440350000000005</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2771,27 @@
         <v>10981.6384</v>
       </c>
       <c r="G54" t="n">
+        <v>0.3454466666666663</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.3440250000000005</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2815,27 @@
         <v>2665039</v>
       </c>
       <c r="G55" t="n">
+        <v>0.3454466666666663</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.3440683333333339</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2859,27 @@
         <v>732267</v>
       </c>
       <c r="G56" t="n">
+        <v>0.3453266666666663</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.3441183333333339</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2903,27 @@
         <v>1421388.2083</v>
       </c>
       <c r="G57" t="n">
+        <v>0.345153333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.3441683333333339</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2947,27 @@
         <v>293991.0478</v>
       </c>
       <c r="G58" t="n">
+        <v>0.3455599999999996</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.3442483333333339</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2991,27 @@
         <v>819637.9521</v>
       </c>
       <c r="G59" t="n">
+        <v>0.3455066666666663</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.3443283333333339</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +3035,27 @@
         <v>1200000</v>
       </c>
       <c r="G60" t="n">
+        <v>0.3456399999999996</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.3444216666666672</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3079,27 @@
         <v>536744</v>
       </c>
       <c r="G61" t="n">
+        <v>0.3458266666666663</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.3445150000000005</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3123,27 @@
         <v>1200000</v>
       </c>
       <c r="G62" t="n">
+        <v>0.3460066666666662</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.3446200000000005</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3167,27 @@
         <v>101005.5889</v>
       </c>
       <c r="G63" t="n">
+        <v>0.3462266666666663</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.3447250000000004</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3211,27 @@
         <v>18375.7656</v>
       </c>
       <c r="G64" t="n">
+        <v>0.3464399999999996</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.3448533333333338</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3255,27 @@
         <v>5095355.8977</v>
       </c>
       <c r="G65" t="n">
+        <v>0.346533333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.3449283333333337</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3299,27 @@
         <v>1551</v>
       </c>
       <c r="G66" t="n">
+        <v>0.3466266666666664</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.3450033333333337</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3343,27 @@
         <v>65371</v>
       </c>
       <c r="G67" t="n">
+        <v>0.3467199999999997</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.3450766666666671</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3387,27 @@
         <v>49729.3471</v>
       </c>
       <c r="G68" t="n">
+        <v>0.3467599999999997</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.345136666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3431,27 @@
         <v>50018.4857</v>
       </c>
       <c r="G69" t="n">
+        <v>0.3468666666666664</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.3451633333333337</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3475,27 @@
         <v>4385.7763</v>
       </c>
       <c r="G70" t="n">
+        <v>0.3466666666666665</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.3451266666666671</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3519,27 @@
         <v>153600.0107</v>
       </c>
       <c r="G71" t="n">
+        <v>0.3464999999999998</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.3451600000000004</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3563,27 @@
         <v>20000</v>
       </c>
       <c r="G72" t="n">
+        <v>0.3466133333333332</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.3451983333333338</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3607,27 @@
         <v>52692.53</v>
       </c>
       <c r="G73" t="n">
+        <v>0.3464933333333332</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.3452733333333338</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3651,27 @@
         <v>18064.3413</v>
       </c>
       <c r="G74" t="n">
+        <v>0.3462066666666665</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.3452433333333337</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3695,27 @@
         <v>19428.8</v>
       </c>
       <c r="G75" t="n">
+        <v>0.3458666666666665</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.3452166666666671</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3739,27 @@
         <v>57126.5353</v>
       </c>
       <c r="G76" t="n">
+        <v>0.3456933333333332</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.3452316666666671</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3783,27 @@
         <v>770374.5954</v>
       </c>
       <c r="G77" t="n">
+        <v>0.3454733333333332</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.3452416666666672</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3827,27 @@
         <v>2188434.0032</v>
       </c>
       <c r="G78" t="n">
+        <v>0.3452533333333331</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.3452516666666672</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3871,27 @@
         <v>80299.7595</v>
       </c>
       <c r="G79" t="n">
+        <v>0.3450399999999998</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.3452616666666672</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3915,27 @@
         <v>47304123.5939</v>
       </c>
       <c r="G80" t="n">
+        <v>0.3450999999999997</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.3453100000000006</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3959,27 @@
         <v>17931887.1364</v>
       </c>
       <c r="G81" t="n">
+        <v>0.3450799999999997</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.3453966666666672</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +4003,27 @@
         <v>6441023.4639</v>
       </c>
       <c r="G82" t="n">
+        <v>0.3449399999999997</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.3453950000000006</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +4047,27 @@
         <v>286421.154</v>
       </c>
       <c r="G83" t="n">
+        <v>0.3447333333333331</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.3453633333333339</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +4091,27 @@
         <v>3700.2845</v>
       </c>
       <c r="G84" t="n">
+        <v>0.344573333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.3452983333333339</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +4135,27 @@
         <v>329993.6401</v>
       </c>
       <c r="G85" t="n">
+        <v>0.3445199999999997</v>
+      </c>
+      <c r="H85" t="n">
         <v>0.3452333333333338</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +4179,27 @@
         <v>20614.6652</v>
       </c>
       <c r="G86" t="n">
+        <v>0.3444266666666663</v>
+      </c>
+      <c r="H86" t="n">
         <v>0.3451616666666671</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4223,27 @@
         <v>218065</v>
       </c>
       <c r="G87" t="n">
+        <v>0.344053333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>0.3450533333333338</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4267,27 @@
         <v>2322637.4156</v>
       </c>
       <c r="G88" t="n">
+        <v>0.343793333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.3450433333333339</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4311,27 @@
         <v>600000</v>
       </c>
       <c r="G89" t="n">
+        <v>0.343973333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.3450850000000006</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4355,27 @@
         <v>1095089.8078</v>
       </c>
       <c r="G90" t="n">
+        <v>0.3439266666666663</v>
+      </c>
+      <c r="H90" t="n">
         <v>0.3450116666666672</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,22 +4399,27 @@
         <v>7329.1639</v>
       </c>
       <c r="G91" t="n">
+        <v>0.3437199999999996</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.3449683333333339</v>
       </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3422</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.3422</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,26 +4443,27 @@
         <v>94833.43060000001</v>
       </c>
       <c r="G92" t="n">
+        <v>0.343733333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>0.3449783333333339</v>
       </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.3422</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3645,26 +4487,27 @@
         <v>13601193.4858</v>
       </c>
       <c r="G93" t="n">
+        <v>0.3438399999999996</v>
+      </c>
+      <c r="H93" t="n">
         <v>0.3450116666666673</v>
       </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.3456</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.3422</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,22 +4531,27 @@
         <v>1465.2155</v>
       </c>
       <c r="G94" t="n">
+        <v>0.343733333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>0.3449916666666674</v>
       </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3727,26 +4575,27 @@
         <v>600000</v>
       </c>
       <c r="G95" t="n">
+        <v>0.3437399999999997</v>
+      </c>
+      <c r="H95" t="n">
         <v>0.345103333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0.3438</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3770,24 +4619,27 @@
         <v>1465.0963</v>
       </c>
       <c r="G96" t="n">
+        <v>0.3438466666666664</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.3452200000000006</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,18 +4663,27 @@
         <v>1465.0963</v>
       </c>
       <c r="G97" t="n">
+        <v>0.3438866666666663</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.3452216666666674</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3846,18 +4707,27 @@
         <v>2706423.1383</v>
       </c>
       <c r="G98" t="n">
+        <v>0.3440599999999997</v>
+      </c>
+      <c r="H98" t="n">
         <v>0.3452966666666674</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3881,18 +4751,27 @@
         <v>3131753.638</v>
       </c>
       <c r="G99" t="n">
+        <v>0.344493333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.3453450000000007</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,18 +4795,27 @@
         <v>852337.7013</v>
       </c>
       <c r="G100" t="n">
+        <v>0.3449199999999997</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.345388333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3951,18 +4839,27 @@
         <v>795391.5125</v>
       </c>
       <c r="G101" t="n">
+        <v>0.3453599999999997</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.345403333333334</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3986,18 +4883,27 @@
         <v>715308.3461</v>
       </c>
       <c r="G102" t="n">
+        <v>0.3457999999999997</v>
+      </c>
+      <c r="H102" t="n">
         <v>0.3454050000000006</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4021,18 +4927,27 @@
         <v>562960</v>
       </c>
       <c r="G103" t="n">
+        <v>0.3462399999999997</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.3455216666666673</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4056,18 +4971,27 @@
         <v>156711.4487</v>
       </c>
       <c r="G104" t="n">
+        <v>0.3464466666666663</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.345533333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4091,18 +5015,27 @@
         <v>10173491.5609</v>
       </c>
       <c r="G105" t="n">
+        <v>0.3469533333333329</v>
+      </c>
+      <c r="H105" t="n">
         <v>0.3455966666666673</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,18 +5059,27 @@
         <v>232399.952</v>
       </c>
       <c r="G106" t="n">
+        <v>0.347453333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>0.3456733333333339</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4161,18 +5103,27 @@
         <v>4348.8363</v>
       </c>
       <c r="G107" t="n">
+        <v>0.3474466666666663</v>
+      </c>
+      <c r="H107" t="n">
         <v>0.3456650000000006</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4196,18 +5147,27 @@
         <v>570995.0218</v>
       </c>
       <c r="G108" t="n">
+        <v>0.3473466666666664</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.3456666666666673</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4231,18 +5191,27 @@
         <v>513895.5196</v>
       </c>
       <c r="G109" t="n">
+        <v>0.3474599999999997</v>
+      </c>
+      <c r="H109" t="n">
         <v>0.345668333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4266,18 +5235,27 @@
         <v>4625059.6773</v>
       </c>
       <c r="G110" t="n">
+        <v>0.3473066666666664</v>
+      </c>
+      <c r="H110" t="n">
         <v>0.3456700000000006</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4301,18 +5279,27 @@
         <v>549544.5453999999</v>
       </c>
       <c r="G111" t="n">
+        <v>0.3471333333333331</v>
+      </c>
+      <c r="H111" t="n">
         <v>0.3456716666666673</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4336,18 +5323,27 @@
         <v>28628.68594331</v>
       </c>
       <c r="G112" t="n">
+        <v>0.3473999999999998</v>
+      </c>
+      <c r="H112" t="n">
         <v>0.3457366666666672</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4371,18 +5367,27 @@
         <v>1114289.9198</v>
       </c>
       <c r="G113" t="n">
+        <v>0.3473999999999998</v>
+      </c>
+      <c r="H113" t="n">
         <v>0.3457383333333339</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,18 +5411,27 @@
         <v>1114289.9199</v>
       </c>
       <c r="G114" t="n">
+        <v>0.3472266666666665</v>
+      </c>
+      <c r="H114" t="n">
         <v>0.3457900000000006</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4441,18 +5455,27 @@
         <v>20000</v>
       </c>
       <c r="G115" t="n">
+        <v>0.3473199999999999</v>
+      </c>
+      <c r="H115" t="n">
         <v>0.3458566666666672</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4476,18 +5499,27 @@
         <v>596708.1687</v>
       </c>
       <c r="G116" t="n">
+        <v>0.3474199999999998</v>
+      </c>
+      <c r="H116" t="n">
         <v>0.3459266666666672</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4511,18 +5543,27 @@
         <v>499712.89049846</v>
       </c>
       <c r="G117" t="n">
+        <v>0.3476066666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>0.3460183333333338</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4546,18 +5587,27 @@
         <v>88773</v>
       </c>
       <c r="G118" t="n">
+        <v>0.3477999999999999</v>
+      </c>
+      <c r="H118" t="n">
         <v>0.3460816666666671</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4581,18 +5631,27 @@
         <v>885475.0598</v>
       </c>
       <c r="G119" t="n">
+        <v>0.3480933333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>0.3461800000000004</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,18 +5675,27 @@
         <v>6856711.8061</v>
       </c>
       <c r="G120" t="n">
+        <v>0.3483733333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>0.3462800000000004</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4651,18 +5719,27 @@
         <v>243285.5865</v>
       </c>
       <c r="G121" t="n">
+        <v>0.3486533333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>0.3463800000000005</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4686,18 +5763,27 @@
         <v>17788</v>
       </c>
       <c r="G122" t="n">
+        <v>0.3492866666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>0.3464850000000004</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4721,18 +5807,27 @@
         <v>15906.3941</v>
       </c>
       <c r="G123" t="n">
+        <v>0.3498866666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>0.3465816666666671</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4756,18 +5851,27 @@
         <v>1003200</v>
       </c>
       <c r="G124" t="n">
+        <v>0.3502533333333332</v>
+      </c>
+      <c r="H124" t="n">
         <v>0.3466216666666671</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4791,18 +5895,27 @@
         <v>485212</v>
       </c>
       <c r="G125" t="n">
+        <v>0.3508866666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>0.3467583333333337</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,18 +5939,27 @@
         <v>3200</v>
       </c>
       <c r="G126" t="n">
+        <v>0.3512533333333332</v>
+      </c>
+      <c r="H126" t="n">
         <v>0.3468283333333337</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4861,18 +5983,27 @@
         <v>265661.2551</v>
       </c>
       <c r="G127" t="n">
+        <v>0.3516799999999998</v>
+      </c>
+      <c r="H127" t="n">
         <v>0.346976666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4896,18 +6027,27 @@
         <v>3427752.1635</v>
       </c>
       <c r="G128" t="n">
+        <v>0.3523999999999998</v>
+      </c>
+      <c r="H128" t="n">
         <v>0.3471483333333337</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4931,18 +6071,27 @@
         <v>8632296.337359</v>
       </c>
       <c r="G129" t="n">
+        <v>0.3531199999999998</v>
+      </c>
+      <c r="H129" t="n">
         <v>0.3473533333333336</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,18 +6115,27 @@
         <v>4819160.39931977</v>
       </c>
       <c r="G130" t="n">
+        <v>0.3536933333333331</v>
+      </c>
+      <c r="H130" t="n">
         <v>0.3476133333333336</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5001,18 +6159,27 @@
         <v>2842.8094</v>
       </c>
       <c r="G131" t="n">
+        <v>0.3538866666666664</v>
+      </c>
+      <c r="H131" t="n">
         <v>0.3477733333333336</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,18 +6203,27 @@
         <v>632819.4943</v>
       </c>
       <c r="G132" t="n">
+        <v>0.3539933333333331</v>
+      </c>
+      <c r="H132" t="n">
         <v>0.3478633333333336</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5071,18 +6247,27 @@
         <v>2290189.2253</v>
       </c>
       <c r="G133" t="n">
+        <v>0.3541599999999998</v>
+      </c>
+      <c r="H133" t="n">
         <v>0.3479983333333336</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5106,18 +6291,27 @@
         <v>238282.6876</v>
       </c>
       <c r="G134" t="n">
+        <v>0.3541866666666664</v>
+      </c>
+      <c r="H134" t="n">
         <v>0.3481750000000002</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5141,18 +6335,27 @@
         <v>778339.5318999999</v>
       </c>
       <c r="G135" t="n">
+        <v>0.3545733333333331</v>
+      </c>
+      <c r="H135" t="n">
         <v>0.3484566666666669</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5176,18 +6379,27 @@
         <v>40000</v>
       </c>
       <c r="G136" t="n">
+        <v>0.3546399999999998</v>
+      </c>
+      <c r="H136" t="n">
         <v>0.3486166666666669</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5211,18 +6423,27 @@
         <v>88554.3437</v>
       </c>
       <c r="G137" t="n">
+        <v>0.3546399999999997</v>
+      </c>
+      <c r="H137" t="n">
         <v>0.3487766666666668</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5246,18 +6467,27 @@
         <v>3583725.4064</v>
       </c>
       <c r="G138" t="n">
+        <v>0.3545866666666664</v>
+      </c>
+      <c r="H138" t="n">
         <v>0.3489150000000001</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5281,18 +6511,27 @@
         <v>600000</v>
       </c>
       <c r="G139" t="n">
+        <v>0.3551666666666664</v>
+      </c>
+      <c r="H139" t="n">
         <v>0.3491533333333335</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5316,18 +6555,27 @@
         <v>22704807.7567</v>
       </c>
       <c r="G140" t="n">
+        <v>0.3554799999999998</v>
+      </c>
+      <c r="H140" t="n">
         <v>0.3493533333333335</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5351,18 +6599,27 @@
         <v>671345.1844</v>
       </c>
       <c r="G141" t="n">
+        <v>0.3560599999999998</v>
+      </c>
+      <c r="H141" t="n">
         <v>0.3495733333333335</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5386,18 +6643,27 @@
         <v>4108.48400556</v>
       </c>
       <c r="G142" t="n">
+        <v>0.3563133333333331</v>
+      </c>
+      <c r="H142" t="n">
         <v>0.3498200000000002</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5421,19 +6687,28 @@
         <v>4246.1736</v>
       </c>
       <c r="G143" t="n">
+        <v>0.3565199999999998</v>
+      </c>
+      <c r="H143" t="n">
         <v>0.3500950000000002</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
+      <c r="L143" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>1.044956178790535</v>
       </c>
     </row>
     <row r="144">
@@ -5456,18 +6731,21 @@
         <v>1052523.0726</v>
       </c>
       <c r="G144" t="n">
+        <v>0.3564333333333331</v>
+      </c>
+      <c r="H144" t="n">
         <v>0.3503183333333336</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5491,18 +6769,21 @@
         <v>15599905.706</v>
       </c>
       <c r="G145" t="n">
+        <v>0.3561533333333331</v>
+      </c>
+      <c r="H145" t="n">
         <v>0.3505216666666669</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5526,18 +6807,21 @@
         <v>6448985.9105</v>
       </c>
       <c r="G146" t="n">
+        <v>0.3562399999999997</v>
+      </c>
+      <c r="H146" t="n">
         <v>0.3507266666666669</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5561,18 +6845,21 @@
         <v>9787025.4146</v>
       </c>
       <c r="G147" t="n">
+        <v>0.3563266666666663</v>
+      </c>
+      <c r="H147" t="n">
         <v>0.3509316666666669</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5596,18 +6883,21 @@
         <v>10309893.1788</v>
       </c>
       <c r="G148" t="n">
+        <v>0.3563466666666663</v>
+      </c>
+      <c r="H148" t="n">
         <v>0.3511366666666669</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5631,22 +6921,21 @@
         <v>3877859.9702</v>
       </c>
       <c r="G149" t="n">
+        <v>0.3563666666666663</v>
+      </c>
+      <c r="H149" t="n">
         <v>0.3512733333333335</v>
       </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.3538</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5670,24 +6959,21 @@
         <v>8666170.1042</v>
       </c>
       <c r="G150" t="n">
+        <v>0.3559666666666663</v>
+      </c>
+      <c r="H150" t="n">
         <v>0.3514666666666669</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5711,24 +6997,21 @@
         <v>89799.6805</v>
       </c>
       <c r="G151" t="n">
+        <v>0.356153333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>0.3517250000000002</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,18 +7035,21 @@
         <v>4798738.5266</v>
       </c>
       <c r="G152" t="n">
+        <v>0.3564666666666663</v>
+      </c>
+      <c r="H152" t="n">
         <v>0.3519600000000002</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5787,18 +7073,21 @@
         <v>255946.508</v>
       </c>
       <c r="G153" t="n">
+        <v>0.3567399999999996</v>
+      </c>
+      <c r="H153" t="n">
         <v>0.3521400000000002</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5822,18 +7111,21 @@
         <v>408573.8427</v>
       </c>
       <c r="G154" t="n">
+        <v>0.3566133333333329</v>
+      </c>
+      <c r="H154" t="n">
         <v>0.3523733333333335</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5857,18 +7149,21 @@
         <v>1832910</v>
       </c>
       <c r="G155" t="n">
+        <v>0.3566133333333329</v>
+      </c>
+      <c r="H155" t="n">
         <v>0.3525716666666668</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5892,18 +7187,21 @@
         <v>23572610.9126</v>
       </c>
       <c r="G156" t="n">
+        <v>0.3566999999999996</v>
+      </c>
+      <c r="H156" t="n">
         <v>0.3527866666666669</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5927,18 +7225,21 @@
         <v>1007247.8315</v>
       </c>
       <c r="G157" t="n">
+        <v>0.3568199999999996</v>
+      </c>
+      <c r="H157" t="n">
         <v>0.3530533333333335</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5962,18 +7263,21 @@
         <v>922357.0658</v>
       </c>
       <c r="G158" t="n">
+        <v>0.3564399999999996</v>
+      </c>
+      <c r="H158" t="n">
         <v>0.3531900000000002</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5997,18 +7301,21 @@
         <v>6726181.9364</v>
       </c>
       <c r="G159" t="n">
+        <v>0.3568999999999997</v>
+      </c>
+      <c r="H159" t="n">
         <v>0.3534200000000001</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6032,18 +7339,21 @@
         <v>5655185.6172</v>
       </c>
       <c r="G160" t="n">
+        <v>0.357513333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>0.3536700000000002</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6067,18 +7377,21 @@
         <v>2388710.5982</v>
       </c>
       <c r="G161" t="n">
+        <v>0.3581266666666663</v>
+      </c>
+      <c r="H161" t="n">
         <v>0.3539183333333335</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6102,18 +7415,21 @@
         <v>440424.1108</v>
       </c>
       <c r="G162" t="n">
+        <v>0.3588066666666663</v>
+      </c>
+      <c r="H162" t="n">
         <v>0.3541833333333335</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6137,18 +7453,21 @@
         <v>1442470.1707</v>
       </c>
       <c r="G163" t="n">
+        <v>0.3594866666666663</v>
+      </c>
+      <c r="H163" t="n">
         <v>0.3544483333333336</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6172,18 +7491,21 @@
         <v>1460517.9766</v>
       </c>
       <c r="G164" t="n">
+        <v>0.3601666666666664</v>
+      </c>
+      <c r="H164" t="n">
         <v>0.3547033333333335</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6207,18 +7529,21 @@
         <v>1272676.2352</v>
       </c>
       <c r="G165" t="n">
+        <v>0.3608466666666664</v>
+      </c>
+      <c r="H165" t="n">
         <v>0.3549400000000003</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6242,18 +7567,21 @@
         <v>1421431.4078</v>
       </c>
       <c r="G166" t="n">
+        <v>0.361193333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>0.3551600000000003</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6277,18 +7605,21 @@
         <v>5317514.328</v>
       </c>
       <c r="G167" t="n">
+        <v>0.361413333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>0.3554516666666669</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6312,18 +7643,21 @@
         <v>501395.4186</v>
       </c>
       <c r="G168" t="n">
+        <v>0.3617599999999996</v>
+      </c>
+      <c r="H168" t="n">
         <v>0.3557433333333336</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6347,18 +7681,21 @@
         <v>2862819.6999</v>
       </c>
       <c r="G169" t="n">
+        <v>0.3621066666666664</v>
+      </c>
+      <c r="H169" t="n">
         <v>0.3560350000000002</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6382,18 +7719,21 @@
         <v>1549362.7487</v>
       </c>
       <c r="G170" t="n">
+        <v>0.362193333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>0.3562933333333335</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6417,18 +7757,21 @@
         <v>1369398.709</v>
       </c>
       <c r="G171" t="n">
+        <v>0.362193333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>0.3565516666666669</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6452,18 +7795,401 @@
         <v>1000000</v>
       </c>
       <c r="G172" t="n">
+        <v>0.3621799999999997</v>
+      </c>
+      <c r="H172" t="n">
         <v>0.3567483333333336</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1684958.3942</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.3625999999999997</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.3569900000000002</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="F174" t="n">
+        <v>10858351.5538</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.3625466666666663</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.3572500000000002</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F175" t="n">
+        <v>760000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.3623466666666663</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.3574266666666668</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F176" t="n">
+        <v>561167.2278</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.3621466666666663</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.3576000000000002</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.3571</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.3571</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.3571</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.3571</v>
+      </c>
+      <c r="F177" t="n">
+        <v>235090.439</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.3616866666666663</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.3577033333333335</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="F178" t="n">
+        <v>39068.484</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.3612399999999997</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.3578083333333335</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="F179" t="n">
+        <v>173688.1064</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.3609666666666663</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.3579216666666668</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2085323.6261</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.3606999999999997</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.3580216666666668</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="F181" t="n">
+        <v>68155.93919999999</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.3603266666666664</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.3580783333333334</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.3621</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.3621</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="F182" t="n">
+        <v>223399.2483</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.3602666666666664</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.3581966666666668</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest BTT.xlsx
+++ b/BackTest/2020-01-13 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M211"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.342</v>
+        <v>0.3445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.342</v>
+        <v>0.3445</v>
       </c>
       <c r="D2" t="n">
-        <v>0.342</v>
+        <v>0.3445</v>
       </c>
       <c r="E2" t="n">
-        <v>0.342</v>
+        <v>0.3445</v>
       </c>
       <c r="F2" t="n">
-        <v>733261.6417</v>
+        <v>69555.1324</v>
       </c>
       <c r="G2" t="n">
-        <v>-20619963.56027893</v>
+        <v>-7589323.745529275</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,133 +467,157 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.342</v>
+        <v>0.3445</v>
       </c>
       <c r="C3" t="n">
-        <v>0.342</v>
+        <v>0.3445</v>
       </c>
       <c r="D3" t="n">
-        <v>0.342</v>
+        <v>0.3445</v>
       </c>
       <c r="E3" t="n">
-        <v>0.342</v>
+        <v>0.3445</v>
       </c>
       <c r="F3" t="n">
-        <v>526383</v>
+        <v>487629.6176</v>
       </c>
       <c r="G3" t="n">
-        <v>-20619963.56027893</v>
+        <v>-7589323.745529275</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0.3445</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.3445</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.342</v>
+        <v>0.3448</v>
       </c>
       <c r="C4" t="n">
-        <v>0.342</v>
+        <v>0.3448</v>
       </c>
       <c r="D4" t="n">
-        <v>0.342</v>
+        <v>0.3448</v>
       </c>
       <c r="E4" t="n">
-        <v>0.342</v>
+        <v>0.3448</v>
       </c>
       <c r="F4" t="n">
-        <v>947957</v>
+        <v>217881.1947</v>
       </c>
       <c r="G4" t="n">
-        <v>-20619963.56027893</v>
+        <v>-7371442.550829276</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0.3445</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3445</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.342</v>
+        <v>0.3448</v>
       </c>
       <c r="C5" t="n">
-        <v>0.342</v>
+        <v>0.3448</v>
       </c>
       <c r="D5" t="n">
-        <v>0.342</v>
+        <v>0.3448</v>
       </c>
       <c r="E5" t="n">
-        <v>0.342</v>
+        <v>0.3448</v>
       </c>
       <c r="F5" t="n">
-        <v>1195443</v>
+        <v>449023.0064</v>
       </c>
       <c r="G5" t="n">
-        <v>-20619963.56027893</v>
+        <v>-7371442.550829276</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0.3448</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3445</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.342</v>
+        <v>0.3448</v>
       </c>
       <c r="C6" t="n">
-        <v>0.342</v>
+        <v>0.3448</v>
       </c>
       <c r="D6" t="n">
-        <v>0.342</v>
+        <v>0.3448</v>
       </c>
       <c r="E6" t="n">
-        <v>0.342</v>
+        <v>0.3448</v>
       </c>
       <c r="F6" t="n">
-        <v>1006455</v>
+        <v>855218.9915</v>
       </c>
       <c r="G6" t="n">
-        <v>-20619963.56027893</v>
+        <v>-7371442.550829276</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +631,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.342</v>
+        <v>0.3413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3429</v>
+        <v>0.3448</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3429</v>
+        <v>0.3448</v>
       </c>
       <c r="E7" t="n">
-        <v>0.342</v>
+        <v>0.3413</v>
       </c>
       <c r="F7" t="n">
-        <v>3743343.3974</v>
+        <v>659036.3865</v>
       </c>
       <c r="G7" t="n">
-        <v>-16876620.16287893</v>
+        <v>-7371442.550829276</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +667,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.344</v>
+        <v>0.3413</v>
       </c>
       <c r="C8" t="n">
-        <v>0.344</v>
+        <v>0.3413</v>
       </c>
       <c r="D8" t="n">
-        <v>0.344</v>
+        <v>0.3413</v>
       </c>
       <c r="E8" t="n">
-        <v>0.344</v>
+        <v>0.3413</v>
       </c>
       <c r="F8" t="n">
-        <v>210009.7155</v>
+        <v>12915.3865</v>
       </c>
       <c r="G8" t="n">
-        <v>-16666610.44737893</v>
+        <v>-7384357.937329276</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,63 +703,69 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.344</v>
+        <v>0.3448</v>
       </c>
       <c r="C9" t="n">
-        <v>0.345</v>
+        <v>0.3448</v>
       </c>
       <c r="D9" t="n">
-        <v>0.345</v>
+        <v>0.3448</v>
       </c>
       <c r="E9" t="n">
-        <v>0.344</v>
+        <v>0.3448</v>
       </c>
       <c r="F9" t="n">
-        <v>4897000</v>
+        <v>388622</v>
       </c>
       <c r="G9" t="n">
-        <v>-11769610.44737893</v>
+        <v>-6995735.937329276</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0.3413</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3413</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345</v>
+        <v>0.3448</v>
       </c>
       <c r="C10" t="n">
-        <v>0.345</v>
+        <v>0.3448</v>
       </c>
       <c r="D10" t="n">
-        <v>0.345</v>
+        <v>0.3448</v>
       </c>
       <c r="E10" t="n">
-        <v>0.345</v>
+        <v>0.3448</v>
       </c>
       <c r="F10" t="n">
-        <v>1892.7463</v>
+        <v>582357</v>
       </c>
       <c r="G10" t="n">
-        <v>-11769610.44737893</v>
+        <v>-6995735.937329276</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -737,33 +774,40 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0.3413</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.345</v>
+        <v>0.3448</v>
       </c>
       <c r="C11" t="n">
-        <v>0.345</v>
+        <v>0.3455</v>
       </c>
       <c r="D11" t="n">
-        <v>0.345</v>
+        <v>0.3455</v>
       </c>
       <c r="E11" t="n">
-        <v>0.345</v>
+        <v>0.3448</v>
       </c>
       <c r="F11" t="n">
-        <v>468085.14211739</v>
+        <v>2707090.245</v>
       </c>
       <c r="G11" t="n">
-        <v>-11769610.44737893</v>
+        <v>-4288645.692329275</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -772,33 +816,40 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0.3413</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.345</v>
+        <v>0.3455</v>
       </c>
       <c r="C12" t="n">
-        <v>0.345</v>
+        <v>0.3455</v>
       </c>
       <c r="D12" t="n">
-        <v>0.345</v>
+        <v>0.3455</v>
       </c>
       <c r="E12" t="n">
-        <v>0.345</v>
+        <v>0.3455</v>
       </c>
       <c r="F12" t="n">
-        <v>8405.797101439999</v>
+        <v>52987.5094</v>
       </c>
       <c r="G12" t="n">
-        <v>-11769610.44737893</v>
+        <v>-4288645.692329275</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +863,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.345</v>
+        <v>0.3455</v>
       </c>
       <c r="C13" t="n">
-        <v>0.345</v>
+        <v>0.3458</v>
       </c>
       <c r="D13" t="n">
-        <v>0.345</v>
+        <v>0.3458</v>
       </c>
       <c r="E13" t="n">
-        <v>0.345</v>
+        <v>0.3455</v>
       </c>
       <c r="F13" t="n">
-        <v>791246.0587000001</v>
+        <v>286814.9226</v>
       </c>
       <c r="G13" t="n">
-        <v>-11769610.44737893</v>
+        <v>-4001830.769729275</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +899,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.345</v>
+        <v>0.3458</v>
       </c>
       <c r="C14" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="D14" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="E14" t="n">
-        <v>0.345</v>
+        <v>0.3458</v>
       </c>
       <c r="F14" t="n">
-        <v>16253.887</v>
+        <v>1553337.1723</v>
       </c>
       <c r="G14" t="n">
-        <v>-11769610.44737893</v>
+        <v>-2448493.597429276</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +935,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="C15" t="n">
-        <v>0.345</v>
+        <v>0.3421</v>
       </c>
       <c r="D15" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="E15" t="n">
-        <v>0.345</v>
+        <v>0.3421</v>
       </c>
       <c r="F15" t="n">
-        <v>5487.2384</v>
+        <v>3160.9196</v>
       </c>
       <c r="G15" t="n">
-        <v>-11769610.44737893</v>
+        <v>-2451654.517029276</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +971,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3401</v>
+        <v>0.3431</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3401</v>
+        <v>0.3431</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3401</v>
+        <v>0.3431</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3401</v>
+        <v>0.3431</v>
       </c>
       <c r="F16" t="n">
-        <v>202159.3231</v>
+        <v>2862842.44</v>
       </c>
       <c r="G16" t="n">
-        <v>-11971769.77047893</v>
+        <v>411187.9229707243</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +1007,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.343</v>
+        <v>0.3466</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3429</v>
+        <v>0.3466</v>
       </c>
       <c r="D17" t="n">
-        <v>0.343</v>
+        <v>0.3466</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3429</v>
+        <v>0.3466</v>
       </c>
       <c r="F17" t="n">
-        <v>374374</v>
+        <v>8567.609200000001</v>
       </c>
       <c r="G17" t="n">
-        <v>-11597395.77047893</v>
+        <v>419755.5321707243</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1043,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3429</v>
+        <v>0.3449</v>
       </c>
       <c r="C18" t="n">
-        <v>0.343</v>
+        <v>0.3449</v>
       </c>
       <c r="D18" t="n">
-        <v>0.343</v>
+        <v>0.3449</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3429</v>
+        <v>0.3449</v>
       </c>
       <c r="F18" t="n">
-        <v>44116.9565</v>
+        <v>730230.998</v>
       </c>
       <c r="G18" t="n">
-        <v>-11553278.81397893</v>
+        <v>-310475.4658292757</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1079,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3403</v>
+        <v>0.345</v>
       </c>
       <c r="C19" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="D19" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3403</v>
+        <v>0.345</v>
       </c>
       <c r="F19" t="n">
-        <v>505604.5063</v>
+        <v>41658.1444</v>
       </c>
       <c r="G19" t="n">
-        <v>-11553278.81397893</v>
+        <v>-268817.3214292757</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1115,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="C20" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="D20" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="E20" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="F20" t="n">
-        <v>58163.6288</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="n">
-        <v>-11553278.81397893</v>
+        <v>-268817.3214292757</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1151,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="C21" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="D21" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="E21" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="F21" t="n">
-        <v>1481.7184</v>
+        <v>874154.9905</v>
       </c>
       <c r="G21" t="n">
-        <v>-11553278.81397893</v>
+        <v>-268817.3214292757</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1187,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.343</v>
+        <v>0.3411</v>
       </c>
       <c r="C22" t="n">
-        <v>0.343</v>
+        <v>0.3411</v>
       </c>
       <c r="D22" t="n">
-        <v>0.343</v>
+        <v>0.3411</v>
       </c>
       <c r="E22" t="n">
-        <v>0.343</v>
+        <v>0.3411</v>
       </c>
       <c r="F22" t="n">
-        <v>13097.9839</v>
+        <v>145824.4216</v>
       </c>
       <c r="G22" t="n">
-        <v>-11553278.81397893</v>
+        <v>-414641.7430292757</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1223,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.343</v>
+        <v>0.3411</v>
       </c>
       <c r="C23" t="n">
-        <v>0.343</v>
+        <v>0.3411</v>
       </c>
       <c r="D23" t="n">
-        <v>0.343</v>
+        <v>0.3411</v>
       </c>
       <c r="E23" t="n">
-        <v>0.343</v>
+        <v>0.3411</v>
       </c>
       <c r="F23" t="n">
-        <v>75800</v>
+        <v>447139.2782</v>
       </c>
       <c r="G23" t="n">
-        <v>-11553278.81397893</v>
+        <v>-414641.7430292757</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1192,47 +1254,50 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.343</v>
+        <v>0.3411</v>
       </c>
       <c r="K23" t="n">
-        <v>0.343</v>
+        <v>0.3411</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3428</v>
+        <v>0.3412</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3428</v>
+        <v>0.3452</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3428</v>
+        <v>0.3452</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3428</v>
+        <v>0.3412</v>
       </c>
       <c r="F24" t="n">
-        <v>3948.6173</v>
+        <v>322891.1372</v>
       </c>
       <c r="G24" t="n">
-        <v>-11557227.43127893</v>
+        <v>-91750.60582927574</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.3411</v>
+      </c>
       <c r="K24" t="n">
-        <v>0.343</v>
+        <v>0.3411</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1242,71 +1307,71 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3424</v>
+        <v>0.3452</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3424</v>
+        <v>0.341</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3424</v>
+        <v>0.3452</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3424</v>
+        <v>0.341</v>
       </c>
       <c r="F25" t="n">
-        <v>97808.26089999999</v>
+        <v>2954.809</v>
       </c>
       <c r="G25" t="n">
-        <v>-11655035.69217893</v>
+        <v>-94705.41482927573</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0.3428</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>0.343</v>
+        <v>0.3411</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3424</v>
+        <v>0.3452</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3424</v>
+        <v>0.3452</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3424</v>
+        <v>0.3452</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3424</v>
+        <v>0.3452</v>
       </c>
       <c r="F26" t="n">
-        <v>1544465.7987</v>
+        <v>235104.8343</v>
       </c>
       <c r="G26" t="n">
-        <v>-11655035.69217893</v>
+        <v>140399.4194707242</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1315,33 +1380,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3424</v>
+        <v>0.3452</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3424</v>
+        <v>0.3452</v>
       </c>
       <c r="F27" t="n">
-        <v>868505</v>
+        <v>769378.3223999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-11655035.69217893</v>
+        <v>909777.7418707241</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1350,33 +1422,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3424</v>
+        <v>0.3472</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3424</v>
+        <v>0.3472</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3424</v>
+        <v>0.3472</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3424</v>
+        <v>0.3472</v>
       </c>
       <c r="F28" t="n">
-        <v>7084671</v>
+        <v>2322637.4156</v>
       </c>
       <c r="G28" t="n">
-        <v>-11655035.69217893</v>
+        <v>3232415.157470724</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1385,33 +1464,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3424</v>
+        <v>0.3478</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3424</v>
+        <v>0.348</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3424</v>
+        <v>0.348</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3424</v>
+        <v>0.3478</v>
       </c>
       <c r="F29" t="n">
-        <v>1112329</v>
+        <v>3161731.96703436</v>
       </c>
       <c r="G29" t="n">
-        <v>-11655035.69217893</v>
+        <v>6394147.124505084</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1420,338 +1506,344 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="F30" t="n">
-        <v>905046</v>
+        <v>1477.4045</v>
       </c>
       <c r="G30" t="n">
-        <v>-11655035.69217893</v>
+        <v>6392669.720005084</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0.3424</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
+        <v>0.3411</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3424</v>
+        <v>0.3416</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3424</v>
+        <v>0.348</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3424</v>
+        <v>0.348</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3424</v>
+        <v>0.341</v>
       </c>
       <c r="F31" t="n">
-        <v>1058524.4131</v>
+        <v>22001429.3883</v>
       </c>
       <c r="G31" t="n">
-        <v>-11655035.69217893</v>
+        <v>28394099.10830509</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0.3424</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3424</v>
+        <v>0.3427</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3424</v>
+        <v>0.346</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3424</v>
+        <v>0.346</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3424</v>
+        <v>0.341</v>
       </c>
       <c r="F32" t="n">
-        <v>137146.9187</v>
+        <v>3001445.0868</v>
       </c>
       <c r="G32" t="n">
-        <v>-11655035.69217893</v>
+        <v>25392654.02150508</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0.3424</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3409</v>
+        <v>0.3452</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3409</v>
+        <v>0.3452</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3409</v>
+        <v>0.3452</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3409</v>
+        <v>0.3452</v>
       </c>
       <c r="F33" t="n">
-        <v>335286.7241</v>
+        <v>600000</v>
       </c>
       <c r="G33" t="n">
-        <v>-11990322.41627893</v>
+        <v>24792654.02150508</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0.3424</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
+        <v>0.3411</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3423</v>
+        <v>0.346</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3423</v>
+        <v>0.346</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3423</v>
+        <v>0.346</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3423</v>
+        <v>0.346</v>
       </c>
       <c r="F34" t="n">
-        <v>53918.3819</v>
+        <v>1888539.3355</v>
       </c>
       <c r="G34" t="n">
-        <v>-11936404.03437893</v>
+        <v>26681193.35700508</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0.3409</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3423</v>
+        <v>0.3454</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3423</v>
+        <v>0.3454</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3423</v>
+        <v>0.3454</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3423</v>
+        <v>0.3454</v>
       </c>
       <c r="F35" t="n">
-        <v>75901</v>
+        <v>14545046.5522</v>
       </c>
       <c r="G35" t="n">
-        <v>-11936404.03437893</v>
+        <v>12136146.80480508</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0.3423</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3423</v>
+        <v>0.3454</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3423</v>
+        <v>0.3454</v>
       </c>
       <c r="F36" t="n">
-        <v>432357.1739</v>
+        <v>2476128.016</v>
       </c>
       <c r="G36" t="n">
-        <v>-11504046.86047893</v>
+        <v>12136146.80480508</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0.3423</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="F37" t="n">
-        <v>9620661</v>
+        <v>2572842</v>
       </c>
       <c r="G37" t="n">
-        <v>-11504046.86047893</v>
+        <v>12136146.80480508</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0.3424</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1761,40 +1853,39 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3424</v>
+        <v>0.3454</v>
       </c>
       <c r="F38" t="n">
-        <v>455488.1867</v>
+        <v>2942047.0634</v>
       </c>
       <c r="G38" t="n">
-        <v>-11504046.86047893</v>
+        <v>12136146.80480508</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0.3424</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1804,6 +1895,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1813,31 +1905,29 @@
         <v>0.3424</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3446</v>
+        <v>0.3454</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3446</v>
+        <v>0.3454</v>
       </c>
       <c r="E39" t="n">
         <v>0.3424</v>
       </c>
       <c r="F39" t="n">
-        <v>952427</v>
+        <v>1092208.9411</v>
       </c>
       <c r="G39" t="n">
-        <v>-10551619.86047893</v>
+        <v>12136146.80480508</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0.3424</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1847,40 +1937,39 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3409</v>
+        <v>0.3454</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3409</v>
+        <v>0.3454</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3409</v>
+        <v>0.3454</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3409</v>
+        <v>0.3454</v>
       </c>
       <c r="F40" t="n">
-        <v>3948.6173</v>
+        <v>863459.2355</v>
       </c>
       <c r="G40" t="n">
-        <v>-10555568.47777893</v>
+        <v>12136146.80480508</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0.3446</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1890,40 +1979,39 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3448</v>
+        <v>0.3424</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3448</v>
+        <v>0.3424</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3448</v>
+        <v>0.3424</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3448</v>
+        <v>0.3424</v>
       </c>
       <c r="F41" t="n">
-        <v>101508.12064965</v>
+        <v>10981.6384</v>
       </c>
       <c r="G41" t="n">
-        <v>-10454060.35712928</v>
+        <v>12125165.16640508</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0.3409</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1933,40 +2021,39 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3409</v>
+        <v>0.3454</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3409</v>
+        <v>0.3454</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3409</v>
+        <v>0.3454</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3409</v>
+        <v>0.3454</v>
       </c>
       <c r="F42" t="n">
-        <v>421311.1243</v>
+        <v>2665039</v>
       </c>
       <c r="G42" t="n">
-        <v>-10875371.48142928</v>
+        <v>14790204.16640508</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0.3448</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -1976,40 +2063,39 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3409</v>
+        <v>0.3454</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3447</v>
+        <v>0.3454</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3447</v>
+        <v>0.3454</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3409</v>
+        <v>0.3454</v>
       </c>
       <c r="F43" t="n">
-        <v>3355602.8683</v>
+        <v>732267</v>
       </c>
       <c r="G43" t="n">
-        <v>-7519768.613129275</v>
+        <v>14790204.16640508</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0.3409</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2019,40 +2105,39 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3445</v>
+        <v>0.3454</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3445</v>
+        <v>0.3454</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3445</v>
+        <v>0.3454</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3445</v>
+        <v>0.3454</v>
       </c>
       <c r="F44" t="n">
-        <v>69555.1324</v>
+        <v>1421388.2083</v>
       </c>
       <c r="G44" t="n">
-        <v>-7589323.745529275</v>
+        <v>14790204.16640508</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0.3447</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2062,40 +2147,39 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3445</v>
+        <v>0.3472</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3445</v>
+        <v>0.3472</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3445</v>
+        <v>0.3472</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3445</v>
+        <v>0.3472</v>
       </c>
       <c r="F45" t="n">
-        <v>487629.6176</v>
+        <v>293991.0478</v>
       </c>
       <c r="G45" t="n">
-        <v>-7589323.745529275</v>
+        <v>15084195.21420508</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0.3445</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2105,40 +2189,39 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3448</v>
+        <v>0.3472</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3448</v>
+        <v>0.3472</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3448</v>
+        <v>0.3472</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3448</v>
+        <v>0.3472</v>
       </c>
       <c r="F46" t="n">
-        <v>217881.1947</v>
+        <v>819637.9521</v>
       </c>
       <c r="G46" t="n">
-        <v>-7371442.550829276</v>
+        <v>15084195.21420508</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0.3445</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2148,28 +2231,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3448</v>
+        <v>0.348</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3448</v>
+        <v>0.348</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3448</v>
+        <v>0.348</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3448</v>
+        <v>0.348</v>
       </c>
       <c r="F47" t="n">
-        <v>449023.0064</v>
+        <v>1200000</v>
       </c>
       <c r="G47" t="n">
-        <v>-7371442.550829276</v>
+        <v>16284195.21420508</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2179,7 +2263,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2189,28 +2273,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3448</v>
+        <v>0.348</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3448</v>
+        <v>0.348</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3448</v>
+        <v>0.348</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3448</v>
+        <v>0.348</v>
       </c>
       <c r="F48" t="n">
-        <v>855218.9915</v>
+        <v>536744</v>
       </c>
       <c r="G48" t="n">
-        <v>-7371442.550829276</v>
+        <v>16284195.21420508</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2220,7 +2305,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2230,28 +2315,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3413</v>
+        <v>0.3484</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3448</v>
+        <v>0.3487</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3448</v>
+        <v>0.3487</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3413</v>
+        <v>0.3484</v>
       </c>
       <c r="F49" t="n">
-        <v>659036.3865</v>
+        <v>1200000</v>
       </c>
       <c r="G49" t="n">
-        <v>-7371442.550829276</v>
+        <v>17484195.21420508</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2261,7 +2347,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2271,28 +2357,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3413</v>
+        <v>0.3487</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3413</v>
+        <v>0.3487</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3413</v>
+        <v>0.3487</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3413</v>
+        <v>0.3487</v>
       </c>
       <c r="F50" t="n">
-        <v>12915.3865</v>
+        <v>101005.5889</v>
       </c>
       <c r="G50" t="n">
-        <v>-7384357.937329276</v>
+        <v>17484195.21420508</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2302,7 +2389,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2312,28 +2399,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3448</v>
+        <v>0.3486</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3448</v>
+        <v>0.3486</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3448</v>
+        <v>0.3486</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3448</v>
+        <v>0.3486</v>
       </c>
       <c r="F51" t="n">
-        <v>388622</v>
+        <v>18375.7656</v>
       </c>
       <c r="G51" t="n">
-        <v>-6995735.937329276</v>
+        <v>17465819.44860508</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2343,7 +2431,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2353,28 +2441,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3448</v>
+        <v>0.3468</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3448</v>
+        <v>0.3468</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3448</v>
+        <v>0.3468</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3448</v>
+        <v>0.3468</v>
       </c>
       <c r="F52" t="n">
-        <v>582357</v>
+        <v>5095355.8977</v>
       </c>
       <c r="G52" t="n">
-        <v>-6995735.937329276</v>
+        <v>12370463.55090508</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2384,7 +2473,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2394,28 +2483,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3448</v>
+        <v>0.3468</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3455</v>
+        <v>0.3468</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3455</v>
+        <v>0.3468</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3448</v>
+        <v>0.3468</v>
       </c>
       <c r="F53" t="n">
-        <v>2707090.245</v>
+        <v>1551</v>
       </c>
       <c r="G53" t="n">
-        <v>-4288645.692329275</v>
+        <v>12370463.55090508</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2425,7 +2515,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2435,28 +2525,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3455</v>
+        <v>0.3468</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3455</v>
+        <v>0.3468</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3455</v>
+        <v>0.3468</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3455</v>
+        <v>0.3468</v>
       </c>
       <c r="F54" t="n">
-        <v>52987.5094</v>
+        <v>65371</v>
       </c>
       <c r="G54" t="n">
-        <v>-4288645.692329275</v>
+        <v>12370463.55090508</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2466,7 +2557,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2476,28 +2567,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3455</v>
+        <v>0.346</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3458</v>
+        <v>0.346</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3458</v>
+        <v>0.346</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3455</v>
+        <v>0.346</v>
       </c>
       <c r="F55" t="n">
-        <v>286814.9226</v>
+        <v>49729.3471</v>
       </c>
       <c r="G55" t="n">
-        <v>-4001830.769729275</v>
+        <v>12320734.20380508</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2507,7 +2599,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2517,28 +2609,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3458</v>
+        <v>0.344</v>
       </c>
       <c r="C56" t="n">
-        <v>0.348</v>
+        <v>0.344</v>
       </c>
       <c r="D56" t="n">
-        <v>0.348</v>
+        <v>0.344</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3458</v>
+        <v>0.344</v>
       </c>
       <c r="F56" t="n">
-        <v>1553337.1723</v>
+        <v>50018.4857</v>
       </c>
       <c r="G56" t="n">
-        <v>-2448493.597429276</v>
+        <v>12270715.71810508</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2548,7 +2641,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2558,28 +2651,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.348</v>
+        <v>0.3469</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3421</v>
+        <v>0.3424</v>
       </c>
       <c r="D57" t="n">
-        <v>0.348</v>
+        <v>0.3469</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3421</v>
+        <v>0.3424</v>
       </c>
       <c r="F57" t="n">
-        <v>3160.9196</v>
+        <v>4385.7763</v>
       </c>
       <c r="G57" t="n">
-        <v>-2451654.517029276</v>
+        <v>12266329.94180508</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2589,7 +2683,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2599,28 +2693,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3431</v>
+        <v>0.3429</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3431</v>
+        <v>0.3429</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3431</v>
+        <v>0.3429</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3431</v>
+        <v>0.3429</v>
       </c>
       <c r="F58" t="n">
-        <v>2862842.44</v>
+        <v>153600.0107</v>
       </c>
       <c r="G58" t="n">
-        <v>411187.9229707243</v>
+        <v>12419929.95250508</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2630,7 +2725,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2640,28 +2735,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3466</v>
+        <v>0.3471</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3466</v>
+        <v>0.3471</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3466</v>
+        <v>0.3471</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3466</v>
+        <v>0.3471</v>
       </c>
       <c r="F59" t="n">
-        <v>8567.609200000001</v>
+        <v>20000</v>
       </c>
       <c r="G59" t="n">
-        <v>419755.5321707243</v>
+        <v>12439929.95250508</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2671,7 +2767,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2681,28 +2777,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3449</v>
+        <v>0.3454</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3449</v>
+        <v>0.3454</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3449</v>
+        <v>0.3454</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3449</v>
+        <v>0.3454</v>
       </c>
       <c r="F60" t="n">
-        <v>730230.998</v>
+        <v>52692.53</v>
       </c>
       <c r="G60" t="n">
-        <v>-310475.4658292757</v>
+        <v>12387237.42250508</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2712,7 +2809,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2722,28 +2819,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.345</v>
+        <v>0.3429</v>
       </c>
       <c r="C61" t="n">
-        <v>0.345</v>
+        <v>0.3429</v>
       </c>
       <c r="D61" t="n">
-        <v>0.345</v>
+        <v>0.3429</v>
       </c>
       <c r="E61" t="n">
-        <v>0.345</v>
+        <v>0.3429</v>
       </c>
       <c r="F61" t="n">
-        <v>41658.1444</v>
+        <v>18064.3413</v>
       </c>
       <c r="G61" t="n">
-        <v>-268817.3214292757</v>
+        <v>12369173.08120508</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2753,7 +2851,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2763,28 +2861,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.345</v>
+        <v>0.3429</v>
       </c>
       <c r="C62" t="n">
-        <v>0.345</v>
+        <v>0.3429</v>
       </c>
       <c r="D62" t="n">
-        <v>0.345</v>
+        <v>0.3429</v>
       </c>
       <c r="E62" t="n">
-        <v>0.345</v>
+        <v>0.3429</v>
       </c>
       <c r="F62" t="n">
-        <v>5000</v>
+        <v>19428.8</v>
       </c>
       <c r="G62" t="n">
-        <v>-268817.3214292757</v>
+        <v>12369173.08120508</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2794,7 +2893,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2804,28 +2903,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.345</v>
+        <v>0.3454</v>
       </c>
       <c r="C63" t="n">
-        <v>0.345</v>
+        <v>0.3454</v>
       </c>
       <c r="D63" t="n">
-        <v>0.345</v>
+        <v>0.3454</v>
       </c>
       <c r="E63" t="n">
-        <v>0.345</v>
+        <v>0.3454</v>
       </c>
       <c r="F63" t="n">
-        <v>874154.9905</v>
+        <v>57126.5353</v>
       </c>
       <c r="G63" t="n">
-        <v>-268817.3214292757</v>
+        <v>12426299.61650508</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2835,7 +2935,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2845,28 +2945,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3411</v>
+        <v>0.3454</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3411</v>
+        <v>0.3454</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3411</v>
+        <v>0.3454</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3411</v>
+        <v>0.3429</v>
       </c>
       <c r="F64" t="n">
-        <v>145824.4216</v>
+        <v>770374.5954</v>
       </c>
       <c r="G64" t="n">
-        <v>-414641.7430292757</v>
+        <v>12426299.61650508</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2876,7 +2977,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2886,40 +2987,39 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3411</v>
+        <v>0.3454</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3411</v>
+        <v>0.3454</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3411</v>
+        <v>0.3454</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3411</v>
+        <v>0.3454</v>
       </c>
       <c r="F65" t="n">
-        <v>447139.2782</v>
+        <v>2188434.0032</v>
       </c>
       <c r="G65" t="n">
-        <v>-414641.7430292757</v>
+        <v>12426299.61650508</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0.3411</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2929,28 +3029,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3412</v>
+        <v>0.3454</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3452</v>
+        <v>0.3454</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3452</v>
+        <v>0.3454</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3412</v>
+        <v>0.3454</v>
       </c>
       <c r="F66" t="n">
-        <v>322891.1372</v>
+        <v>80299.7595</v>
       </c>
       <c r="G66" t="n">
-        <v>-91750.60582927574</v>
+        <v>12426299.61650508</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2960,7 +3061,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2970,28 +3071,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3452</v>
+        <v>0.3429</v>
       </c>
       <c r="C67" t="n">
-        <v>0.341</v>
+        <v>0.3477</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3452</v>
+        <v>0.3477</v>
       </c>
       <c r="E67" t="n">
-        <v>0.341</v>
+        <v>0.3429</v>
       </c>
       <c r="F67" t="n">
-        <v>2954.809</v>
+        <v>47304123.5939</v>
       </c>
       <c r="G67" t="n">
-        <v>-94705.41482927573</v>
+        <v>59730423.21040508</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3001,7 +3103,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3011,28 +3113,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3452</v>
+        <v>0.3462</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3452</v>
+        <v>0.3465</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3452</v>
+        <v>0.3465</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3452</v>
+        <v>0.3462</v>
       </c>
       <c r="F68" t="n">
-        <v>235104.8343</v>
+        <v>17931887.1364</v>
       </c>
       <c r="G68" t="n">
-        <v>140399.4194707242</v>
+        <v>41798536.07400508</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3042,7 +3145,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3052,28 +3155,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3452</v>
+        <v>0.3447</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3454</v>
+        <v>0.3447</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3454</v>
+        <v>0.3447</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3452</v>
+        <v>0.3447</v>
       </c>
       <c r="F69" t="n">
-        <v>769378.3223999999</v>
+        <v>6441023.4639</v>
       </c>
       <c r="G69" t="n">
-        <v>909777.7418707241</v>
+        <v>35357512.61010508</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3083,7 +3187,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3093,28 +3197,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3472</v>
+        <v>0.3429</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3472</v>
+        <v>0.3429</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3472</v>
+        <v>0.3429</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3472</v>
+        <v>0.3429</v>
       </c>
       <c r="F70" t="n">
-        <v>2322637.4156</v>
+        <v>286421.154</v>
       </c>
       <c r="G70" t="n">
-        <v>3232415.157470724</v>
+        <v>35071091.45610508</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3124,7 +3229,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3134,28 +3239,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3478</v>
+        <v>0.3416</v>
       </c>
       <c r="C71" t="n">
-        <v>0.348</v>
+        <v>0.3416</v>
       </c>
       <c r="D71" t="n">
-        <v>0.348</v>
+        <v>0.3416</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3478</v>
+        <v>0.3416</v>
       </c>
       <c r="F71" t="n">
-        <v>3161731.96703436</v>
+        <v>3700.2845</v>
       </c>
       <c r="G71" t="n">
-        <v>6394147.124505084</v>
+        <v>35067391.17160508</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3165,7 +3271,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3175,28 +3281,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3411</v>
+        <v>0.3416</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3411</v>
+        <v>0.3416</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3411</v>
+        <v>0.3416</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3411</v>
+        <v>0.3416</v>
       </c>
       <c r="F72" t="n">
-        <v>1477.4045</v>
+        <v>329993.6401</v>
       </c>
       <c r="G72" t="n">
-        <v>6392669.720005084</v>
+        <v>35067391.17160508</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3206,7 +3313,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3216,28 +3323,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3416</v>
+        <v>0.3415</v>
       </c>
       <c r="C73" t="n">
-        <v>0.348</v>
+        <v>0.3415</v>
       </c>
       <c r="D73" t="n">
-        <v>0.348</v>
+        <v>0.3415</v>
       </c>
       <c r="E73" t="n">
-        <v>0.341</v>
+        <v>0.3415</v>
       </c>
       <c r="F73" t="n">
-        <v>22001429.3883</v>
+        <v>20614.6652</v>
       </c>
       <c r="G73" t="n">
-        <v>28394099.10830509</v>
+        <v>35046776.50640508</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3247,7 +3355,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3257,28 +3365,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3427</v>
+        <v>0.3415</v>
       </c>
       <c r="C74" t="n">
-        <v>0.346</v>
+        <v>0.3415</v>
       </c>
       <c r="D74" t="n">
-        <v>0.346</v>
+        <v>0.3415</v>
       </c>
       <c r="E74" t="n">
-        <v>0.341</v>
+        <v>0.3415</v>
       </c>
       <c r="F74" t="n">
-        <v>3001445.0868</v>
+        <v>218065</v>
       </c>
       <c r="G74" t="n">
-        <v>25392654.02150508</v>
+        <v>35046776.50640508</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3288,7 +3397,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3298,28 +3407,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3452</v>
+        <v>0.3423</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3452</v>
+        <v>0.3415</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3452</v>
+        <v>0.3423</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3452</v>
+        <v>0.3415</v>
       </c>
       <c r="F75" t="n">
-        <v>600000</v>
+        <v>2322637.4156</v>
       </c>
       <c r="G75" t="n">
-        <v>24792654.02150508</v>
+        <v>35046776.50640508</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3329,7 +3439,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3339,28 +3449,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.346</v>
+        <v>0.3451</v>
       </c>
       <c r="C76" t="n">
-        <v>0.346</v>
+        <v>0.3456</v>
       </c>
       <c r="D76" t="n">
-        <v>0.346</v>
+        <v>0.3456</v>
       </c>
       <c r="E76" t="n">
-        <v>0.346</v>
+        <v>0.3451</v>
       </c>
       <c r="F76" t="n">
-        <v>1888539.3355</v>
+        <v>600000</v>
       </c>
       <c r="G76" t="n">
-        <v>26681193.35700508</v>
+        <v>35646776.50640508</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3370,7 +3481,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3380,28 +3491,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3454</v>
+        <v>0.3422</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3454</v>
+        <v>0.3422</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3454</v>
+        <v>0.3422</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3454</v>
+        <v>0.3422</v>
       </c>
       <c r="F77" t="n">
-        <v>14545046.5522</v>
+        <v>1095089.8078</v>
       </c>
       <c r="G77" t="n">
-        <v>12136146.80480508</v>
+        <v>34551686.69860508</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3411,7 +3523,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3421,28 +3533,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3454</v>
+        <v>0.3423</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3454</v>
+        <v>0.3423</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3454</v>
+        <v>0.3423</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3454</v>
+        <v>0.3423</v>
       </c>
       <c r="F78" t="n">
-        <v>2476128.016</v>
+        <v>7329.1639</v>
       </c>
       <c r="G78" t="n">
-        <v>12136146.80480508</v>
+        <v>34559015.86250508</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3452,7 +3565,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3462,40 +3575,39 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3454</v>
+        <v>0.3456</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3454</v>
+        <v>0.3456</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3454</v>
+        <v>0.3456</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3454</v>
+        <v>0.3456</v>
       </c>
       <c r="F79" t="n">
-        <v>2572842</v>
+        <v>94833.43060000001</v>
       </c>
       <c r="G79" t="n">
-        <v>12136146.80480508</v>
+        <v>34653849.29310508</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.3454</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3505,28 +3617,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3454</v>
+        <v>0.3456</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3454</v>
+        <v>0.347</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3454</v>
+        <v>0.347</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3454</v>
+        <v>0.3456</v>
       </c>
       <c r="F80" t="n">
-        <v>2942047.0634</v>
+        <v>13601193.4858</v>
       </c>
       <c r="G80" t="n">
-        <v>12136146.80480508</v>
+        <v>48255042.77890508</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3536,7 +3649,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3546,40 +3659,39 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3424</v>
+        <v>0.3438</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3454</v>
+        <v>0.3438</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3454</v>
+        <v>0.3438</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3424</v>
+        <v>0.3438</v>
       </c>
       <c r="F81" t="n">
-        <v>1092208.9411</v>
+        <v>1465.2155</v>
       </c>
       <c r="G81" t="n">
-        <v>12136146.80480508</v>
+        <v>48253577.56340508</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.3454</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3589,40 +3701,39 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3454</v>
+        <v>0.3478</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3454</v>
+        <v>0.3478</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3454</v>
+        <v>0.3478</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3454</v>
+        <v>0.3478</v>
       </c>
       <c r="F82" t="n">
-        <v>863459.2355</v>
+        <v>600000</v>
       </c>
       <c r="G82" t="n">
-        <v>12136146.80480508</v>
+        <v>48853577.56340508</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.3454</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3632,40 +3743,39 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3424</v>
+        <v>0.3481</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3424</v>
+        <v>0.3481</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3424</v>
+        <v>0.3481</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3424</v>
+        <v>0.3481</v>
       </c>
       <c r="F83" t="n">
-        <v>10981.6384</v>
+        <v>1465.0963</v>
       </c>
       <c r="G83" t="n">
-        <v>12125165.16640508</v>
+        <v>48855042.65970508</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.3454</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3675,40 +3785,39 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3454</v>
+        <v>0.3453</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3454</v>
+        <v>0.3453</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3454</v>
+        <v>0.3453</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3454</v>
+        <v>0.3453</v>
       </c>
       <c r="F84" t="n">
-        <v>2665039</v>
+        <v>1465.0963</v>
       </c>
       <c r="G84" t="n">
-        <v>14790204.16640508</v>
+        <v>48853577.56340508</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.3424</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3718,40 +3827,39 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3454</v>
+        <v>0.3459</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3454</v>
+        <v>0.3455</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3454</v>
+        <v>0.3459</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3454</v>
+        <v>0.3455</v>
       </c>
       <c r="F85" t="n">
-        <v>732267</v>
+        <v>2706423.1383</v>
       </c>
       <c r="G85" t="n">
-        <v>14790204.16640508</v>
+        <v>51560000.70170508</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.3454</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3761,28 +3869,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3454</v>
+        <v>0.3481</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3454</v>
+        <v>0.3481</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3454</v>
+        <v>0.3481</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3454</v>
+        <v>0.3481</v>
       </c>
       <c r="F86" t="n">
-        <v>1421388.2083</v>
+        <v>3131753.638</v>
       </c>
       <c r="G86" t="n">
-        <v>14790204.16640508</v>
+        <v>54691754.33970508</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3792,7 +3901,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3802,40 +3911,39 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.3472</v>
+        <v>0.348</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3472</v>
+        <v>0.348</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3472</v>
+        <v>0.348</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3472</v>
+        <v>0.348</v>
       </c>
       <c r="F87" t="n">
-        <v>293991.0478</v>
+        <v>852337.7013</v>
       </c>
       <c r="G87" t="n">
-        <v>15084195.21420508</v>
+        <v>53839416.63840508</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.3454</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3845,28 +3953,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3472</v>
+        <v>0.3481</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3472</v>
+        <v>0.3481</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3472</v>
+        <v>0.3481</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3472</v>
+        <v>0.3481</v>
       </c>
       <c r="F88" t="n">
-        <v>819637.9521</v>
+        <v>795391.5125</v>
       </c>
       <c r="G88" t="n">
-        <v>15084195.21420508</v>
+        <v>54634808.15090508</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3876,7 +3985,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3886,28 +3995,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.348</v>
+        <v>0.3481</v>
       </c>
       <c r="C89" t="n">
-        <v>0.348</v>
+        <v>0.3481</v>
       </c>
       <c r="D89" t="n">
-        <v>0.348</v>
+        <v>0.3481</v>
       </c>
       <c r="E89" t="n">
-        <v>0.348</v>
+        <v>0.3481</v>
       </c>
       <c r="F89" t="n">
-        <v>1200000</v>
+        <v>715308.3461</v>
       </c>
       <c r="G89" t="n">
-        <v>16284195.21420508</v>
+        <v>54634808.15090508</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3917,7 +4027,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3927,40 +4037,39 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.348</v>
+        <v>0.3481</v>
       </c>
       <c r="C90" t="n">
-        <v>0.348</v>
+        <v>0.3481</v>
       </c>
       <c r="D90" t="n">
-        <v>0.348</v>
+        <v>0.3481</v>
       </c>
       <c r="E90" t="n">
-        <v>0.348</v>
+        <v>0.3481</v>
       </c>
       <c r="F90" t="n">
-        <v>536744</v>
+        <v>562960</v>
       </c>
       <c r="G90" t="n">
-        <v>16284195.21420508</v>
+        <v>54634808.15090508</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.348</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3970,13 +4079,14 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3484</v>
+        <v>0.3481</v>
       </c>
       <c r="C91" t="n">
         <v>0.3487</v>
@@ -3985,13 +4095,13 @@
         <v>0.3487</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3484</v>
+        <v>0.3481</v>
       </c>
       <c r="F91" t="n">
-        <v>1200000</v>
+        <v>156711.4487</v>
       </c>
       <c r="G91" t="n">
-        <v>17484195.21420508</v>
+        <v>54791519.59960508</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4001,7 +4111,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4011,6 +4121,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4020,19 +4131,19 @@
         <v>0.3487</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3487</v>
+        <v>0.3498</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3487</v>
+        <v>0.3498</v>
       </c>
       <c r="E92" t="n">
         <v>0.3487</v>
       </c>
       <c r="F92" t="n">
-        <v>101005.5889</v>
+        <v>10173491.5609</v>
       </c>
       <c r="G92" t="n">
-        <v>17484195.21420508</v>
+        <v>64965011.16050509</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4042,7 +4153,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4052,28 +4163,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3486</v>
+        <v>0.3498</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3486</v>
+        <v>0.3498</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3486</v>
+        <v>0.3498</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3486</v>
+        <v>0.3455</v>
       </c>
       <c r="F93" t="n">
-        <v>18375.7656</v>
+        <v>232399.952</v>
       </c>
       <c r="G93" t="n">
-        <v>17465819.44860508</v>
+        <v>64965011.16050509</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4083,7 +4195,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4093,28 +4205,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3468</v>
+        <v>0.3498</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3468</v>
+        <v>0.3455</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3468</v>
+        <v>0.3498</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3468</v>
+        <v>0.3455</v>
       </c>
       <c r="F94" t="n">
-        <v>5095355.8977</v>
+        <v>4348.8363</v>
       </c>
       <c r="G94" t="n">
-        <v>12370463.55090508</v>
+        <v>64960662.32420509</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4124,7 +4237,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4134,28 +4247,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3468</v>
+        <v>0.3455</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3468</v>
+        <v>0.3455</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3468</v>
+        <v>0.3455</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3468</v>
+        <v>0.3455</v>
       </c>
       <c r="F95" t="n">
-        <v>1551</v>
+        <v>570995.0218</v>
       </c>
       <c r="G95" t="n">
-        <v>12370463.55090508</v>
+        <v>64960662.32420509</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4165,7 +4279,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4175,28 +4289,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3468</v>
+        <v>0.3455</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3468</v>
+        <v>0.3455</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3468</v>
+        <v>0.3455</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3468</v>
+        <v>0.3455</v>
       </c>
       <c r="F96" t="n">
-        <v>65371</v>
+        <v>513895.5196</v>
       </c>
       <c r="G96" t="n">
-        <v>12370463.55090508</v>
+        <v>64960662.32420509</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4206,7 +4321,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4216,28 +4331,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.346</v>
+        <v>0.3455</v>
       </c>
       <c r="C97" t="n">
-        <v>0.346</v>
+        <v>0.3455</v>
       </c>
       <c r="D97" t="n">
-        <v>0.346</v>
+        <v>0.3455</v>
       </c>
       <c r="E97" t="n">
-        <v>0.346</v>
+        <v>0.3455</v>
       </c>
       <c r="F97" t="n">
-        <v>49729.3471</v>
+        <v>4625059.6773</v>
       </c>
       <c r="G97" t="n">
-        <v>12320734.20380508</v>
+        <v>64960662.32420509</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4247,7 +4363,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4257,28 +4373,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.344</v>
+        <v>0.3455</v>
       </c>
       <c r="C98" t="n">
-        <v>0.344</v>
+        <v>0.3455</v>
       </c>
       <c r="D98" t="n">
-        <v>0.344</v>
+        <v>0.3455</v>
       </c>
       <c r="E98" t="n">
-        <v>0.344</v>
+        <v>0.3455</v>
       </c>
       <c r="F98" t="n">
-        <v>50018.4857</v>
+        <v>549544.5453999999</v>
       </c>
       <c r="G98" t="n">
-        <v>12270715.71810508</v>
+        <v>64960662.32420509</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4288,7 +4405,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4298,40 +4415,39 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3469</v>
+        <v>0.3493</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3424</v>
+        <v>0.3493</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3469</v>
+        <v>0.3493</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3424</v>
+        <v>0.3493</v>
       </c>
       <c r="F99" t="n">
-        <v>4385.7763</v>
+        <v>28628.68594331</v>
       </c>
       <c r="G99" t="n">
-        <v>12266329.94180508</v>
+        <v>64989291.0101484</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.344</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4341,28 +4457,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3429</v>
+        <v>0.3455</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3429</v>
+        <v>0.3455</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3429</v>
+        <v>0.3455</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3429</v>
+        <v>0.3455</v>
       </c>
       <c r="F100" t="n">
-        <v>153600.0107</v>
+        <v>1114289.9198</v>
       </c>
       <c r="G100" t="n">
-        <v>12419929.95250508</v>
+        <v>63875001.0903484</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4372,7 +4489,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4382,28 +4499,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3471</v>
+        <v>0.3455</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3471</v>
+        <v>0.3455</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3471</v>
+        <v>0.3455</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3471</v>
+        <v>0.3455</v>
       </c>
       <c r="F101" t="n">
-        <v>20000</v>
+        <v>1114289.9199</v>
       </c>
       <c r="G101" t="n">
-        <v>12439929.95250508</v>
+        <v>63875001.0903484</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4413,7 +4531,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4423,28 +4541,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.3454</v>
+        <v>0.3494</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3454</v>
+        <v>0.3494</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3454</v>
+        <v>0.3494</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3454</v>
+        <v>0.3494</v>
       </c>
       <c r="F102" t="n">
-        <v>52692.53</v>
+        <v>20000</v>
       </c>
       <c r="G102" t="n">
-        <v>12387237.42250508</v>
+        <v>63895001.0903484</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4454,7 +4573,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4464,28 +4583,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3429</v>
+        <v>0.3496</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3429</v>
+        <v>0.3496</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3429</v>
+        <v>0.3496</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3429</v>
+        <v>0.3496</v>
       </c>
       <c r="F103" t="n">
-        <v>18064.3413</v>
+        <v>596708.1687</v>
       </c>
       <c r="G103" t="n">
-        <v>12369173.08120508</v>
+        <v>64491709.2590484</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4495,7 +4615,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4505,28 +4625,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3429</v>
+        <v>0.35</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3429</v>
+        <v>0.3509</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3429</v>
+        <v>0.3509</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3429</v>
+        <v>0.35</v>
       </c>
       <c r="F104" t="n">
-        <v>19428.8</v>
+        <v>499712.89049846</v>
       </c>
       <c r="G104" t="n">
-        <v>12369173.08120508</v>
+        <v>64991422.14954686</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4536,7 +4657,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4546,28 +4667,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3454</v>
+        <v>0.351</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3454</v>
+        <v>0.351</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3454</v>
+        <v>0.351</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3454</v>
+        <v>0.351</v>
       </c>
       <c r="F105" t="n">
-        <v>57126.5353</v>
+        <v>88773</v>
       </c>
       <c r="G105" t="n">
-        <v>12426299.61650508</v>
+        <v>65080195.14954686</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4577,7 +4699,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4587,28 +4709,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3454</v>
+        <v>0.35</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3454</v>
+        <v>0.3531</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3454</v>
+        <v>0.3531</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3429</v>
+        <v>0.3455</v>
       </c>
       <c r="F106" t="n">
-        <v>770374.5954</v>
+        <v>885475.0598</v>
       </c>
       <c r="G106" t="n">
-        <v>12426299.61650508</v>
+        <v>65965670.20934686</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4618,7 +4741,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4628,28 +4751,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3454</v>
+        <v>0.3531</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3454</v>
+        <v>0.354</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3454</v>
+        <v>0.354</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3454</v>
+        <v>0.3531</v>
       </c>
       <c r="F107" t="n">
-        <v>2188434.0032</v>
+        <v>6856711.8061</v>
       </c>
       <c r="G107" t="n">
-        <v>12426299.61650508</v>
+        <v>72822382.01544686</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4659,7 +4783,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4669,28 +4793,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3454</v>
+        <v>0.354</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3454</v>
+        <v>0.354</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3454</v>
+        <v>0.354</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3454</v>
+        <v>0.354</v>
       </c>
       <c r="F108" t="n">
-        <v>80299.7595</v>
+        <v>243285.5865</v>
       </c>
       <c r="G108" t="n">
-        <v>12426299.61650508</v>
+        <v>72822382.01544686</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4700,7 +4825,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4710,28 +4835,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.3429</v>
+        <v>0.355</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3477</v>
+        <v>0.355</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3477</v>
+        <v>0.355</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3429</v>
+        <v>0.355</v>
       </c>
       <c r="F109" t="n">
-        <v>47304123.5939</v>
+        <v>17788</v>
       </c>
       <c r="G109" t="n">
-        <v>59730423.21040508</v>
+        <v>72840170.01544686</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4741,7 +4867,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4751,28 +4877,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3462</v>
+        <v>0.3545</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3465</v>
+        <v>0.3545</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3465</v>
+        <v>0.3545</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3462</v>
+        <v>0.3545</v>
       </c>
       <c r="F110" t="n">
-        <v>17931887.1364</v>
+        <v>15906.3941</v>
       </c>
       <c r="G110" t="n">
-        <v>41798536.07400508</v>
+        <v>72824263.62134686</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4782,7 +4909,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4792,28 +4919,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3447</v>
+        <v>0.3545</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3447</v>
+        <v>0.351</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3447</v>
+        <v>0.3545</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3447</v>
+        <v>0.351</v>
       </c>
       <c r="F111" t="n">
-        <v>6441023.4639</v>
+        <v>1003200</v>
       </c>
       <c r="G111" t="n">
-        <v>35357512.61010508</v>
+        <v>71821063.62134686</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4823,7 +4951,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4833,28 +4961,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3429</v>
+        <v>0.355</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3429</v>
+        <v>0.355</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3429</v>
+        <v>0.355</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3429</v>
+        <v>0.355</v>
       </c>
       <c r="F112" t="n">
-        <v>286421.154</v>
+        <v>485212</v>
       </c>
       <c r="G112" t="n">
-        <v>35071091.45610508</v>
+        <v>72306275.62134686</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4864,7 +4993,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4874,28 +5003,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3416</v>
+        <v>0.351</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3416</v>
+        <v>0.351</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3416</v>
+        <v>0.351</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3416</v>
+        <v>0.351</v>
       </c>
       <c r="F113" t="n">
-        <v>3700.2845</v>
+        <v>3200</v>
       </c>
       <c r="G113" t="n">
-        <v>35067391.17160508</v>
+        <v>72303075.62134686</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4905,7 +5035,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4915,28 +5045,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3416</v>
+        <v>0.3557</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3416</v>
+        <v>0.3557</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3416</v>
+        <v>0.3557</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3416</v>
+        <v>0.3557</v>
       </c>
       <c r="F114" t="n">
-        <v>329993.6401</v>
+        <v>265661.2551</v>
       </c>
       <c r="G114" t="n">
-        <v>35067391.17160508</v>
+        <v>72568736.87644686</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4946,7 +5077,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4956,28 +5087,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3415</v>
+        <v>0.3563</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3415</v>
+        <v>0.3563</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3415</v>
+        <v>0.3564</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3415</v>
+        <v>0.3563</v>
       </c>
       <c r="F115" t="n">
-        <v>20614.6652</v>
+        <v>3427752.1635</v>
       </c>
       <c r="G115" t="n">
-        <v>35046776.50640508</v>
+        <v>75996489.03994685</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4987,7 +5119,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4997,28 +5129,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3415</v>
+        <v>0.3564</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3415</v>
+        <v>0.3563</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3415</v>
+        <v>0.3569</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3415</v>
+        <v>0.3519</v>
       </c>
       <c r="F116" t="n">
-        <v>218065</v>
+        <v>8632296.337359</v>
       </c>
       <c r="G116" t="n">
-        <v>35046776.50640508</v>
+        <v>75996489.03994685</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5028,7 +5161,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5038,40 +5171,39 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3423</v>
+        <v>0.3564</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3415</v>
+        <v>0.358</v>
       </c>
       <c r="D117" t="n">
-        <v>0.3423</v>
+        <v>0.358</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3415</v>
+        <v>0.3525</v>
       </c>
       <c r="F117" t="n">
-        <v>2322637.4156</v>
+        <v>4819160.39931977</v>
       </c>
       <c r="G117" t="n">
-        <v>35046776.50640508</v>
+        <v>80815649.43926662</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.3415</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5081,40 +5213,39 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3451</v>
+        <v>0.3588</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3456</v>
+        <v>0.3525</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3456</v>
+        <v>0.3588</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3451</v>
+        <v>0.3525</v>
       </c>
       <c r="F118" t="n">
-        <v>600000</v>
+        <v>2842.8094</v>
       </c>
       <c r="G118" t="n">
-        <v>35646776.50640508</v>
+        <v>80812806.62986661</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.3415</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5124,28 +5255,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3422</v>
+        <v>0.3588</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3422</v>
+        <v>0.3525</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3422</v>
+        <v>0.3598</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3422</v>
+        <v>0.3525</v>
       </c>
       <c r="F119" t="n">
-        <v>1095089.8078</v>
+        <v>632819.4943</v>
       </c>
       <c r="G119" t="n">
-        <v>34551686.69860508</v>
+        <v>80812806.62986661</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5155,7 +5287,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5165,28 +5297,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3423</v>
+        <v>0.3535</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3423</v>
+        <v>0.3535</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3423</v>
+        <v>0.3535</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3423</v>
+        <v>0.3535</v>
       </c>
       <c r="F120" t="n">
-        <v>7329.1639</v>
+        <v>2290189.2253</v>
       </c>
       <c r="G120" t="n">
-        <v>34559015.86250508</v>
+        <v>83102995.85516661</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5196,7 +5329,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5206,28 +5339,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3456</v>
+        <v>0.3535</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3456</v>
+        <v>0.3535</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3456</v>
+        <v>0.3535</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3456</v>
+        <v>0.3535</v>
       </c>
       <c r="F121" t="n">
-        <v>94833.43060000001</v>
+        <v>238282.6876</v>
       </c>
       <c r="G121" t="n">
-        <v>34653849.29310508</v>
+        <v>83102995.85516661</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5237,7 +5371,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5247,28 +5381,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3456</v>
+        <v>0.3598</v>
       </c>
       <c r="C122" t="n">
-        <v>0.347</v>
+        <v>0.3598</v>
       </c>
       <c r="D122" t="n">
-        <v>0.347</v>
+        <v>0.3598</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3456</v>
+        <v>0.3598</v>
       </c>
       <c r="F122" t="n">
-        <v>13601193.4858</v>
+        <v>778339.5318999999</v>
       </c>
       <c r="G122" t="n">
-        <v>48255042.77890508</v>
+        <v>83881335.38706662</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5278,7 +5413,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5288,28 +5423,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3438</v>
+        <v>0.3545</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3438</v>
+        <v>0.355</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3438</v>
+        <v>0.355</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3438</v>
+        <v>0.3545</v>
       </c>
       <c r="F123" t="n">
-        <v>1465.2155</v>
+        <v>40000</v>
       </c>
       <c r="G123" t="n">
-        <v>48253577.56340508</v>
+        <v>83841335.38706662</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5319,7 +5455,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5329,28 +5465,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3478</v>
+        <v>0.355</v>
       </c>
       <c r="C124" t="n">
-        <v>0.3478</v>
+        <v>0.355</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3478</v>
+        <v>0.355</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3478</v>
+        <v>0.355</v>
       </c>
       <c r="F124" t="n">
-        <v>600000</v>
+        <v>88554.3437</v>
       </c>
       <c r="G124" t="n">
-        <v>48853577.56340508</v>
+        <v>83841335.38706662</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5360,7 +5497,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5370,28 +5507,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3481</v>
+        <v>0.3537</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3481</v>
+        <v>0.3537</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3481</v>
+        <v>0.3537</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3481</v>
+        <v>0.3537</v>
       </c>
       <c r="F125" t="n">
-        <v>1465.0963</v>
+        <v>3583725.4064</v>
       </c>
       <c r="G125" t="n">
-        <v>48855042.65970508</v>
+        <v>80257609.98066662</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5401,7 +5539,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5411,28 +5549,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3453</v>
+        <v>0.3597</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3453</v>
+        <v>0.3597</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3453</v>
+        <v>0.3597</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3453</v>
+        <v>0.3597</v>
       </c>
       <c r="F126" t="n">
-        <v>1465.0963</v>
+        <v>600000</v>
       </c>
       <c r="G126" t="n">
-        <v>48853577.56340508</v>
+        <v>80857609.98066662</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5442,7 +5581,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5452,28 +5591,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3459</v>
+        <v>0.3541</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3455</v>
+        <v>0.3597</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3459</v>
+        <v>0.3597</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3455</v>
+        <v>0.3541</v>
       </c>
       <c r="F127" t="n">
-        <v>2706423.1383</v>
+        <v>22704807.7567</v>
       </c>
       <c r="G127" t="n">
-        <v>51560000.70170508</v>
+        <v>80857609.98066662</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5483,7 +5623,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5493,28 +5633,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3481</v>
+        <v>0.3597</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3481</v>
+        <v>0.3597</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3481</v>
+        <v>0.3597</v>
       </c>
       <c r="E128" t="n">
-        <v>0.3481</v>
+        <v>0.3597</v>
       </c>
       <c r="F128" t="n">
-        <v>3131753.638</v>
+        <v>671345.1844</v>
       </c>
       <c r="G128" t="n">
-        <v>54691754.33970508</v>
+        <v>80857609.98066662</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5524,7 +5665,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5534,28 +5675,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.348</v>
+        <v>0.3595</v>
       </c>
       <c r="C129" t="n">
-        <v>0.348</v>
+        <v>0.3595</v>
       </c>
       <c r="D129" t="n">
-        <v>0.348</v>
+        <v>0.3595</v>
       </c>
       <c r="E129" t="n">
-        <v>0.348</v>
+        <v>0.3595</v>
       </c>
       <c r="F129" t="n">
-        <v>852337.7013</v>
+        <v>4108.48400556</v>
       </c>
       <c r="G129" t="n">
-        <v>53839416.63840508</v>
+        <v>80853501.49666107</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5565,7 +5707,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5575,28 +5717,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3481</v>
+        <v>0.3594</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3481</v>
+        <v>0.3594</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3481</v>
+        <v>0.3594</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3481</v>
+        <v>0.3594</v>
       </c>
       <c r="F130" t="n">
-        <v>795391.5125</v>
+        <v>4246.1736</v>
       </c>
       <c r="G130" t="n">
-        <v>54634808.15090508</v>
+        <v>80849255.32306106</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5606,7 +5749,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5616,28 +5759,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3481</v>
+        <v>0.355</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3481</v>
+        <v>0.355</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3481</v>
+        <v>0.355</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3481</v>
+        <v>0.355</v>
       </c>
       <c r="F131" t="n">
-        <v>715308.3461</v>
+        <v>1052523.0726</v>
       </c>
       <c r="G131" t="n">
-        <v>54634808.15090508</v>
+        <v>79796732.25046106</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5647,7 +5791,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5657,28 +5801,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3481</v>
+        <v>0.3538</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3481</v>
+        <v>0.3538</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3481</v>
+        <v>0.3538</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3481</v>
+        <v>0.3538</v>
       </c>
       <c r="F132" t="n">
-        <v>562960</v>
+        <v>15599905.706</v>
       </c>
       <c r="G132" t="n">
-        <v>54634808.15090508</v>
+        <v>64196826.54446106</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5688,7 +5833,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5698,28 +5843,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3481</v>
+        <v>0.3538</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3487</v>
+        <v>0.3538</v>
       </c>
       <c r="D133" t="n">
-        <v>0.3487</v>
+        <v>0.3538</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3481</v>
+        <v>0.3538</v>
       </c>
       <c r="F133" t="n">
-        <v>156711.4487</v>
+        <v>6448985.9105</v>
       </c>
       <c r="G133" t="n">
-        <v>54791519.59960508</v>
+        <v>64196826.54446106</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5729,7 +5875,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5739,28 +5885,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3487</v>
+        <v>0.3538</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3498</v>
+        <v>0.3538</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3498</v>
+        <v>0.3538</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3487</v>
+        <v>0.3536</v>
       </c>
       <c r="F134" t="n">
-        <v>10173491.5609</v>
+        <v>9787025.4146</v>
       </c>
       <c r="G134" t="n">
-        <v>64965011.16050509</v>
+        <v>64196826.54446106</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5770,7 +5917,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5780,28 +5927,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3498</v>
+        <v>0.3538</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3498</v>
+        <v>0.3538</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3498</v>
+        <v>0.3538</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3455</v>
+        <v>0.3538</v>
       </c>
       <c r="F135" t="n">
-        <v>232399.952</v>
+        <v>10309893.1788</v>
       </c>
       <c r="G135" t="n">
-        <v>64965011.16050509</v>
+        <v>64196826.54446106</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5811,7 +5959,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5821,28 +5969,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.3498</v>
+        <v>0.3538</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3455</v>
+        <v>0.3538</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3498</v>
+        <v>0.3538</v>
       </c>
       <c r="E136" t="n">
-        <v>0.3455</v>
+        <v>0.3538</v>
       </c>
       <c r="F136" t="n">
-        <v>4348.8363</v>
+        <v>3877859.9702</v>
       </c>
       <c r="G136" t="n">
-        <v>64960662.32420509</v>
+        <v>64196826.54446106</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5852,7 +6001,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5862,28 +6011,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.3455</v>
+        <v>0.3538</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3455</v>
+        <v>0.3538</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3455</v>
+        <v>0.3538</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3455</v>
+        <v>0.3538</v>
       </c>
       <c r="F137" t="n">
-        <v>570995.0218</v>
+        <v>8666170.1042</v>
       </c>
       <c r="G137" t="n">
-        <v>64960662.32420509</v>
+        <v>64196826.54446106</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5893,7 +6043,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5903,28 +6053,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3455</v>
+        <v>0.3578</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3455</v>
+        <v>0.3578</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3455</v>
+        <v>0.3578</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3455</v>
+        <v>0.3578</v>
       </c>
       <c r="F138" t="n">
-        <v>513895.5196</v>
+        <v>89799.6805</v>
       </c>
       <c r="G138" t="n">
-        <v>64960662.32420509</v>
+        <v>64286626.22496106</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5934,7 +6085,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5944,28 +6095,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3455</v>
+        <v>0.3578</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3455</v>
+        <v>0.3597</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3455</v>
+        <v>0.3597</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3455</v>
+        <v>0.3578</v>
       </c>
       <c r="F139" t="n">
-        <v>4625059.6773</v>
+        <v>4798738.5266</v>
       </c>
       <c r="G139" t="n">
-        <v>64960662.32420509</v>
+        <v>69085364.75156106</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5975,7 +6127,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5985,28 +6137,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3455</v>
+        <v>0.3578</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3455</v>
+        <v>0.3578</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3455</v>
+        <v>0.3578</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3455</v>
+        <v>0.3578</v>
       </c>
       <c r="F140" t="n">
-        <v>549544.5453999999</v>
+        <v>255946.508</v>
       </c>
       <c r="G140" t="n">
-        <v>64960662.32420509</v>
+        <v>68829418.24356106</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6016,7 +6169,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6026,28 +6179,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3493</v>
+        <v>0.3578</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3493</v>
+        <v>0.3578</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3493</v>
+        <v>0.3578</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3493</v>
+        <v>0.3578</v>
       </c>
       <c r="F141" t="n">
-        <v>28628.68594331</v>
+        <v>408573.8427</v>
       </c>
       <c r="G141" t="n">
-        <v>64989291.0101484</v>
+        <v>68829418.24356106</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6057,7 +6211,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6067,28 +6221,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3455</v>
+        <v>0.3597</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3455</v>
+        <v>0.3597</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3455</v>
+        <v>0.3597</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3455</v>
+        <v>0.3597</v>
       </c>
       <c r="F142" t="n">
-        <v>1114289.9198</v>
+        <v>1832910</v>
       </c>
       <c r="G142" t="n">
-        <v>63875001.0903484</v>
+        <v>70662328.24356106</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6098,7 +6253,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6108,28 +6263,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.3455</v>
+        <v>0.3597</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3455</v>
+        <v>0.361</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3455</v>
+        <v>0.361</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3455</v>
+        <v>0.3597</v>
       </c>
       <c r="F143" t="n">
-        <v>1114289.9199</v>
+        <v>23572610.9126</v>
       </c>
       <c r="G143" t="n">
-        <v>63875001.0903484</v>
+        <v>94234939.15616105</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6139,7 +6295,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6149,28 +6305,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3494</v>
+        <v>0.3613</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3494</v>
+        <v>0.3613</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3494</v>
+        <v>0.3615</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3494</v>
+        <v>0.3613</v>
       </c>
       <c r="F144" t="n">
-        <v>20000</v>
+        <v>1007247.8315</v>
       </c>
       <c r="G144" t="n">
-        <v>63895001.0903484</v>
+        <v>95242186.98766105</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6180,7 +6337,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6190,28 +6347,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3496</v>
+        <v>0.3613</v>
       </c>
       <c r="C145" t="n">
-        <v>0.3496</v>
+        <v>0.3537</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3496</v>
+        <v>0.3613</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3496</v>
+        <v>0.3537</v>
       </c>
       <c r="F145" t="n">
-        <v>596708.1687</v>
+        <v>922357.0658</v>
       </c>
       <c r="G145" t="n">
-        <v>64491709.2590484</v>
+        <v>94319829.92186105</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6221,7 +6379,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6231,28 +6389,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.35</v>
+        <v>0.3609</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3509</v>
+        <v>0.3619</v>
       </c>
       <c r="D146" t="n">
-        <v>0.3509</v>
+        <v>0.3619</v>
       </c>
       <c r="E146" t="n">
-        <v>0.35</v>
+        <v>0.3609</v>
       </c>
       <c r="F146" t="n">
-        <v>499712.89049846</v>
+        <v>6726181.9364</v>
       </c>
       <c r="G146" t="n">
-        <v>64991422.14954686</v>
+        <v>101046011.858261</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6262,7 +6421,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6272,28 +6431,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.351</v>
+        <v>0.363</v>
       </c>
       <c r="C147" t="n">
-        <v>0.351</v>
+        <v>0.363</v>
       </c>
       <c r="D147" t="n">
-        <v>0.351</v>
+        <v>0.363</v>
       </c>
       <c r="E147" t="n">
-        <v>0.351</v>
+        <v>0.363</v>
       </c>
       <c r="F147" t="n">
-        <v>88773</v>
+        <v>5655185.6172</v>
       </c>
       <c r="G147" t="n">
-        <v>65080195.14954686</v>
+        <v>106701197.4754611</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6303,7 +6463,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6313,28 +6473,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.35</v>
+        <v>0.363</v>
       </c>
       <c r="C148" t="n">
-        <v>0.3531</v>
+        <v>0.363</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3531</v>
+        <v>0.363</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3455</v>
+        <v>0.363</v>
       </c>
       <c r="F148" t="n">
-        <v>885475.0598</v>
+        <v>2388710.5982</v>
       </c>
       <c r="G148" t="n">
-        <v>65965670.20934686</v>
+        <v>106701197.4754611</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6344,7 +6505,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6354,28 +6515,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3531</v>
+        <v>0.364</v>
       </c>
       <c r="C149" t="n">
-        <v>0.354</v>
+        <v>0.364</v>
       </c>
       <c r="D149" t="n">
-        <v>0.354</v>
+        <v>0.364</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3531</v>
+        <v>0.364</v>
       </c>
       <c r="F149" t="n">
-        <v>6856711.8061</v>
+        <v>440424.1108</v>
       </c>
       <c r="G149" t="n">
-        <v>72822382.01544686</v>
+        <v>107141621.586261</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6385,7 +6547,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6395,28 +6557,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.354</v>
+        <v>0.364</v>
       </c>
       <c r="C150" t="n">
-        <v>0.354</v>
+        <v>0.364</v>
       </c>
       <c r="D150" t="n">
-        <v>0.354</v>
+        <v>0.364</v>
       </c>
       <c r="E150" t="n">
-        <v>0.354</v>
+        <v>0.364</v>
       </c>
       <c r="F150" t="n">
-        <v>243285.5865</v>
+        <v>1442470.1707</v>
       </c>
       <c r="G150" t="n">
-        <v>72822382.01544686</v>
+        <v>107141621.586261</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6426,7 +6589,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6436,46 +6599,50 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.355</v>
+        <v>0.364</v>
       </c>
       <c r="C151" t="n">
-        <v>0.355</v>
+        <v>0.364</v>
       </c>
       <c r="D151" t="n">
-        <v>0.355</v>
+        <v>0.364</v>
       </c>
       <c r="E151" t="n">
-        <v>0.355</v>
+        <v>0.364</v>
       </c>
       <c r="F151" t="n">
-        <v>17788</v>
+        <v>1460517.9766</v>
       </c>
       <c r="G151" t="n">
-        <v>72840170.01544686</v>
+        <v>107141621.586261</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>0.3424</v>
+        <v>0.3411</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>1</v>
+        <v>1.062135737320434</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1.020228671943711</v>
       </c>
     </row>
     <row r="152">
@@ -6483,432 +6650,382 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.3545</v>
+        <v>0.364</v>
       </c>
       <c r="C152" t="n">
-        <v>0.3545</v>
+        <v>0.364</v>
       </c>
       <c r="D152" t="n">
-        <v>0.3545</v>
+        <v>0.364</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3545</v>
+        <v>0.364</v>
       </c>
       <c r="F152" t="n">
-        <v>15906.3941</v>
+        <v>1272676.2352</v>
       </c>
       <c r="G152" t="n">
-        <v>72824263.62134686</v>
+        <v>107141621.586261</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.3545</v>
+        <v>0.364</v>
       </c>
       <c r="C153" t="n">
-        <v>0.351</v>
+        <v>0.363</v>
       </c>
       <c r="D153" t="n">
-        <v>0.3545</v>
+        <v>0.364</v>
       </c>
       <c r="E153" t="n">
-        <v>0.351</v>
+        <v>0.363</v>
       </c>
       <c r="F153" t="n">
-        <v>1003200</v>
+        <v>1421431.4078</v>
       </c>
       <c r="G153" t="n">
-        <v>71821063.62134686</v>
+        <v>105720190.178461</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.355</v>
+        <v>0.364</v>
       </c>
       <c r="C154" t="n">
-        <v>0.355</v>
+        <v>0.363</v>
       </c>
       <c r="D154" t="n">
-        <v>0.355</v>
+        <v>0.364</v>
       </c>
       <c r="E154" t="n">
-        <v>0.355</v>
+        <v>0.363</v>
       </c>
       <c r="F154" t="n">
-        <v>485212</v>
+        <v>5317514.328</v>
       </c>
       <c r="G154" t="n">
-        <v>72306275.62134686</v>
+        <v>105720190.178461</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.351</v>
+        <v>0.363</v>
       </c>
       <c r="C155" t="n">
-        <v>0.351</v>
+        <v>0.363</v>
       </c>
       <c r="D155" t="n">
-        <v>0.351</v>
+        <v>0.363</v>
       </c>
       <c r="E155" t="n">
-        <v>0.351</v>
+        <v>0.363</v>
       </c>
       <c r="F155" t="n">
-        <v>3200</v>
+        <v>501395.4186</v>
       </c>
       <c r="G155" t="n">
-        <v>72303075.62134686</v>
+        <v>105720190.178461</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.3557</v>
+        <v>0.361</v>
       </c>
       <c r="C156" t="n">
-        <v>0.3557</v>
+        <v>0.363</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3557</v>
+        <v>0.363</v>
       </c>
       <c r="E156" t="n">
-        <v>0.3557</v>
+        <v>0.361</v>
       </c>
       <c r="F156" t="n">
-        <v>265661.2551</v>
+        <v>2862819.6999</v>
       </c>
       <c r="G156" t="n">
-        <v>72568736.87644686</v>
+        <v>105720190.178461</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.3563</v>
+        <v>0.361</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3563</v>
+        <v>0.361</v>
       </c>
       <c r="D157" t="n">
-        <v>0.3564</v>
+        <v>0.361</v>
       </c>
       <c r="E157" t="n">
-        <v>0.3563</v>
+        <v>0.361</v>
       </c>
       <c r="F157" t="n">
-        <v>3427752.1635</v>
+        <v>1549362.7487</v>
       </c>
       <c r="G157" t="n">
-        <v>75996489.03994685</v>
+        <v>104170827.4297611</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.3564</v>
+        <v>0.361</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3563</v>
+        <v>0.361</v>
       </c>
       <c r="D158" t="n">
-        <v>0.3569</v>
+        <v>0.361</v>
       </c>
       <c r="E158" t="n">
-        <v>0.3519</v>
+        <v>0.361</v>
       </c>
       <c r="F158" t="n">
-        <v>8632296.337359</v>
+        <v>1369398.709</v>
       </c>
       <c r="G158" t="n">
-        <v>75996489.03994685</v>
+        <v>104170827.4297611</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.3564</v>
+        <v>0.3611</v>
       </c>
       <c r="C159" t="n">
-        <v>0.358</v>
+        <v>0.3611</v>
       </c>
       <c r="D159" t="n">
-        <v>0.358</v>
+        <v>0.3611</v>
       </c>
       <c r="E159" t="n">
-        <v>0.3525</v>
+        <v>0.3611</v>
       </c>
       <c r="F159" t="n">
-        <v>4819160.39931977</v>
+        <v>1000000</v>
       </c>
       <c r="G159" t="n">
-        <v>80815649.43926662</v>
+        <v>105170827.4297611</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.3588</v>
+        <v>0.3611</v>
       </c>
       <c r="C160" t="n">
-        <v>0.3525</v>
+        <v>0.36</v>
       </c>
       <c r="D160" t="n">
-        <v>0.3588</v>
+        <v>0.3611</v>
       </c>
       <c r="E160" t="n">
-        <v>0.3525</v>
+        <v>0.36</v>
       </c>
       <c r="F160" t="n">
-        <v>2842.8094</v>
+        <v>1684958.3942</v>
       </c>
       <c r="G160" t="n">
-        <v>80812806.62986661</v>
+        <v>103485869.0355611</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.3588</v>
+        <v>0.3611</v>
       </c>
       <c r="C161" t="n">
-        <v>0.3525</v>
+        <v>0.3611</v>
       </c>
       <c r="D161" t="n">
-        <v>0.3598</v>
+        <v>0.3611</v>
       </c>
       <c r="E161" t="n">
-        <v>0.3525</v>
+        <v>0.3611</v>
       </c>
       <c r="F161" t="n">
-        <v>632819.4943</v>
+        <v>10858351.5538</v>
       </c>
       <c r="G161" t="n">
-        <v>80812806.62986661</v>
+        <v>114344220.5893611</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.3535</v>
+        <v>0.36</v>
       </c>
       <c r="C162" t="n">
-        <v>0.3535</v>
+        <v>0.36</v>
       </c>
       <c r="D162" t="n">
-        <v>0.3535</v>
+        <v>0.36</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3535</v>
+        <v>0.36</v>
       </c>
       <c r="F162" t="n">
-        <v>2290189.2253</v>
+        <v>760000</v>
       </c>
       <c r="G162" t="n">
-        <v>83102995.85516661</v>
+        <v>113584220.5893611</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6917,39 +7034,34 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3535</v>
+        <v>0.36</v>
       </c>
       <c r="C163" t="n">
-        <v>0.3535</v>
+        <v>0.36</v>
       </c>
       <c r="D163" t="n">
-        <v>0.3535</v>
+        <v>0.36</v>
       </c>
       <c r="E163" t="n">
-        <v>0.3535</v>
+        <v>0.36</v>
       </c>
       <c r="F163" t="n">
-        <v>238282.6876</v>
+        <v>561167.2278</v>
       </c>
       <c r="G163" t="n">
-        <v>83102995.85516661</v>
+        <v>113584220.5893611</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6958,39 +7070,34 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.3598</v>
+        <v>0.3571</v>
       </c>
       <c r="C164" t="n">
-        <v>0.3598</v>
+        <v>0.3571</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3598</v>
+        <v>0.3571</v>
       </c>
       <c r="E164" t="n">
-        <v>0.3598</v>
+        <v>0.3571</v>
       </c>
       <c r="F164" t="n">
-        <v>778339.5318999999</v>
+        <v>235090.439</v>
       </c>
       <c r="G164" t="n">
-        <v>83881335.38706662</v>
+        <v>113349130.1503611</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6999,39 +7106,34 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.3545</v>
+        <v>0.3573</v>
       </c>
       <c r="C165" t="n">
-        <v>0.355</v>
+        <v>0.3573</v>
       </c>
       <c r="D165" t="n">
-        <v>0.355</v>
+        <v>0.3573</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3545</v>
+        <v>0.3573</v>
       </c>
       <c r="F165" t="n">
-        <v>40000</v>
+        <v>39068.484</v>
       </c>
       <c r="G165" t="n">
-        <v>83841335.38706662</v>
+        <v>113388198.6343611</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -7040,39 +7142,34 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.355</v>
+        <v>0.3598</v>
       </c>
       <c r="C166" t="n">
-        <v>0.355</v>
+        <v>0.3599</v>
       </c>
       <c r="D166" t="n">
-        <v>0.355</v>
+        <v>0.3599</v>
       </c>
       <c r="E166" t="n">
-        <v>0.355</v>
+        <v>0.3598</v>
       </c>
       <c r="F166" t="n">
-        <v>88554.3437</v>
+        <v>173688.1064</v>
       </c>
       <c r="G166" t="n">
-        <v>83841335.38706662</v>
+        <v>113561886.7407611</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -7081,1712 +7178,120 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.3537</v>
+        <v>0.3599</v>
       </c>
       <c r="C167" t="n">
-        <v>0.3537</v>
+        <v>0.36</v>
       </c>
       <c r="D167" t="n">
-        <v>0.3537</v>
+        <v>0.36</v>
       </c>
       <c r="E167" t="n">
-        <v>0.3537</v>
+        <v>0.3599</v>
       </c>
       <c r="F167" t="n">
-        <v>3583725.4064</v>
+        <v>2085323.6261</v>
       </c>
       <c r="G167" t="n">
-        <v>80257609.98066662</v>
+        <v>115647210.3668611</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.3597</v>
+        <v>0.3574</v>
       </c>
       <c r="C168" t="n">
-        <v>0.3597</v>
+        <v>0.3574</v>
       </c>
       <c r="D168" t="n">
-        <v>0.3597</v>
+        <v>0.3574</v>
       </c>
       <c r="E168" t="n">
-        <v>0.3597</v>
+        <v>0.3574</v>
       </c>
       <c r="F168" t="n">
-        <v>600000</v>
+        <v>68155.93919999999</v>
       </c>
       <c r="G168" t="n">
-        <v>80857609.98066662</v>
+        <v>115579054.4276611</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.3541</v>
+        <v>0.362</v>
       </c>
       <c r="C169" t="n">
-        <v>0.3597</v>
+        <v>0.3621</v>
       </c>
       <c r="D169" t="n">
-        <v>0.3597</v>
+        <v>0.3621</v>
       </c>
       <c r="E169" t="n">
-        <v>0.3541</v>
+        <v>0.362</v>
       </c>
       <c r="F169" t="n">
-        <v>22704807.7567</v>
+        <v>223399.2483</v>
       </c>
       <c r="G169" t="n">
-        <v>80857609.98066662</v>
+        <v>115802453.6759611</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.3597</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.3597</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.3597</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.3597</v>
-      </c>
-      <c r="F170" t="n">
-        <v>671345.1844</v>
-      </c>
-      <c r="G170" t="n">
-        <v>80857609.98066662</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.3595</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.3595</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.3595</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.3595</v>
-      </c>
-      <c r="F171" t="n">
-        <v>4108.48400556</v>
-      </c>
-      <c r="G171" t="n">
-        <v>80853501.49666107</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.3594</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.3594</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.3594</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.3594</v>
-      </c>
-      <c r="F172" t="n">
-        <v>4246.1736</v>
-      </c>
-      <c r="G172" t="n">
-        <v>80849255.32306106</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1052523.0726</v>
-      </c>
-      <c r="G173" t="n">
-        <v>79796732.25046106</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="F174" t="n">
-        <v>15599905.706</v>
-      </c>
-      <c r="G174" t="n">
-        <v>64196826.54446106</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="F175" t="n">
-        <v>6448985.9105</v>
-      </c>
-      <c r="G175" t="n">
-        <v>64196826.54446106</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.3536</v>
-      </c>
-      <c r="F176" t="n">
-        <v>9787025.4146</v>
-      </c>
-      <c r="G176" t="n">
-        <v>64196826.54446106</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="F177" t="n">
-        <v>10309893.1788</v>
-      </c>
-      <c r="G177" t="n">
-        <v>64196826.54446106</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="F178" t="n">
-        <v>3877859.9702</v>
-      </c>
-      <c r="G178" t="n">
-        <v>64196826.54446106</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="F179" t="n">
-        <v>8666170.1042</v>
-      </c>
-      <c r="G179" t="n">
-        <v>64196826.54446106</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>0.3578</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.3578</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.3578</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.3578</v>
-      </c>
-      <c r="F180" t="n">
-        <v>89799.6805</v>
-      </c>
-      <c r="G180" t="n">
-        <v>64286626.22496106</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0.3578</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.3597</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.3597</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.3578</v>
-      </c>
-      <c r="F181" t="n">
-        <v>4798738.5266</v>
-      </c>
-      <c r="G181" t="n">
-        <v>69085364.75156106</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0.3578</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.3578</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.3578</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.3578</v>
-      </c>
-      <c r="F182" t="n">
-        <v>255946.508</v>
-      </c>
-      <c r="G182" t="n">
-        <v>68829418.24356106</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.3578</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.3578</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.3578</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.3578</v>
-      </c>
-      <c r="F183" t="n">
-        <v>408573.8427</v>
-      </c>
-      <c r="G183" t="n">
-        <v>68829418.24356106</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.3597</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.3597</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.3597</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.3597</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1832910</v>
-      </c>
-      <c r="G184" t="n">
-        <v>70662328.24356106</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0.3597</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.3597</v>
-      </c>
-      <c r="F185" t="n">
-        <v>23572610.9126</v>
-      </c>
-      <c r="G185" t="n">
-        <v>94234939.15616105</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0.3613</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.3613</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.3615</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.3613</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1007247.8315</v>
-      </c>
-      <c r="G186" t="n">
-        <v>95242186.98766105</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1.050198598130841</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0.3613</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.3537</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.3613</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0.3537</v>
-      </c>
-      <c r="F187" t="n">
-        <v>922357.0658</v>
-      </c>
-      <c r="G187" t="n">
-        <v>94319829.92186105</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0.3609</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.3619</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0.3619</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0.3609</v>
-      </c>
-      <c r="F188" t="n">
-        <v>6726181.9364</v>
-      </c>
-      <c r="G188" t="n">
-        <v>101046011.858261</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="F189" t="n">
-        <v>5655185.6172</v>
-      </c>
-      <c r="G189" t="n">
-        <v>106701197.4754611</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="F190" t="n">
-        <v>2388710.5982</v>
-      </c>
-      <c r="G190" t="n">
-        <v>106701197.4754611</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="F191" t="n">
-        <v>440424.1108</v>
-      </c>
-      <c r="G191" t="n">
-        <v>107141621.586261</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1442470.1707</v>
-      </c>
-      <c r="G192" t="n">
-        <v>107141621.586261</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1460517.9766</v>
-      </c>
-      <c r="G193" t="n">
-        <v>107141621.586261</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1272676.2352</v>
-      </c>
-      <c r="G194" t="n">
-        <v>107141621.586261</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1421431.4078</v>
-      </c>
-      <c r="G195" t="n">
-        <v>105720190.178461</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="F196" t="n">
-        <v>5317514.328</v>
-      </c>
-      <c r="G196" t="n">
-        <v>105720190.178461</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="F197" t="n">
-        <v>501395.4186</v>
-      </c>
-      <c r="G197" t="n">
-        <v>105720190.178461</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="F198" t="n">
-        <v>2862819.6999</v>
-      </c>
-      <c r="G198" t="n">
-        <v>105720190.178461</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="E199" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="F199" t="n">
-        <v>1549362.7487</v>
-      </c>
-      <c r="G199" t="n">
-        <v>104170827.4297611</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1369398.709</v>
-      </c>
-      <c r="G200" t="n">
-        <v>104170827.4297611</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>0.3611</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0.3611</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0.3611</v>
-      </c>
-      <c r="E201" t="n">
-        <v>0.3611</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="G201" t="n">
-        <v>105170827.4297611</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>0.3611</v>
-      </c>
-      <c r="C202" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0.3611</v>
-      </c>
-      <c r="E202" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1684958.3942</v>
-      </c>
-      <c r="G202" t="n">
-        <v>103485869.0355611</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>0.3611</v>
-      </c>
-      <c r="C203" t="n">
-        <v>0.3611</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0.3611</v>
-      </c>
-      <c r="E203" t="n">
-        <v>0.3611</v>
-      </c>
-      <c r="F203" t="n">
-        <v>10858351.5538</v>
-      </c>
-      <c r="G203" t="n">
-        <v>114344220.5893611</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="C204" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="F204" t="n">
-        <v>760000</v>
-      </c>
-      <c r="G204" t="n">
-        <v>113584220.5893611</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="C205" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D205" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E205" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="F205" t="n">
-        <v>561167.2278</v>
-      </c>
-      <c r="G205" t="n">
-        <v>113584220.5893611</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>0.3571</v>
-      </c>
-      <c r="C206" t="n">
-        <v>0.3571</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0.3571</v>
-      </c>
-      <c r="E206" t="n">
-        <v>0.3571</v>
-      </c>
-      <c r="F206" t="n">
-        <v>235090.439</v>
-      </c>
-      <c r="G206" t="n">
-        <v>113349130.1503611</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>0.3573</v>
-      </c>
-      <c r="C207" t="n">
-        <v>0.3573</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0.3573</v>
-      </c>
-      <c r="E207" t="n">
-        <v>0.3573</v>
-      </c>
-      <c r="F207" t="n">
-        <v>39068.484</v>
-      </c>
-      <c r="G207" t="n">
-        <v>113388198.6343611</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0.3599</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0.3599</v>
-      </c>
-      <c r="E208" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="F208" t="n">
-        <v>173688.1064</v>
-      </c>
-      <c r="G208" t="n">
-        <v>113561886.7407611</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>0.3599</v>
-      </c>
-      <c r="C209" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E209" t="n">
-        <v>0.3599</v>
-      </c>
-      <c r="F209" t="n">
-        <v>2085323.6261</v>
-      </c>
-      <c r="G209" t="n">
-        <v>115647210.3668611</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="C210" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="E210" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="F210" t="n">
-        <v>68155.93919999999</v>
-      </c>
-      <c r="G210" t="n">
-        <v>115579054.4276611</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>0.362</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0.3621</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0.3621</v>
-      </c>
-      <c r="E211" t="n">
-        <v>0.362</v>
-      </c>
-      <c r="F211" t="n">
-        <v>223399.2483</v>
-      </c>
-      <c r="G211" t="n">
-        <v>115802453.6759611</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
+      <c r="N169" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest BTT.xlsx
+++ b/BackTest/2020-01-13 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3445</v>
+        <v>0.334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3445</v>
+        <v>0.3338</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3445</v>
+        <v>0.334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3445</v>
+        <v>0.3338</v>
       </c>
       <c r="F2" t="n">
-        <v>69555.1324</v>
+        <v>3120487.3905</v>
       </c>
       <c r="G2" t="n">
-        <v>-7589323.745529275</v>
+        <v>-26409571.96025185</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3445</v>
+        <v>0.335</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3445</v>
+        <v>0.335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3445</v>
+        <v>0.335</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3445</v>
+        <v>0.335</v>
       </c>
       <c r="F3" t="n">
-        <v>487629.6176</v>
+        <v>1047005.5026</v>
       </c>
       <c r="G3" t="n">
-        <v>-7589323.745529275</v>
+        <v>-25362566.45765185</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3445</v>
+        <v>0.3338</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3445</v>
+        <v>0.3338</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
@@ -514,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3448</v>
+        <v>0.3377</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3448</v>
+        <v>0.3377</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3448</v>
+        <v>0.3377</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3448</v>
+        <v>0.3377</v>
       </c>
       <c r="F4" t="n">
-        <v>217881.1947</v>
+        <v>104749.15057293</v>
       </c>
       <c r="G4" t="n">
-        <v>-7371442.550829276</v>
+        <v>-25257817.30707892</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3445</v>
+        <v>0.335</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3445</v>
+        <v>0.3338</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3448</v>
+        <v>0.3377</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3448</v>
+        <v>0.3324</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3448</v>
+        <v>0.3377</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3448</v>
+        <v>0.3324</v>
       </c>
       <c r="F5" t="n">
-        <v>449023.0064</v>
+        <v>62990.5123</v>
       </c>
       <c r="G5" t="n">
-        <v>-7371442.550829276</v>
+        <v>-25320807.81937892</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,14 +582,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3448</v>
+        <v>0.3377</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3445</v>
+        <v>0.3338</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -602,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3448</v>
+        <v>0.3324</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3448</v>
+        <v>0.3396</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3448</v>
+        <v>0.3396</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3448</v>
+        <v>0.3324</v>
       </c>
       <c r="F6" t="n">
-        <v>855218.9915</v>
+        <v>4347715.2465</v>
       </c>
       <c r="G6" t="n">
-        <v>-7371442.550829276</v>
+        <v>-20973092.57287892</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -638,22 +646,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3413</v>
+        <v>0.34</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3448</v>
+        <v>0.34</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3448</v>
+        <v>0.34</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3413</v>
+        <v>0.34</v>
       </c>
       <c r="F7" t="n">
-        <v>659036.3865</v>
+        <v>5558</v>
       </c>
       <c r="G7" t="n">
-        <v>-7371442.550829276</v>
+        <v>-20967534.57287892</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -662,8 +670,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -674,22 +688,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3413</v>
+        <v>0.34</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3413</v>
+        <v>0.34</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3413</v>
+        <v>0.34</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3413</v>
+        <v>0.34</v>
       </c>
       <c r="F8" t="n">
-        <v>12915.3865</v>
+        <v>126083</v>
       </c>
       <c r="G8" t="n">
-        <v>-7384357.937329276</v>
+        <v>-20967534.57287892</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -698,8 +712,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -710,36 +730,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3448</v>
+        <v>0.34</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3448</v>
+        <v>0.34</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3448</v>
+        <v>0.34</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3448</v>
+        <v>0.34</v>
       </c>
       <c r="F9" t="n">
-        <v>388622</v>
+        <v>352175</v>
       </c>
       <c r="G9" t="n">
-        <v>-6995735.937329276</v>
+        <v>-20967534.57287892</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.3413</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>0.3413</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+        <v>0.3338</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -750,22 +772,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3448</v>
+        <v>0.34</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3448</v>
+        <v>0.34</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3448</v>
+        <v>0.34</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3448</v>
+        <v>0.34</v>
       </c>
       <c r="F10" t="n">
-        <v>582357</v>
+        <v>725805</v>
       </c>
       <c r="G10" t="n">
-        <v>-6995735.937329276</v>
+        <v>-20967534.57287892</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -775,11 +797,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>0.3413</v>
+        <v>0.3338</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -792,22 +814,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3448</v>
+        <v>0.34</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3455</v>
+        <v>0.34</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3455</v>
+        <v>0.34</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3448</v>
+        <v>0.34</v>
       </c>
       <c r="F11" t="n">
-        <v>2707090.245</v>
+        <v>182448.1635</v>
       </c>
       <c r="G11" t="n">
-        <v>-4288645.692329275</v>
+        <v>-20967534.57287892</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -817,11 +839,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>0.3413</v>
+        <v>0.3338</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -834,22 +856,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3455</v>
+        <v>0.34</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3455</v>
+        <v>0.34</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3455</v>
+        <v>0.34</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3455</v>
+        <v>0.34</v>
       </c>
       <c r="F12" t="n">
-        <v>52987.5094</v>
+        <v>161409.7174</v>
       </c>
       <c r="G12" t="n">
-        <v>-4288645.692329275</v>
+        <v>-20967534.57287892</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -858,8 +880,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -870,22 +898,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3455</v>
+        <v>0.34</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3458</v>
+        <v>0.34</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3458</v>
+        <v>0.34</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3455</v>
+        <v>0.34</v>
       </c>
       <c r="F13" t="n">
-        <v>286814.9226</v>
+        <v>75271.08779999999</v>
       </c>
       <c r="G13" t="n">
-        <v>-4001830.769729275</v>
+        <v>-20967534.57287892</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -894,8 +922,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -906,22 +940,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3458</v>
+        <v>0.34</v>
       </c>
       <c r="C14" t="n">
-        <v>0.348</v>
+        <v>0.3404</v>
       </c>
       <c r="D14" t="n">
-        <v>0.348</v>
+        <v>0.3404</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3458</v>
+        <v>0.34</v>
       </c>
       <c r="F14" t="n">
-        <v>1553337.1723</v>
+        <v>256599.3265</v>
       </c>
       <c r="G14" t="n">
-        <v>-2448493.597429276</v>
+        <v>-20710935.24637892</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -930,8 +964,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -942,22 +982,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.348</v>
+        <v>0.3404</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3421</v>
+        <v>0.3404</v>
       </c>
       <c r="D15" t="n">
-        <v>0.348</v>
+        <v>0.3404</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3421</v>
+        <v>0.3404</v>
       </c>
       <c r="F15" t="n">
-        <v>3160.9196</v>
+        <v>385919.8947</v>
       </c>
       <c r="G15" t="n">
-        <v>-2451654.517029276</v>
+        <v>-20710935.24637892</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -966,8 +1006,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1024,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3431</v>
+        <v>0.3404</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3431</v>
+        <v>0.3404</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3431</v>
+        <v>0.3404</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3431</v>
+        <v>0.3404</v>
       </c>
       <c r="F16" t="n">
-        <v>2862842.44</v>
+        <v>2637245.1511</v>
       </c>
       <c r="G16" t="n">
-        <v>411187.9229707243</v>
+        <v>-20710935.24637892</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1002,8 +1048,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1066,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3466</v>
+        <v>0.3404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3466</v>
+        <v>0.3404</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3466</v>
+        <v>0.3404</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3466</v>
+        <v>0.3404</v>
       </c>
       <c r="F17" t="n">
-        <v>8567.609200000001</v>
+        <v>102720.7561</v>
       </c>
       <c r="G17" t="n">
-        <v>419755.5321707243</v>
+        <v>-20710935.24637892</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1038,8 +1090,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1108,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3449</v>
+        <v>0.3404</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3449</v>
+        <v>0.3404</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3449</v>
+        <v>0.3404</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3449</v>
+        <v>0.3404</v>
       </c>
       <c r="F18" t="n">
-        <v>730230.998</v>
+        <v>58059.4518</v>
       </c>
       <c r="G18" t="n">
-        <v>-310475.4658292757</v>
+        <v>-20710935.24637892</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1074,8 +1132,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1150,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.345</v>
+        <v>0.3404</v>
       </c>
       <c r="C19" t="n">
-        <v>0.345</v>
+        <v>0.3404</v>
       </c>
       <c r="D19" t="n">
-        <v>0.345</v>
+        <v>0.3404</v>
       </c>
       <c r="E19" t="n">
-        <v>0.345</v>
+        <v>0.3404</v>
       </c>
       <c r="F19" t="n">
-        <v>41658.1444</v>
+        <v>232241.8271</v>
       </c>
       <c r="G19" t="n">
-        <v>-268817.3214292757</v>
+        <v>-20710935.24637892</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1110,8 +1174,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1192,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.345</v>
+        <v>0.3404</v>
       </c>
       <c r="C20" t="n">
-        <v>0.345</v>
+        <v>0.3404</v>
       </c>
       <c r="D20" t="n">
-        <v>0.345</v>
+        <v>0.3404</v>
       </c>
       <c r="E20" t="n">
-        <v>0.345</v>
+        <v>0.3404</v>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>353088.7089</v>
       </c>
       <c r="G20" t="n">
-        <v>-268817.3214292757</v>
+        <v>-20710935.24637892</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1146,8 +1216,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.345</v>
+        <v>0.3404</v>
       </c>
       <c r="C21" t="n">
-        <v>0.345</v>
+        <v>0.3404</v>
       </c>
       <c r="D21" t="n">
-        <v>0.345</v>
+        <v>0.3404</v>
       </c>
       <c r="E21" t="n">
-        <v>0.345</v>
+        <v>0.3404</v>
       </c>
       <c r="F21" t="n">
-        <v>874154.9905</v>
+        <v>1175639.366</v>
       </c>
       <c r="G21" t="n">
-        <v>-268817.3214292757</v>
+        <v>-20710935.24637892</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1182,8 +1258,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1276,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3411</v>
+        <v>0.3404</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3411</v>
+        <v>0.3404</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3411</v>
+        <v>0.3404</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3411</v>
+        <v>0.3404</v>
       </c>
       <c r="F22" t="n">
-        <v>145824.4216</v>
+        <v>549838.7675</v>
       </c>
       <c r="G22" t="n">
-        <v>-414641.7430292757</v>
+        <v>-20710935.24637892</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1218,8 +1300,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1230,36 +1318,38 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3411</v>
+        <v>0.3404</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3411</v>
+        <v>0.3404</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3411</v>
+        <v>0.3404</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3411</v>
+        <v>0.3404</v>
       </c>
       <c r="F23" t="n">
-        <v>447139.2782</v>
+        <v>345465</v>
       </c>
       <c r="G23" t="n">
-        <v>-414641.7430292757</v>
+        <v>-20710935.24637892</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.3411</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>0.3411</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
+        <v>0.3338</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1270,38 +1360,36 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3412</v>
+        <v>0.342</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3452</v>
+        <v>0.342</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3452</v>
+        <v>0.342</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3412</v>
+        <v>0.342</v>
       </c>
       <c r="F24" t="n">
-        <v>322891.1372</v>
+        <v>90971.68610000001</v>
       </c>
       <c r="G24" t="n">
-        <v>-91750.60582927574</v>
+        <v>-20619963.56027893</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0.3411</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -1314,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3452</v>
+        <v>0.342</v>
       </c>
       <c r="C25" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3452</v>
+        <v>0.342</v>
       </c>
       <c r="E25" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="F25" t="n">
-        <v>2954.809</v>
+        <v>96774</v>
       </c>
       <c r="G25" t="n">
-        <v>-94705.41482927573</v>
+        <v>-20619963.56027893</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1339,11 +1427,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1356,22 +1444,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3452</v>
+        <v>0.342</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3452</v>
+        <v>0.342</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3452</v>
+        <v>0.342</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3452</v>
+        <v>0.342</v>
       </c>
       <c r="F26" t="n">
-        <v>235104.8343</v>
+        <v>308135</v>
       </c>
       <c r="G26" t="n">
-        <v>140399.4194707242</v>
+        <v>-20619963.56027893</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1381,7 +1469,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1398,22 +1486,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3452</v>
+        <v>0.342</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3454</v>
+        <v>0.342</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3454</v>
+        <v>0.342</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3452</v>
+        <v>0.342</v>
       </c>
       <c r="F27" t="n">
-        <v>769378.3223999999</v>
+        <v>177258.3856</v>
       </c>
       <c r="G27" t="n">
-        <v>909777.7418707241</v>
+        <v>-20619963.56027893</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1423,7 +1511,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1440,22 +1528,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3472</v>
+        <v>0.342</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3472</v>
+        <v>0.342</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3472</v>
+        <v>0.342</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3472</v>
+        <v>0.342</v>
       </c>
       <c r="F28" t="n">
-        <v>2322637.4156</v>
+        <v>96774</v>
       </c>
       <c r="G28" t="n">
-        <v>3232415.157470724</v>
+        <v>-20619963.56027893</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1465,7 +1553,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1482,22 +1570,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3478</v>
+        <v>0.342</v>
       </c>
       <c r="C29" t="n">
-        <v>0.348</v>
+        <v>0.342</v>
       </c>
       <c r="D29" t="n">
-        <v>0.348</v>
+        <v>0.342</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3478</v>
+        <v>0.342</v>
       </c>
       <c r="F29" t="n">
-        <v>3161731.96703436</v>
+        <v>2862842.44</v>
       </c>
       <c r="G29" t="n">
-        <v>6394147.124505084</v>
+        <v>-20619963.56027893</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1507,7 +1595,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1524,22 +1612,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3411</v>
+        <v>0.342</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3411</v>
+        <v>0.342</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3411</v>
+        <v>0.342</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3411</v>
+        <v>0.342</v>
       </c>
       <c r="F30" t="n">
-        <v>1477.4045</v>
+        <v>200704.5844</v>
       </c>
       <c r="G30" t="n">
-        <v>6392669.720005084</v>
+        <v>-20619963.56027893</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1549,7 +1637,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1566,22 +1654,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3416</v>
+        <v>0.342</v>
       </c>
       <c r="C31" t="n">
-        <v>0.348</v>
+        <v>0.342</v>
       </c>
       <c r="D31" t="n">
-        <v>0.348</v>
+        <v>0.342</v>
       </c>
       <c r="E31" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="F31" t="n">
-        <v>22001429.3883</v>
+        <v>733261.6417</v>
       </c>
       <c r="G31" t="n">
-        <v>28394099.10830509</v>
+        <v>-20619963.56027893</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1591,7 +1679,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1608,22 +1696,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3427</v>
+        <v>0.342</v>
       </c>
       <c r="C32" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="D32" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="E32" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="F32" t="n">
-        <v>3001445.0868</v>
+        <v>526383</v>
       </c>
       <c r="G32" t="n">
-        <v>25392654.02150508</v>
+        <v>-20619963.56027893</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1633,7 +1721,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1650,22 +1738,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3452</v>
+        <v>0.342</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3452</v>
+        <v>0.342</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3452</v>
+        <v>0.342</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3452</v>
+        <v>0.342</v>
       </c>
       <c r="F33" t="n">
-        <v>600000</v>
+        <v>947957</v>
       </c>
       <c r="G33" t="n">
-        <v>24792654.02150508</v>
+        <v>-20619963.56027893</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1675,7 +1763,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1692,22 +1780,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="C34" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="D34" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="E34" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="F34" t="n">
-        <v>1888539.3355</v>
+        <v>1195443</v>
       </c>
       <c r="G34" t="n">
-        <v>26681193.35700508</v>
+        <v>-20619963.56027893</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1717,7 +1805,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1734,22 +1822,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3454</v>
+        <v>0.342</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3454</v>
+        <v>0.342</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3454</v>
+        <v>0.342</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3454</v>
+        <v>0.342</v>
       </c>
       <c r="F35" t="n">
-        <v>14545046.5522</v>
+        <v>1006455</v>
       </c>
       <c r="G35" t="n">
-        <v>12136146.80480508</v>
+        <v>-20619963.56027893</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1759,7 +1847,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1776,22 +1864,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3454</v>
+        <v>0.342</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3454</v>
+        <v>0.3429</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3454</v>
+        <v>0.3429</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3454</v>
+        <v>0.342</v>
       </c>
       <c r="F36" t="n">
-        <v>2476128.016</v>
+        <v>3743343.3974</v>
       </c>
       <c r="G36" t="n">
-        <v>12136146.80480508</v>
+        <v>-16876620.16287893</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1801,7 +1889,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1818,22 +1906,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3454</v>
+        <v>0.344</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3454</v>
+        <v>0.344</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3454</v>
+        <v>0.344</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3454</v>
+        <v>0.344</v>
       </c>
       <c r="F37" t="n">
-        <v>2572842</v>
+        <v>210009.7155</v>
       </c>
       <c r="G37" t="n">
-        <v>12136146.80480508</v>
+        <v>-16666610.44737893</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1843,7 +1931,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1860,22 +1948,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3454</v>
+        <v>0.344</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3454</v>
+        <v>0.344</v>
       </c>
       <c r="F38" t="n">
-        <v>2942047.0634</v>
+        <v>4897000</v>
       </c>
       <c r="G38" t="n">
-        <v>12136146.80480508</v>
+        <v>-11769610.44737893</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1885,7 +1973,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1902,22 +1990,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3424</v>
+        <v>0.345</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3424</v>
+        <v>0.345</v>
       </c>
       <c r="F39" t="n">
-        <v>1092208.9411</v>
+        <v>1892.7463</v>
       </c>
       <c r="G39" t="n">
-        <v>12136146.80480508</v>
+        <v>-11769610.44737893</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1927,7 +2015,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1944,22 +2032,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="F40" t="n">
-        <v>863459.2355</v>
+        <v>468085.14211739</v>
       </c>
       <c r="G40" t="n">
-        <v>12136146.80480508</v>
+        <v>-11769610.44737893</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1969,7 +2057,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1986,22 +2074,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3424</v>
+        <v>0.345</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3424</v>
+        <v>0.345</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3424</v>
+        <v>0.345</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3424</v>
+        <v>0.345</v>
       </c>
       <c r="F41" t="n">
-        <v>10981.6384</v>
+        <v>8405.797101439999</v>
       </c>
       <c r="G41" t="n">
-        <v>12125165.16640508</v>
+        <v>-11769610.44737893</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2011,7 +2099,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2028,22 +2116,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="F42" t="n">
-        <v>2665039</v>
+        <v>791246.0587000001</v>
       </c>
       <c r="G42" t="n">
-        <v>14790204.16640508</v>
+        <v>-11769610.44737893</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2053,7 +2141,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2070,22 +2158,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="F43" t="n">
-        <v>732267</v>
+        <v>16253.887</v>
       </c>
       <c r="G43" t="n">
-        <v>14790204.16640508</v>
+        <v>-11769610.44737893</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2095,7 +2183,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2112,22 +2200,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3454</v>
+        <v>0.345</v>
       </c>
       <c r="F44" t="n">
-        <v>1421388.2083</v>
+        <v>5487.2384</v>
       </c>
       <c r="G44" t="n">
-        <v>14790204.16640508</v>
+        <v>-11769610.44737893</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2137,7 +2225,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2154,22 +2242,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3472</v>
+        <v>0.3401</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3472</v>
+        <v>0.3401</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3472</v>
+        <v>0.3401</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3472</v>
+        <v>0.3401</v>
       </c>
       <c r="F45" t="n">
-        <v>293991.0478</v>
+        <v>202159.3231</v>
       </c>
       <c r="G45" t="n">
-        <v>15084195.21420508</v>
+        <v>-11971769.77047893</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2179,7 +2267,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2196,22 +2284,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3472</v>
+        <v>0.343</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3472</v>
+        <v>0.3429</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3472</v>
+        <v>0.343</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3472</v>
+        <v>0.3429</v>
       </c>
       <c r="F46" t="n">
-        <v>819637.9521</v>
+        <v>374374</v>
       </c>
       <c r="G46" t="n">
-        <v>15084195.21420508</v>
+        <v>-11597395.77047893</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2221,7 +2309,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2238,22 +2326,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.348</v>
+        <v>0.3429</v>
       </c>
       <c r="C47" t="n">
-        <v>0.348</v>
+        <v>0.343</v>
       </c>
       <c r="D47" t="n">
-        <v>0.348</v>
+        <v>0.343</v>
       </c>
       <c r="E47" t="n">
-        <v>0.348</v>
+        <v>0.3429</v>
       </c>
       <c r="F47" t="n">
-        <v>1200000</v>
+        <v>44116.9565</v>
       </c>
       <c r="G47" t="n">
-        <v>16284195.21420508</v>
+        <v>-11553278.81397893</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2263,7 +2351,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2280,22 +2368,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.348</v>
+        <v>0.3403</v>
       </c>
       <c r="C48" t="n">
-        <v>0.348</v>
+        <v>0.343</v>
       </c>
       <c r="D48" t="n">
-        <v>0.348</v>
+        <v>0.343</v>
       </c>
       <c r="E48" t="n">
-        <v>0.348</v>
+        <v>0.3403</v>
       </c>
       <c r="F48" t="n">
-        <v>536744</v>
+        <v>505604.5063</v>
       </c>
       <c r="G48" t="n">
-        <v>16284195.21420508</v>
+        <v>-11553278.81397893</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2305,7 +2393,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2322,22 +2410,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3484</v>
+        <v>0.343</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3487</v>
+        <v>0.343</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3487</v>
+        <v>0.343</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3484</v>
+        <v>0.343</v>
       </c>
       <c r="F49" t="n">
-        <v>1200000</v>
+        <v>58163.6288</v>
       </c>
       <c r="G49" t="n">
-        <v>17484195.21420508</v>
+        <v>-11553278.81397893</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2347,7 +2435,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2364,22 +2452,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3487</v>
+        <v>0.343</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3487</v>
+        <v>0.343</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3487</v>
+        <v>0.343</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3487</v>
+        <v>0.343</v>
       </c>
       <c r="F50" t="n">
-        <v>101005.5889</v>
+        <v>1481.7184</v>
       </c>
       <c r="G50" t="n">
-        <v>17484195.21420508</v>
+        <v>-11553278.81397893</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2389,7 +2477,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2406,22 +2494,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3486</v>
+        <v>0.343</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3486</v>
+        <v>0.343</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3486</v>
+        <v>0.343</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3486</v>
+        <v>0.343</v>
       </c>
       <c r="F51" t="n">
-        <v>18375.7656</v>
+        <v>13097.9839</v>
       </c>
       <c r="G51" t="n">
-        <v>17465819.44860508</v>
+        <v>-11553278.81397893</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2431,7 +2519,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2448,22 +2536,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3468</v>
+        <v>0.343</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3468</v>
+        <v>0.343</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3468</v>
+        <v>0.343</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3468</v>
+        <v>0.343</v>
       </c>
       <c r="F52" t="n">
-        <v>5095355.8977</v>
+        <v>75800</v>
       </c>
       <c r="G52" t="n">
-        <v>12370463.55090508</v>
+        <v>-11553278.81397893</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2473,7 +2561,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2490,22 +2578,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3468</v>
+        <v>0.3428</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3468</v>
+        <v>0.3428</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3468</v>
+        <v>0.3428</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3468</v>
+        <v>0.3428</v>
       </c>
       <c r="F53" t="n">
-        <v>1551</v>
+        <v>3948.6173</v>
       </c>
       <c r="G53" t="n">
-        <v>12370463.55090508</v>
+        <v>-11557227.43127893</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2515,7 +2603,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2532,22 +2620,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3468</v>
+        <v>0.3424</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3468</v>
+        <v>0.3424</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3468</v>
+        <v>0.3424</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3468</v>
+        <v>0.3424</v>
       </c>
       <c r="F54" t="n">
-        <v>65371</v>
+        <v>97808.26089999999</v>
       </c>
       <c r="G54" t="n">
-        <v>12370463.55090508</v>
+        <v>-11655035.69217893</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2557,7 +2645,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2574,22 +2662,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.346</v>
+        <v>0.3424</v>
       </c>
       <c r="C55" t="n">
-        <v>0.346</v>
+        <v>0.3424</v>
       </c>
       <c r="D55" t="n">
-        <v>0.346</v>
+        <v>0.3424</v>
       </c>
       <c r="E55" t="n">
-        <v>0.346</v>
+        <v>0.3424</v>
       </c>
       <c r="F55" t="n">
-        <v>49729.3471</v>
+        <v>1544465.7987</v>
       </c>
       <c r="G55" t="n">
-        <v>12320734.20380508</v>
+        <v>-11655035.69217893</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2599,7 +2687,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2616,22 +2704,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.344</v>
+        <v>0.3424</v>
       </c>
       <c r="C56" t="n">
-        <v>0.344</v>
+        <v>0.3424</v>
       </c>
       <c r="D56" t="n">
-        <v>0.344</v>
+        <v>0.3424</v>
       </c>
       <c r="E56" t="n">
-        <v>0.344</v>
+        <v>0.3424</v>
       </c>
       <c r="F56" t="n">
-        <v>50018.4857</v>
+        <v>868505</v>
       </c>
       <c r="G56" t="n">
-        <v>12270715.71810508</v>
+        <v>-11655035.69217893</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2641,7 +2729,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2658,22 +2746,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3469</v>
+        <v>0.3424</v>
       </c>
       <c r="C57" t="n">
         <v>0.3424</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3469</v>
+        <v>0.3424</v>
       </c>
       <c r="E57" t="n">
         <v>0.3424</v>
       </c>
       <c r="F57" t="n">
-        <v>4385.7763</v>
+        <v>7084671</v>
       </c>
       <c r="G57" t="n">
-        <v>12266329.94180508</v>
+        <v>-11655035.69217893</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2683,7 +2771,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2700,22 +2788,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3429</v>
+        <v>0.3424</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3429</v>
+        <v>0.3424</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3429</v>
+        <v>0.3424</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3429</v>
+        <v>0.3424</v>
       </c>
       <c r="F58" t="n">
-        <v>153600.0107</v>
+        <v>1112329</v>
       </c>
       <c r="G58" t="n">
-        <v>12419929.95250508</v>
+        <v>-11655035.69217893</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2725,7 +2813,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2742,22 +2830,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3471</v>
+        <v>0.3424</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3471</v>
+        <v>0.3424</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3471</v>
+        <v>0.3424</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3471</v>
+        <v>0.3424</v>
       </c>
       <c r="F59" t="n">
-        <v>20000</v>
+        <v>905046</v>
       </c>
       <c r="G59" t="n">
-        <v>12439929.95250508</v>
+        <v>-11655035.69217893</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2767,7 +2855,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2784,22 +2872,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3454</v>
+        <v>0.3424</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3454</v>
+        <v>0.3424</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3454</v>
+        <v>0.3424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3454</v>
+        <v>0.3424</v>
       </c>
       <c r="F60" t="n">
-        <v>52692.53</v>
+        <v>1058524.4131</v>
       </c>
       <c r="G60" t="n">
-        <v>12387237.42250508</v>
+        <v>-11655035.69217893</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2809,7 +2897,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2826,22 +2914,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3429</v>
+        <v>0.3424</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3429</v>
+        <v>0.3424</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3429</v>
+        <v>0.3424</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3429</v>
+        <v>0.3424</v>
       </c>
       <c r="F61" t="n">
-        <v>18064.3413</v>
+        <v>137146.9187</v>
       </c>
       <c r="G61" t="n">
-        <v>12369173.08120508</v>
+        <v>-11655035.69217893</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2851,7 +2939,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2868,22 +2956,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3429</v>
+        <v>0.3409</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3429</v>
+        <v>0.3409</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3429</v>
+        <v>0.3409</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3429</v>
+        <v>0.3409</v>
       </c>
       <c r="F62" t="n">
-        <v>19428.8</v>
+        <v>335286.7241</v>
       </c>
       <c r="G62" t="n">
-        <v>12369173.08120508</v>
+        <v>-11990322.41627893</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2893,7 +2981,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2910,22 +2998,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3454</v>
+        <v>0.3423</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3454</v>
+        <v>0.3423</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3454</v>
+        <v>0.3423</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3454</v>
+        <v>0.3423</v>
       </c>
       <c r="F63" t="n">
-        <v>57126.5353</v>
+        <v>53918.3819</v>
       </c>
       <c r="G63" t="n">
-        <v>12426299.61650508</v>
+        <v>-11936404.03437893</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2935,7 +3023,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2952,22 +3040,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3454</v>
+        <v>0.3423</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3454</v>
+        <v>0.3423</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3454</v>
+        <v>0.3423</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3429</v>
+        <v>0.3423</v>
       </c>
       <c r="F64" t="n">
-        <v>770374.5954</v>
+        <v>75901</v>
       </c>
       <c r="G64" t="n">
-        <v>12426299.61650508</v>
+        <v>-11936404.03437893</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2977,7 +3065,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2994,22 +3082,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3454</v>
+        <v>0.3423</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3454</v>
+        <v>0.3424</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3454</v>
+        <v>0.3424</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3454</v>
+        <v>0.3423</v>
       </c>
       <c r="F65" t="n">
-        <v>2188434.0032</v>
+        <v>432357.1739</v>
       </c>
       <c r="G65" t="n">
-        <v>12426299.61650508</v>
+        <v>-11504046.86047893</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3019,7 +3107,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3036,22 +3124,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3454</v>
+        <v>0.3424</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3454</v>
+        <v>0.3424</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3454</v>
+        <v>0.3424</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3454</v>
+        <v>0.3424</v>
       </c>
       <c r="F66" t="n">
-        <v>80299.7595</v>
+        <v>9620661</v>
       </c>
       <c r="G66" t="n">
-        <v>12426299.61650508</v>
+        <v>-11504046.86047893</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3061,7 +3149,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3078,22 +3166,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3429</v>
+        <v>0.3424</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3477</v>
+        <v>0.3424</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3477</v>
+        <v>0.3424</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3429</v>
+        <v>0.3424</v>
       </c>
       <c r="F67" t="n">
-        <v>47304123.5939</v>
+        <v>455488.1867</v>
       </c>
       <c r="G67" t="n">
-        <v>59730423.21040508</v>
+        <v>-11504046.86047893</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3103,7 +3191,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3120,22 +3208,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3462</v>
+        <v>0.3424</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3465</v>
+        <v>0.3446</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3465</v>
+        <v>0.3446</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3462</v>
+        <v>0.3424</v>
       </c>
       <c r="F68" t="n">
-        <v>17931887.1364</v>
+        <v>952427</v>
       </c>
       <c r="G68" t="n">
-        <v>41798536.07400508</v>
+        <v>-10551619.86047893</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3145,7 +3233,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3162,22 +3250,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3447</v>
+        <v>0.3409</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3447</v>
+        <v>0.3409</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3447</v>
+        <v>0.3409</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3447</v>
+        <v>0.3409</v>
       </c>
       <c r="F69" t="n">
-        <v>6441023.4639</v>
+        <v>3948.6173</v>
       </c>
       <c r="G69" t="n">
-        <v>35357512.61010508</v>
+        <v>-10555568.47777893</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3187,7 +3275,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3204,22 +3292,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3429</v>
+        <v>0.3448</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3429</v>
+        <v>0.3448</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3429</v>
+        <v>0.3448</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3429</v>
+        <v>0.3448</v>
       </c>
       <c r="F70" t="n">
-        <v>286421.154</v>
+        <v>101508.12064965</v>
       </c>
       <c r="G70" t="n">
-        <v>35071091.45610508</v>
+        <v>-10454060.35712928</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3229,7 +3317,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3246,22 +3334,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3416</v>
+        <v>0.3409</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3416</v>
+        <v>0.3409</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3416</v>
+        <v>0.3409</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3416</v>
+        <v>0.3409</v>
       </c>
       <c r="F71" t="n">
-        <v>3700.2845</v>
+        <v>421311.1243</v>
       </c>
       <c r="G71" t="n">
-        <v>35067391.17160508</v>
+        <v>-10875371.48142928</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3271,7 +3359,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3288,22 +3376,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3416</v>
+        <v>0.3409</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3416</v>
+        <v>0.3447</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3416</v>
+        <v>0.3447</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3416</v>
+        <v>0.3409</v>
       </c>
       <c r="F72" t="n">
-        <v>329993.6401</v>
+        <v>3355602.8683</v>
       </c>
       <c r="G72" t="n">
-        <v>35067391.17160508</v>
+        <v>-7519768.613129275</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3313,7 +3401,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3330,22 +3418,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3415</v>
+        <v>0.3445</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3415</v>
+        <v>0.3445</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3415</v>
+        <v>0.3445</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3415</v>
+        <v>0.3445</v>
       </c>
       <c r="F73" t="n">
-        <v>20614.6652</v>
+        <v>69555.1324</v>
       </c>
       <c r="G73" t="n">
-        <v>35046776.50640508</v>
+        <v>-7589323.745529275</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3355,7 +3443,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3372,22 +3460,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3415</v>
+        <v>0.3445</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3415</v>
+        <v>0.3445</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3415</v>
+        <v>0.3445</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3415</v>
+        <v>0.3445</v>
       </c>
       <c r="F74" t="n">
-        <v>218065</v>
+        <v>487629.6176</v>
       </c>
       <c r="G74" t="n">
-        <v>35046776.50640508</v>
+        <v>-7589323.745529275</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3397,7 +3485,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3414,22 +3502,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3423</v>
+        <v>0.3448</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3415</v>
+        <v>0.3448</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3423</v>
+        <v>0.3448</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3415</v>
+        <v>0.3448</v>
       </c>
       <c r="F75" t="n">
-        <v>2322637.4156</v>
+        <v>217881.1947</v>
       </c>
       <c r="G75" t="n">
-        <v>35046776.50640508</v>
+        <v>-7371442.550829276</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3439,7 +3527,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3456,22 +3544,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3451</v>
+        <v>0.3448</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3456</v>
+        <v>0.3448</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3456</v>
+        <v>0.3448</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3451</v>
+        <v>0.3448</v>
       </c>
       <c r="F76" t="n">
-        <v>600000</v>
+        <v>449023.0064</v>
       </c>
       <c r="G76" t="n">
-        <v>35646776.50640508</v>
+        <v>-7371442.550829276</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3481,7 +3569,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3498,22 +3586,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3422</v>
+        <v>0.3448</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3422</v>
+        <v>0.3448</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3422</v>
+        <v>0.3448</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3422</v>
+        <v>0.3448</v>
       </c>
       <c r="F77" t="n">
-        <v>1095089.8078</v>
+        <v>855218.9915</v>
       </c>
       <c r="G77" t="n">
-        <v>34551686.69860508</v>
+        <v>-7371442.550829276</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3523,7 +3611,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3540,22 +3628,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3423</v>
+        <v>0.3413</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3423</v>
+        <v>0.3448</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3423</v>
+        <v>0.3448</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3423</v>
+        <v>0.3413</v>
       </c>
       <c r="F78" t="n">
-        <v>7329.1639</v>
+        <v>659036.3865</v>
       </c>
       <c r="G78" t="n">
-        <v>34559015.86250508</v>
+        <v>-7371442.550829276</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3565,7 +3653,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3582,22 +3670,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3456</v>
+        <v>0.3413</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3456</v>
+        <v>0.3413</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3456</v>
+        <v>0.3413</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3456</v>
+        <v>0.3413</v>
       </c>
       <c r="F79" t="n">
-        <v>94833.43060000001</v>
+        <v>12915.3865</v>
       </c>
       <c r="G79" t="n">
-        <v>34653849.29310508</v>
+        <v>-7384357.937329276</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3607,7 +3695,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3624,22 +3712,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3456</v>
+        <v>0.3448</v>
       </c>
       <c r="C80" t="n">
-        <v>0.347</v>
+        <v>0.3448</v>
       </c>
       <c r="D80" t="n">
-        <v>0.347</v>
+        <v>0.3448</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3456</v>
+        <v>0.3448</v>
       </c>
       <c r="F80" t="n">
-        <v>13601193.4858</v>
+        <v>388622</v>
       </c>
       <c r="G80" t="n">
-        <v>48255042.77890508</v>
+        <v>-6995735.937329276</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3649,7 +3737,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3666,22 +3754,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3438</v>
+        <v>0.3448</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3438</v>
+        <v>0.3448</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3438</v>
+        <v>0.3448</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3438</v>
+        <v>0.3448</v>
       </c>
       <c r="F81" t="n">
-        <v>1465.2155</v>
+        <v>582357</v>
       </c>
       <c r="G81" t="n">
-        <v>48253577.56340508</v>
+        <v>-6995735.937329276</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3691,7 +3779,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3708,22 +3796,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3478</v>
+        <v>0.3448</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3478</v>
+        <v>0.3455</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3478</v>
+        <v>0.3455</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3478</v>
+        <v>0.3448</v>
       </c>
       <c r="F82" t="n">
-        <v>600000</v>
+        <v>2707090.245</v>
       </c>
       <c r="G82" t="n">
-        <v>48853577.56340508</v>
+        <v>-4288645.692329275</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3733,7 +3821,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3750,22 +3838,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3481</v>
+        <v>0.3455</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3481</v>
+        <v>0.3455</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3481</v>
+        <v>0.3455</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3481</v>
+        <v>0.3455</v>
       </c>
       <c r="F83" t="n">
-        <v>1465.0963</v>
+        <v>52987.5094</v>
       </c>
       <c r="G83" t="n">
-        <v>48855042.65970508</v>
+        <v>-4288645.692329275</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3775,7 +3863,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3792,22 +3880,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3453</v>
+        <v>0.3455</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3453</v>
+        <v>0.3458</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3453</v>
+        <v>0.3458</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3453</v>
+        <v>0.3455</v>
       </c>
       <c r="F84" t="n">
-        <v>1465.0963</v>
+        <v>286814.9226</v>
       </c>
       <c r="G84" t="n">
-        <v>48853577.56340508</v>
+        <v>-4001830.769729275</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3817,7 +3905,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3834,22 +3922,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3459</v>
+        <v>0.3458</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3455</v>
+        <v>0.348</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3459</v>
+        <v>0.348</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3455</v>
+        <v>0.3458</v>
       </c>
       <c r="F85" t="n">
-        <v>2706423.1383</v>
+        <v>1553337.1723</v>
       </c>
       <c r="G85" t="n">
-        <v>51560000.70170508</v>
+        <v>-2448493.597429276</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3859,7 +3947,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3876,22 +3964,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3481</v>
+        <v>0.348</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3481</v>
+        <v>0.3421</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3481</v>
+        <v>0.348</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3481</v>
+        <v>0.3421</v>
       </c>
       <c r="F86" t="n">
-        <v>3131753.638</v>
+        <v>3160.9196</v>
       </c>
       <c r="G86" t="n">
-        <v>54691754.33970508</v>
+        <v>-2451654.517029276</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3901,7 +3989,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3918,22 +4006,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.348</v>
+        <v>0.3431</v>
       </c>
       <c r="C87" t="n">
-        <v>0.348</v>
+        <v>0.3431</v>
       </c>
       <c r="D87" t="n">
-        <v>0.348</v>
+        <v>0.3431</v>
       </c>
       <c r="E87" t="n">
-        <v>0.348</v>
+        <v>0.3431</v>
       </c>
       <c r="F87" t="n">
-        <v>852337.7013</v>
+        <v>2862842.44</v>
       </c>
       <c r="G87" t="n">
-        <v>53839416.63840508</v>
+        <v>411187.9229707243</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3943,7 +4031,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3960,22 +4048,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3481</v>
+        <v>0.3466</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3481</v>
+        <v>0.3466</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3481</v>
+        <v>0.3466</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3481</v>
+        <v>0.3466</v>
       </c>
       <c r="F88" t="n">
-        <v>795391.5125</v>
+        <v>8567.609200000001</v>
       </c>
       <c r="G88" t="n">
-        <v>54634808.15090508</v>
+        <v>419755.5321707243</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3985,7 +4073,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4002,22 +4090,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3481</v>
+        <v>0.3449</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3481</v>
+        <v>0.3449</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3481</v>
+        <v>0.3449</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3481</v>
+        <v>0.3449</v>
       </c>
       <c r="F89" t="n">
-        <v>715308.3461</v>
+        <v>730230.998</v>
       </c>
       <c r="G89" t="n">
-        <v>54634808.15090508</v>
+        <v>-310475.4658292757</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4027,7 +4115,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4044,22 +4132,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3481</v>
+        <v>0.345</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3481</v>
+        <v>0.345</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3481</v>
+        <v>0.345</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3481</v>
+        <v>0.345</v>
       </c>
       <c r="F90" t="n">
-        <v>562960</v>
+        <v>41658.1444</v>
       </c>
       <c r="G90" t="n">
-        <v>54634808.15090508</v>
+        <v>-268817.3214292757</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4069,7 +4157,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4086,22 +4174,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3481</v>
+        <v>0.345</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3487</v>
+        <v>0.345</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3487</v>
+        <v>0.345</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3481</v>
+        <v>0.345</v>
       </c>
       <c r="F91" t="n">
-        <v>156711.4487</v>
+        <v>5000</v>
       </c>
       <c r="G91" t="n">
-        <v>54791519.59960508</v>
+        <v>-268817.3214292757</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4111,7 +4199,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4128,22 +4216,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3487</v>
+        <v>0.345</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3498</v>
+        <v>0.345</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3498</v>
+        <v>0.345</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3487</v>
+        <v>0.345</v>
       </c>
       <c r="F92" t="n">
-        <v>10173491.5609</v>
+        <v>874154.9905</v>
       </c>
       <c r="G92" t="n">
-        <v>64965011.16050509</v>
+        <v>-268817.3214292757</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4153,7 +4241,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4170,22 +4258,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3498</v>
+        <v>0.3411</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3498</v>
+        <v>0.3411</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3498</v>
+        <v>0.3411</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3455</v>
+        <v>0.3411</v>
       </c>
       <c r="F93" t="n">
-        <v>232399.952</v>
+        <v>145824.4216</v>
       </c>
       <c r="G93" t="n">
-        <v>64965011.16050509</v>
+        <v>-414641.7430292757</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4195,7 +4283,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4212,22 +4300,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3498</v>
+        <v>0.3411</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3455</v>
+        <v>0.3411</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3498</v>
+        <v>0.3411</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3455</v>
+        <v>0.3411</v>
       </c>
       <c r="F94" t="n">
-        <v>4348.8363</v>
+        <v>447139.2782</v>
       </c>
       <c r="G94" t="n">
-        <v>64960662.32420509</v>
+        <v>-414641.7430292757</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4237,7 +4325,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4254,22 +4342,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3455</v>
+        <v>0.3412</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3455</v>
+        <v>0.3452</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3455</v>
+        <v>0.3452</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3455</v>
+        <v>0.3412</v>
       </c>
       <c r="F95" t="n">
-        <v>570995.0218</v>
+        <v>322891.1372</v>
       </c>
       <c r="G95" t="n">
-        <v>64960662.32420509</v>
+        <v>-91750.60582927574</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4279,7 +4367,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4296,22 +4384,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3455</v>
+        <v>0.3452</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3455</v>
+        <v>0.341</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3455</v>
+        <v>0.3452</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3455</v>
+        <v>0.341</v>
       </c>
       <c r="F96" t="n">
-        <v>513895.5196</v>
+        <v>2954.809</v>
       </c>
       <c r="G96" t="n">
-        <v>64960662.32420509</v>
+        <v>-94705.41482927573</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4321,7 +4409,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4338,22 +4426,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3455</v>
+        <v>0.3452</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3455</v>
+        <v>0.3452</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3455</v>
+        <v>0.3452</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3455</v>
+        <v>0.3452</v>
       </c>
       <c r="F97" t="n">
-        <v>4625059.6773</v>
+        <v>235104.8343</v>
       </c>
       <c r="G97" t="n">
-        <v>64960662.32420509</v>
+        <v>140399.4194707242</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4363,7 +4451,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4380,22 +4468,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3455</v>
+        <v>0.3452</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3455</v>
+        <v>0.3454</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3455</v>
+        <v>0.3454</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3455</v>
+        <v>0.3452</v>
       </c>
       <c r="F98" t="n">
-        <v>549544.5453999999</v>
+        <v>769378.3223999999</v>
       </c>
       <c r="G98" t="n">
-        <v>64960662.32420509</v>
+        <v>909777.7418707241</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4405,7 +4493,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4422,22 +4510,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3493</v>
+        <v>0.3472</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3493</v>
+        <v>0.3472</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3493</v>
+        <v>0.3472</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3493</v>
+        <v>0.3472</v>
       </c>
       <c r="F99" t="n">
-        <v>28628.68594331</v>
+        <v>2322637.4156</v>
       </c>
       <c r="G99" t="n">
-        <v>64989291.0101484</v>
+        <v>3232415.157470724</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4447,7 +4535,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4464,22 +4552,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3455</v>
+        <v>0.3478</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3455</v>
+        <v>0.348</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3455</v>
+        <v>0.348</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3455</v>
+        <v>0.3478</v>
       </c>
       <c r="F100" t="n">
-        <v>1114289.9198</v>
+        <v>3161731.96703436</v>
       </c>
       <c r="G100" t="n">
-        <v>63875001.0903484</v>
+        <v>6394147.124505084</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4489,7 +4577,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4506,22 +4594,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3455</v>
+        <v>0.3411</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3455</v>
+        <v>0.3411</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3455</v>
+        <v>0.3411</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3455</v>
+        <v>0.3411</v>
       </c>
       <c r="F101" t="n">
-        <v>1114289.9199</v>
+        <v>1477.4045</v>
       </c>
       <c r="G101" t="n">
-        <v>63875001.0903484</v>
+        <v>6392669.720005084</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4531,7 +4619,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4548,22 +4636,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.3494</v>
+        <v>0.3416</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3494</v>
+        <v>0.348</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3494</v>
+        <v>0.348</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3494</v>
+        <v>0.341</v>
       </c>
       <c r="F102" t="n">
-        <v>20000</v>
+        <v>22001429.3883</v>
       </c>
       <c r="G102" t="n">
-        <v>63895001.0903484</v>
+        <v>28394099.10830509</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4573,7 +4661,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4590,22 +4678,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3496</v>
+        <v>0.3427</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3496</v>
+        <v>0.346</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3496</v>
+        <v>0.346</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3496</v>
+        <v>0.341</v>
       </c>
       <c r="F103" t="n">
-        <v>596708.1687</v>
+        <v>3001445.0868</v>
       </c>
       <c r="G103" t="n">
-        <v>64491709.2590484</v>
+        <v>25392654.02150508</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4615,7 +4703,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4632,22 +4720,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.35</v>
+        <v>0.3452</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3509</v>
+        <v>0.3452</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3509</v>
+        <v>0.3452</v>
       </c>
       <c r="E104" t="n">
-        <v>0.35</v>
+        <v>0.3452</v>
       </c>
       <c r="F104" t="n">
-        <v>499712.89049846</v>
+        <v>600000</v>
       </c>
       <c r="G104" t="n">
-        <v>64991422.14954686</v>
+        <v>24792654.02150508</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4657,7 +4745,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4674,22 +4762,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.351</v>
+        <v>0.346</v>
       </c>
       <c r="C105" t="n">
-        <v>0.351</v>
+        <v>0.346</v>
       </c>
       <c r="D105" t="n">
-        <v>0.351</v>
+        <v>0.346</v>
       </c>
       <c r="E105" t="n">
-        <v>0.351</v>
+        <v>0.346</v>
       </c>
       <c r="F105" t="n">
-        <v>88773</v>
+        <v>1888539.3355</v>
       </c>
       <c r="G105" t="n">
-        <v>65080195.14954686</v>
+        <v>26681193.35700508</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4699,7 +4787,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4716,22 +4804,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.35</v>
+        <v>0.3454</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3531</v>
+        <v>0.3454</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3531</v>
+        <v>0.3454</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3455</v>
+        <v>0.3454</v>
       </c>
       <c r="F106" t="n">
-        <v>885475.0598</v>
+        <v>14545046.5522</v>
       </c>
       <c r="G106" t="n">
-        <v>65965670.20934686</v>
+        <v>12136146.80480508</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4741,7 +4829,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4758,22 +4846,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3531</v>
+        <v>0.3454</v>
       </c>
       <c r="C107" t="n">
-        <v>0.354</v>
+        <v>0.3454</v>
       </c>
       <c r="D107" t="n">
-        <v>0.354</v>
+        <v>0.3454</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3531</v>
+        <v>0.3454</v>
       </c>
       <c r="F107" t="n">
-        <v>6856711.8061</v>
+        <v>2476128.016</v>
       </c>
       <c r="G107" t="n">
-        <v>72822382.01544686</v>
+        <v>12136146.80480508</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4783,7 +4871,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4800,22 +4888,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.354</v>
+        <v>0.3454</v>
       </c>
       <c r="C108" t="n">
-        <v>0.354</v>
+        <v>0.3454</v>
       </c>
       <c r="D108" t="n">
-        <v>0.354</v>
+        <v>0.3454</v>
       </c>
       <c r="E108" t="n">
-        <v>0.354</v>
+        <v>0.3454</v>
       </c>
       <c r="F108" t="n">
-        <v>243285.5865</v>
+        <v>2572842</v>
       </c>
       <c r="G108" t="n">
-        <v>72822382.01544686</v>
+        <v>12136146.80480508</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4825,7 +4913,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4842,22 +4930,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.355</v>
+        <v>0.3454</v>
       </c>
       <c r="C109" t="n">
-        <v>0.355</v>
+        <v>0.3454</v>
       </c>
       <c r="D109" t="n">
-        <v>0.355</v>
+        <v>0.3454</v>
       </c>
       <c r="E109" t="n">
-        <v>0.355</v>
+        <v>0.3454</v>
       </c>
       <c r="F109" t="n">
-        <v>17788</v>
+        <v>2942047.0634</v>
       </c>
       <c r="G109" t="n">
-        <v>72840170.01544686</v>
+        <v>12136146.80480508</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4867,7 +4955,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4884,22 +4972,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3545</v>
+        <v>0.3424</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3545</v>
+        <v>0.3454</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3545</v>
+        <v>0.3454</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3545</v>
+        <v>0.3424</v>
       </c>
       <c r="F110" t="n">
-        <v>15906.3941</v>
+        <v>1092208.9411</v>
       </c>
       <c r="G110" t="n">
-        <v>72824263.62134686</v>
+        <v>12136146.80480508</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4909,7 +4997,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4926,22 +5014,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3545</v>
+        <v>0.3454</v>
       </c>
       <c r="C111" t="n">
-        <v>0.351</v>
+        <v>0.3454</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3545</v>
+        <v>0.3454</v>
       </c>
       <c r="E111" t="n">
-        <v>0.351</v>
+        <v>0.3454</v>
       </c>
       <c r="F111" t="n">
-        <v>1003200</v>
+        <v>863459.2355</v>
       </c>
       <c r="G111" t="n">
-        <v>71821063.62134686</v>
+        <v>12136146.80480508</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4951,7 +5039,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4968,22 +5056,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.355</v>
+        <v>0.3424</v>
       </c>
       <c r="C112" t="n">
-        <v>0.355</v>
+        <v>0.3424</v>
       </c>
       <c r="D112" t="n">
-        <v>0.355</v>
+        <v>0.3424</v>
       </c>
       <c r="E112" t="n">
-        <v>0.355</v>
+        <v>0.3424</v>
       </c>
       <c r="F112" t="n">
-        <v>485212</v>
+        <v>10981.6384</v>
       </c>
       <c r="G112" t="n">
-        <v>72306275.62134686</v>
+        <v>12125165.16640508</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4993,7 +5081,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5010,22 +5098,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.351</v>
+        <v>0.3454</v>
       </c>
       <c r="C113" t="n">
-        <v>0.351</v>
+        <v>0.3454</v>
       </c>
       <c r="D113" t="n">
-        <v>0.351</v>
+        <v>0.3454</v>
       </c>
       <c r="E113" t="n">
-        <v>0.351</v>
+        <v>0.3454</v>
       </c>
       <c r="F113" t="n">
-        <v>3200</v>
+        <v>2665039</v>
       </c>
       <c r="G113" t="n">
-        <v>72303075.62134686</v>
+        <v>14790204.16640508</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5035,7 +5123,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5052,22 +5140,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3557</v>
+        <v>0.3454</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3557</v>
+        <v>0.3454</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3557</v>
+        <v>0.3454</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3557</v>
+        <v>0.3454</v>
       </c>
       <c r="F114" t="n">
-        <v>265661.2551</v>
+        <v>732267</v>
       </c>
       <c r="G114" t="n">
-        <v>72568736.87644686</v>
+        <v>14790204.16640508</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5077,7 +5165,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5094,22 +5182,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3563</v>
+        <v>0.3454</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3563</v>
+        <v>0.3454</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3564</v>
+        <v>0.3454</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3563</v>
+        <v>0.3454</v>
       </c>
       <c r="F115" t="n">
-        <v>3427752.1635</v>
+        <v>1421388.2083</v>
       </c>
       <c r="G115" t="n">
-        <v>75996489.03994685</v>
+        <v>14790204.16640508</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5119,7 +5207,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5136,22 +5224,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3564</v>
+        <v>0.3472</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3563</v>
+        <v>0.3472</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3569</v>
+        <v>0.3472</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3519</v>
+        <v>0.3472</v>
       </c>
       <c r="F116" t="n">
-        <v>8632296.337359</v>
+        <v>293991.0478</v>
       </c>
       <c r="G116" t="n">
-        <v>75996489.03994685</v>
+        <v>15084195.21420508</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5161,7 +5249,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5178,22 +5266,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3564</v>
+        <v>0.3472</v>
       </c>
       <c r="C117" t="n">
-        <v>0.358</v>
+        <v>0.3472</v>
       </c>
       <c r="D117" t="n">
-        <v>0.358</v>
+        <v>0.3472</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3525</v>
+        <v>0.3472</v>
       </c>
       <c r="F117" t="n">
-        <v>4819160.39931977</v>
+        <v>819637.9521</v>
       </c>
       <c r="G117" t="n">
-        <v>80815649.43926662</v>
+        <v>15084195.21420508</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5203,7 +5291,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5220,22 +5308,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3588</v>
+        <v>0.348</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3525</v>
+        <v>0.348</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3588</v>
+        <v>0.348</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3525</v>
+        <v>0.348</v>
       </c>
       <c r="F118" t="n">
-        <v>2842.8094</v>
+        <v>1200000</v>
       </c>
       <c r="G118" t="n">
-        <v>80812806.62986661</v>
+        <v>16284195.21420508</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5245,7 +5333,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5262,22 +5350,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3588</v>
+        <v>0.348</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3525</v>
+        <v>0.348</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3598</v>
+        <v>0.348</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3525</v>
+        <v>0.348</v>
       </c>
       <c r="F119" t="n">
-        <v>632819.4943</v>
+        <v>536744</v>
       </c>
       <c r="G119" t="n">
-        <v>80812806.62986661</v>
+        <v>16284195.21420508</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5287,7 +5375,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5304,22 +5392,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3535</v>
+        <v>0.3484</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3535</v>
+        <v>0.3487</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3535</v>
+        <v>0.3487</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3535</v>
+        <v>0.3484</v>
       </c>
       <c r="F120" t="n">
-        <v>2290189.2253</v>
+        <v>1200000</v>
       </c>
       <c r="G120" t="n">
-        <v>83102995.85516661</v>
+        <v>17484195.21420508</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5329,7 +5417,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5346,22 +5434,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3535</v>
+        <v>0.3487</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3535</v>
+        <v>0.3487</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3535</v>
+        <v>0.3487</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3535</v>
+        <v>0.3487</v>
       </c>
       <c r="F121" t="n">
-        <v>238282.6876</v>
+        <v>101005.5889</v>
       </c>
       <c r="G121" t="n">
-        <v>83102995.85516661</v>
+        <v>17484195.21420508</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5371,7 +5459,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5388,22 +5476,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3598</v>
+        <v>0.3486</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3598</v>
+        <v>0.3486</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3598</v>
+        <v>0.3486</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3598</v>
+        <v>0.3486</v>
       </c>
       <c r="F122" t="n">
-        <v>778339.5318999999</v>
+        <v>18375.7656</v>
       </c>
       <c r="G122" t="n">
-        <v>83881335.38706662</v>
+        <v>17465819.44860508</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5413,7 +5501,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5430,22 +5518,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3545</v>
+        <v>0.3468</v>
       </c>
       <c r="C123" t="n">
-        <v>0.355</v>
+        <v>0.3468</v>
       </c>
       <c r="D123" t="n">
-        <v>0.355</v>
+        <v>0.3468</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3545</v>
+        <v>0.3468</v>
       </c>
       <c r="F123" t="n">
-        <v>40000</v>
+        <v>5095355.8977</v>
       </c>
       <c r="G123" t="n">
-        <v>83841335.38706662</v>
+        <v>12370463.55090508</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5455,7 +5543,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5472,22 +5560,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.355</v>
+        <v>0.3468</v>
       </c>
       <c r="C124" t="n">
-        <v>0.355</v>
+        <v>0.3468</v>
       </c>
       <c r="D124" t="n">
-        <v>0.355</v>
+        <v>0.3468</v>
       </c>
       <c r="E124" t="n">
-        <v>0.355</v>
+        <v>0.3468</v>
       </c>
       <c r="F124" t="n">
-        <v>88554.3437</v>
+        <v>1551</v>
       </c>
       <c r="G124" t="n">
-        <v>83841335.38706662</v>
+        <v>12370463.55090508</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5497,7 +5585,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5514,22 +5602,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3537</v>
+        <v>0.3468</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3537</v>
+        <v>0.3468</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3537</v>
+        <v>0.3468</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3537</v>
+        <v>0.3468</v>
       </c>
       <c r="F125" t="n">
-        <v>3583725.4064</v>
+        <v>65371</v>
       </c>
       <c r="G125" t="n">
-        <v>80257609.98066662</v>
+        <v>12370463.55090508</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5539,7 +5627,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5556,22 +5644,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3597</v>
+        <v>0.346</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3597</v>
+        <v>0.346</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3597</v>
+        <v>0.346</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3597</v>
+        <v>0.346</v>
       </c>
       <c r="F126" t="n">
-        <v>600000</v>
+        <v>49729.3471</v>
       </c>
       <c r="G126" t="n">
-        <v>80857609.98066662</v>
+        <v>12320734.20380508</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5581,7 +5669,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5598,22 +5686,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3541</v>
+        <v>0.344</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3597</v>
+        <v>0.344</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3597</v>
+        <v>0.344</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3541</v>
+        <v>0.344</v>
       </c>
       <c r="F127" t="n">
-        <v>22704807.7567</v>
+        <v>50018.4857</v>
       </c>
       <c r="G127" t="n">
-        <v>80857609.98066662</v>
+        <v>12270715.71810508</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5623,7 +5711,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5640,22 +5728,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3597</v>
+        <v>0.3469</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3597</v>
+        <v>0.3424</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3597</v>
+        <v>0.3469</v>
       </c>
       <c r="E128" t="n">
-        <v>0.3597</v>
+        <v>0.3424</v>
       </c>
       <c r="F128" t="n">
-        <v>671345.1844</v>
+        <v>4385.7763</v>
       </c>
       <c r="G128" t="n">
-        <v>80857609.98066662</v>
+        <v>12266329.94180508</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5665,7 +5753,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5682,22 +5770,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3595</v>
+        <v>0.3429</v>
       </c>
       <c r="C129" t="n">
-        <v>0.3595</v>
+        <v>0.3429</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3595</v>
+        <v>0.3429</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3595</v>
+        <v>0.3429</v>
       </c>
       <c r="F129" t="n">
-        <v>4108.48400556</v>
+        <v>153600.0107</v>
       </c>
       <c r="G129" t="n">
-        <v>80853501.49666107</v>
+        <v>12419929.95250508</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5707,7 +5795,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5724,22 +5812,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3594</v>
+        <v>0.3471</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3594</v>
+        <v>0.3471</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3594</v>
+        <v>0.3471</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3594</v>
+        <v>0.3471</v>
       </c>
       <c r="F130" t="n">
-        <v>4246.1736</v>
+        <v>20000</v>
       </c>
       <c r="G130" t="n">
-        <v>80849255.32306106</v>
+        <v>12439929.95250508</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5749,7 +5837,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5766,22 +5854,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.355</v>
+        <v>0.3454</v>
       </c>
       <c r="C131" t="n">
-        <v>0.355</v>
+        <v>0.3454</v>
       </c>
       <c r="D131" t="n">
-        <v>0.355</v>
+        <v>0.3454</v>
       </c>
       <c r="E131" t="n">
-        <v>0.355</v>
+        <v>0.3454</v>
       </c>
       <c r="F131" t="n">
-        <v>1052523.0726</v>
+        <v>52692.53</v>
       </c>
       <c r="G131" t="n">
-        <v>79796732.25046106</v>
+        <v>12387237.42250508</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5791,7 +5879,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5808,22 +5896,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3538</v>
+        <v>0.3429</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3538</v>
+        <v>0.3429</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3538</v>
+        <v>0.3429</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3538</v>
+        <v>0.3429</v>
       </c>
       <c r="F132" t="n">
-        <v>15599905.706</v>
+        <v>18064.3413</v>
       </c>
       <c r="G132" t="n">
-        <v>64196826.54446106</v>
+        <v>12369173.08120508</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5833,7 +5921,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5850,22 +5938,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3538</v>
+        <v>0.3429</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3538</v>
+        <v>0.3429</v>
       </c>
       <c r="D133" t="n">
-        <v>0.3538</v>
+        <v>0.3429</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3538</v>
+        <v>0.3429</v>
       </c>
       <c r="F133" t="n">
-        <v>6448985.9105</v>
+        <v>19428.8</v>
       </c>
       <c r="G133" t="n">
-        <v>64196826.54446106</v>
+        <v>12369173.08120508</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5875,7 +5963,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5892,22 +5980,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3538</v>
+        <v>0.3454</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3538</v>
+        <v>0.3454</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3538</v>
+        <v>0.3454</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3536</v>
+        <v>0.3454</v>
       </c>
       <c r="F134" t="n">
-        <v>9787025.4146</v>
+        <v>57126.5353</v>
       </c>
       <c r="G134" t="n">
-        <v>64196826.54446106</v>
+        <v>12426299.61650508</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5917,7 +6005,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5934,22 +6022,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3538</v>
+        <v>0.3454</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3538</v>
+        <v>0.3454</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3538</v>
+        <v>0.3454</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3538</v>
+        <v>0.3429</v>
       </c>
       <c r="F135" t="n">
-        <v>10309893.1788</v>
+        <v>770374.5954</v>
       </c>
       <c r="G135" t="n">
-        <v>64196826.54446106</v>
+        <v>12426299.61650508</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5959,7 +6047,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5976,22 +6064,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.3538</v>
+        <v>0.3454</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3538</v>
+        <v>0.3454</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3538</v>
+        <v>0.3454</v>
       </c>
       <c r="E136" t="n">
-        <v>0.3538</v>
+        <v>0.3454</v>
       </c>
       <c r="F136" t="n">
-        <v>3877859.9702</v>
+        <v>2188434.0032</v>
       </c>
       <c r="G136" t="n">
-        <v>64196826.54446106</v>
+        <v>12426299.61650508</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -6001,7 +6089,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6018,22 +6106,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.3538</v>
+        <v>0.3454</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3538</v>
+        <v>0.3454</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3538</v>
+        <v>0.3454</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3538</v>
+        <v>0.3454</v>
       </c>
       <c r="F137" t="n">
-        <v>8666170.1042</v>
+        <v>80299.7595</v>
       </c>
       <c r="G137" t="n">
-        <v>64196826.54446106</v>
+        <v>12426299.61650508</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -6043,7 +6131,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6060,22 +6148,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3578</v>
+        <v>0.3429</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3578</v>
+        <v>0.3477</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3578</v>
+        <v>0.3477</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3578</v>
+        <v>0.3429</v>
       </c>
       <c r="F138" t="n">
-        <v>89799.6805</v>
+        <v>47304123.5939</v>
       </c>
       <c r="G138" t="n">
-        <v>64286626.22496106</v>
+        <v>59730423.21040508</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6085,7 +6173,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6102,22 +6190,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3578</v>
+        <v>0.3462</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3597</v>
+        <v>0.3465</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3597</v>
+        <v>0.3465</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3578</v>
+        <v>0.3462</v>
       </c>
       <c r="F139" t="n">
-        <v>4798738.5266</v>
+        <v>17931887.1364</v>
       </c>
       <c r="G139" t="n">
-        <v>69085364.75156106</v>
+        <v>41798536.07400508</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6127,7 +6215,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6144,22 +6232,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3578</v>
+        <v>0.3447</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3578</v>
+        <v>0.3447</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3578</v>
+        <v>0.3447</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3578</v>
+        <v>0.3447</v>
       </c>
       <c r="F140" t="n">
-        <v>255946.508</v>
+        <v>6441023.4639</v>
       </c>
       <c r="G140" t="n">
-        <v>68829418.24356106</v>
+        <v>35357512.61010508</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6169,7 +6257,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6186,22 +6274,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3578</v>
+        <v>0.3429</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3578</v>
+        <v>0.3429</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3578</v>
+        <v>0.3429</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3578</v>
+        <v>0.3429</v>
       </c>
       <c r="F141" t="n">
-        <v>408573.8427</v>
+        <v>286421.154</v>
       </c>
       <c r="G141" t="n">
-        <v>68829418.24356106</v>
+        <v>35071091.45610508</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6211,7 +6299,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6228,22 +6316,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3597</v>
+        <v>0.3416</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3597</v>
+        <v>0.3416</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3597</v>
+        <v>0.3416</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3597</v>
+        <v>0.3416</v>
       </c>
       <c r="F142" t="n">
-        <v>1832910</v>
+        <v>3700.2845</v>
       </c>
       <c r="G142" t="n">
-        <v>70662328.24356106</v>
+        <v>35067391.17160508</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6253,7 +6341,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6270,22 +6358,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.3597</v>
+        <v>0.3416</v>
       </c>
       <c r="C143" t="n">
-        <v>0.361</v>
+        <v>0.3416</v>
       </c>
       <c r="D143" t="n">
-        <v>0.361</v>
+        <v>0.3416</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3597</v>
+        <v>0.3416</v>
       </c>
       <c r="F143" t="n">
-        <v>23572610.9126</v>
+        <v>329993.6401</v>
       </c>
       <c r="G143" t="n">
-        <v>94234939.15616105</v>
+        <v>35067391.17160508</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6295,7 +6383,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6312,22 +6400,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3613</v>
+        <v>0.3415</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3613</v>
+        <v>0.3415</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3615</v>
+        <v>0.3415</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3613</v>
+        <v>0.3415</v>
       </c>
       <c r="F144" t="n">
-        <v>1007247.8315</v>
+        <v>20614.6652</v>
       </c>
       <c r="G144" t="n">
-        <v>95242186.98766105</v>
+        <v>35046776.50640508</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6337,7 +6425,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6354,22 +6442,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3613</v>
+        <v>0.3415</v>
       </c>
       <c r="C145" t="n">
-        <v>0.3537</v>
+        <v>0.3415</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3613</v>
+        <v>0.3415</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3537</v>
+        <v>0.3415</v>
       </c>
       <c r="F145" t="n">
-        <v>922357.0658</v>
+        <v>218065</v>
       </c>
       <c r="G145" t="n">
-        <v>94319829.92186105</v>
+        <v>35046776.50640508</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6379,7 +6467,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6396,22 +6484,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.3609</v>
+        <v>0.3423</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3619</v>
+        <v>0.3415</v>
       </c>
       <c r="D146" t="n">
-        <v>0.3619</v>
+        <v>0.3423</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3609</v>
+        <v>0.3415</v>
       </c>
       <c r="F146" t="n">
-        <v>6726181.9364</v>
+        <v>2322637.4156</v>
       </c>
       <c r="G146" t="n">
-        <v>101046011.858261</v>
+        <v>35046776.50640508</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6421,7 +6509,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6438,22 +6526,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.363</v>
+        <v>0.3451</v>
       </c>
       <c r="C147" t="n">
-        <v>0.363</v>
+        <v>0.3456</v>
       </c>
       <c r="D147" t="n">
-        <v>0.363</v>
+        <v>0.3456</v>
       </c>
       <c r="E147" t="n">
-        <v>0.363</v>
+        <v>0.3451</v>
       </c>
       <c r="F147" t="n">
-        <v>5655185.6172</v>
+        <v>600000</v>
       </c>
       <c r="G147" t="n">
-        <v>106701197.4754611</v>
+        <v>35646776.50640508</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6463,7 +6551,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6480,22 +6568,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.363</v>
+        <v>0.3422</v>
       </c>
       <c r="C148" t="n">
-        <v>0.363</v>
+        <v>0.3422</v>
       </c>
       <c r="D148" t="n">
-        <v>0.363</v>
+        <v>0.3422</v>
       </c>
       <c r="E148" t="n">
-        <v>0.363</v>
+        <v>0.3422</v>
       </c>
       <c r="F148" t="n">
-        <v>2388710.5982</v>
+        <v>1095089.8078</v>
       </c>
       <c r="G148" t="n">
-        <v>106701197.4754611</v>
+        <v>34551686.69860508</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6505,7 +6593,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6522,22 +6610,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.364</v>
+        <v>0.3423</v>
       </c>
       <c r="C149" t="n">
-        <v>0.364</v>
+        <v>0.3423</v>
       </c>
       <c r="D149" t="n">
-        <v>0.364</v>
+        <v>0.3423</v>
       </c>
       <c r="E149" t="n">
-        <v>0.364</v>
+        <v>0.3423</v>
       </c>
       <c r="F149" t="n">
-        <v>440424.1108</v>
+        <v>7329.1639</v>
       </c>
       <c r="G149" t="n">
-        <v>107141621.586261</v>
+        <v>34559015.86250508</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6547,7 +6635,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6564,22 +6652,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.364</v>
+        <v>0.3456</v>
       </c>
       <c r="C150" t="n">
-        <v>0.364</v>
+        <v>0.3456</v>
       </c>
       <c r="D150" t="n">
-        <v>0.364</v>
+        <v>0.3456</v>
       </c>
       <c r="E150" t="n">
-        <v>0.364</v>
+        <v>0.3456</v>
       </c>
       <c r="F150" t="n">
-        <v>1442470.1707</v>
+        <v>94833.43060000001</v>
       </c>
       <c r="G150" t="n">
-        <v>107141621.586261</v>
+        <v>34653849.29310508</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6589,7 +6677,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6606,76 +6694,80 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.364</v>
+        <v>0.3456</v>
       </c>
       <c r="C151" t="n">
-        <v>0.364</v>
+        <v>0.347</v>
       </c>
       <c r="D151" t="n">
-        <v>0.364</v>
+        <v>0.347</v>
       </c>
       <c r="E151" t="n">
-        <v>0.364</v>
+        <v>0.3456</v>
       </c>
       <c r="F151" t="n">
-        <v>1460517.9766</v>
+        <v>13601193.4858</v>
       </c>
       <c r="G151" t="n">
-        <v>107141621.586261</v>
+        <v>48255042.77890508</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>0.3411</v>
+        <v>0.3338</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>1.062135737320434</v>
-      </c>
-      <c r="N151" t="n">
-        <v>1.020228671943711</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.364</v>
+        <v>0.3438</v>
       </c>
       <c r="C152" t="n">
-        <v>0.364</v>
+        <v>0.3438</v>
       </c>
       <c r="D152" t="n">
-        <v>0.364</v>
+        <v>0.3438</v>
       </c>
       <c r="E152" t="n">
-        <v>0.364</v>
+        <v>0.3438</v>
       </c>
       <c r="F152" t="n">
-        <v>1272676.2352</v>
+        <v>1465.2155</v>
       </c>
       <c r="G152" t="n">
-        <v>107141621.586261</v>
+        <v>48253577.56340508</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6686,32 +6778,38 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.364</v>
+        <v>0.3478</v>
       </c>
       <c r="C153" t="n">
-        <v>0.363</v>
+        <v>0.3478</v>
       </c>
       <c r="D153" t="n">
-        <v>0.364</v>
+        <v>0.3478</v>
       </c>
       <c r="E153" t="n">
-        <v>0.363</v>
+        <v>0.3478</v>
       </c>
       <c r="F153" t="n">
-        <v>1421431.4078</v>
+        <v>600000</v>
       </c>
       <c r="G153" t="n">
-        <v>105720190.178461</v>
+        <v>48853577.56340508</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6722,32 +6820,38 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.364</v>
+        <v>0.3481</v>
       </c>
       <c r="C154" t="n">
-        <v>0.363</v>
+        <v>0.3481</v>
       </c>
       <c r="D154" t="n">
-        <v>0.364</v>
+        <v>0.3481</v>
       </c>
       <c r="E154" t="n">
-        <v>0.363</v>
+        <v>0.3481</v>
       </c>
       <c r="F154" t="n">
-        <v>5317514.328</v>
+        <v>1465.0963</v>
       </c>
       <c r="G154" t="n">
-        <v>105720190.178461</v>
+        <v>48855042.65970508</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6758,32 +6862,38 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.363</v>
+        <v>0.3453</v>
       </c>
       <c r="C155" t="n">
-        <v>0.363</v>
+        <v>0.3453</v>
       </c>
       <c r="D155" t="n">
-        <v>0.363</v>
+        <v>0.3453</v>
       </c>
       <c r="E155" t="n">
-        <v>0.363</v>
+        <v>0.3453</v>
       </c>
       <c r="F155" t="n">
-        <v>501395.4186</v>
+        <v>1465.0963</v>
       </c>
       <c r="G155" t="n">
-        <v>105720190.178461</v>
+        <v>48853577.56340508</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6794,32 +6904,38 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.361</v>
+        <v>0.3459</v>
       </c>
       <c r="C156" t="n">
-        <v>0.363</v>
+        <v>0.3455</v>
       </c>
       <c r="D156" t="n">
-        <v>0.363</v>
+        <v>0.3459</v>
       </c>
       <c r="E156" t="n">
-        <v>0.361</v>
+        <v>0.3455</v>
       </c>
       <c r="F156" t="n">
-        <v>2862819.6999</v>
+        <v>2706423.1383</v>
       </c>
       <c r="G156" t="n">
-        <v>105720190.178461</v>
+        <v>51560000.70170508</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6830,32 +6946,38 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.361</v>
+        <v>0.3481</v>
       </c>
       <c r="C157" t="n">
-        <v>0.361</v>
+        <v>0.3481</v>
       </c>
       <c r="D157" t="n">
-        <v>0.361</v>
+        <v>0.3481</v>
       </c>
       <c r="E157" t="n">
-        <v>0.361</v>
+        <v>0.3481</v>
       </c>
       <c r="F157" t="n">
-        <v>1549362.7487</v>
+        <v>3131753.638</v>
       </c>
       <c r="G157" t="n">
-        <v>104170827.4297611</v>
+        <v>54691754.33970508</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6866,32 +6988,38 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.361</v>
+        <v>0.348</v>
       </c>
       <c r="C158" t="n">
-        <v>0.361</v>
+        <v>0.348</v>
       </c>
       <c r="D158" t="n">
-        <v>0.361</v>
+        <v>0.348</v>
       </c>
       <c r="E158" t="n">
-        <v>0.361</v>
+        <v>0.348</v>
       </c>
       <c r="F158" t="n">
-        <v>1369398.709</v>
+        <v>852337.7013</v>
       </c>
       <c r="G158" t="n">
-        <v>104170827.4297611</v>
+        <v>53839416.63840508</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6902,32 +7030,38 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.3611</v>
+        <v>0.3481</v>
       </c>
       <c r="C159" t="n">
-        <v>0.3611</v>
+        <v>0.3481</v>
       </c>
       <c r="D159" t="n">
-        <v>0.3611</v>
+        <v>0.3481</v>
       </c>
       <c r="E159" t="n">
-        <v>0.3611</v>
+        <v>0.3481</v>
       </c>
       <c r="F159" t="n">
-        <v>1000000</v>
+        <v>795391.5125</v>
       </c>
       <c r="G159" t="n">
-        <v>105170827.4297611</v>
+        <v>54634808.15090508</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6938,32 +7072,38 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.3611</v>
+        <v>0.3481</v>
       </c>
       <c r="C160" t="n">
-        <v>0.36</v>
+        <v>0.3481</v>
       </c>
       <c r="D160" t="n">
-        <v>0.3611</v>
+        <v>0.3481</v>
       </c>
       <c r="E160" t="n">
-        <v>0.36</v>
+        <v>0.3481</v>
       </c>
       <c r="F160" t="n">
-        <v>1684958.3942</v>
+        <v>715308.3461</v>
       </c>
       <c r="G160" t="n">
-        <v>103485869.0355611</v>
+        <v>54634808.15090508</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6974,32 +7114,38 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.3611</v>
+        <v>0.3481</v>
       </c>
       <c r="C161" t="n">
-        <v>0.3611</v>
+        <v>0.3481</v>
       </c>
       <c r="D161" t="n">
-        <v>0.3611</v>
+        <v>0.3481</v>
       </c>
       <c r="E161" t="n">
-        <v>0.3611</v>
+        <v>0.3481</v>
       </c>
       <c r="F161" t="n">
-        <v>10858351.5538</v>
+        <v>562960</v>
       </c>
       <c r="G161" t="n">
-        <v>114344220.5893611</v>
+        <v>54634808.15090508</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7010,22 +7156,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.36</v>
+        <v>0.3481</v>
       </c>
       <c r="C162" t="n">
-        <v>0.36</v>
+        <v>0.3487</v>
       </c>
       <c r="D162" t="n">
-        <v>0.36</v>
+        <v>0.3487</v>
       </c>
       <c r="E162" t="n">
-        <v>0.36</v>
+        <v>0.3481</v>
       </c>
       <c r="F162" t="n">
-        <v>760000</v>
+        <v>156711.4487</v>
       </c>
       <c r="G162" t="n">
-        <v>113584220.5893611</v>
+        <v>54791519.59960508</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -7034,8 +7180,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7046,22 +7198,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.36</v>
+        <v>0.3487</v>
       </c>
       <c r="C163" t="n">
-        <v>0.36</v>
+        <v>0.3498</v>
       </c>
       <c r="D163" t="n">
-        <v>0.36</v>
+        <v>0.3498</v>
       </c>
       <c r="E163" t="n">
-        <v>0.36</v>
+        <v>0.3487</v>
       </c>
       <c r="F163" t="n">
-        <v>561167.2278</v>
+        <v>10173491.5609</v>
       </c>
       <c r="G163" t="n">
-        <v>113584220.5893611</v>
+        <v>64965011.16050509</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -7070,8 +7222,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7082,22 +7240,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.3571</v>
+        <v>0.3498</v>
       </c>
       <c r="C164" t="n">
-        <v>0.3571</v>
+        <v>0.3498</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3571</v>
+        <v>0.3498</v>
       </c>
       <c r="E164" t="n">
-        <v>0.3571</v>
+        <v>0.3455</v>
       </c>
       <c r="F164" t="n">
-        <v>235090.439</v>
+        <v>232399.952</v>
       </c>
       <c r="G164" t="n">
-        <v>113349130.1503611</v>
+        <v>64965011.16050509</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -7106,8 +7264,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7118,22 +7282,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.3573</v>
+        <v>0.3498</v>
       </c>
       <c r="C165" t="n">
-        <v>0.3573</v>
+        <v>0.3455</v>
       </c>
       <c r="D165" t="n">
-        <v>0.3573</v>
+        <v>0.3498</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3573</v>
+        <v>0.3455</v>
       </c>
       <c r="F165" t="n">
-        <v>39068.484</v>
+        <v>4348.8363</v>
       </c>
       <c r="G165" t="n">
-        <v>113388198.6343611</v>
+        <v>64960662.32420509</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -7142,8 +7306,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7154,22 +7324,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.3598</v>
+        <v>0.3455</v>
       </c>
       <c r="C166" t="n">
-        <v>0.3599</v>
+        <v>0.3455</v>
       </c>
       <c r="D166" t="n">
-        <v>0.3599</v>
+        <v>0.3455</v>
       </c>
       <c r="E166" t="n">
-        <v>0.3598</v>
+        <v>0.3455</v>
       </c>
       <c r="F166" t="n">
-        <v>173688.1064</v>
+        <v>570995.0218</v>
       </c>
       <c r="G166" t="n">
-        <v>113561886.7407611</v>
+        <v>64960662.32420509</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -7178,8 +7348,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7190,32 +7366,38 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.3599</v>
+        <v>0.3455</v>
       </c>
       <c r="C167" t="n">
-        <v>0.36</v>
+        <v>0.3455</v>
       </c>
       <c r="D167" t="n">
-        <v>0.36</v>
+        <v>0.3455</v>
       </c>
       <c r="E167" t="n">
-        <v>0.3599</v>
+        <v>0.3455</v>
       </c>
       <c r="F167" t="n">
-        <v>2085323.6261</v>
+        <v>513895.5196</v>
       </c>
       <c r="G167" t="n">
-        <v>115647210.3668611</v>
+        <v>64960662.32420509</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7226,32 +7408,38 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.3574</v>
+        <v>0.3455</v>
       </c>
       <c r="C168" t="n">
-        <v>0.3574</v>
+        <v>0.3455</v>
       </c>
       <c r="D168" t="n">
-        <v>0.3574</v>
+        <v>0.3455</v>
       </c>
       <c r="E168" t="n">
-        <v>0.3574</v>
+        <v>0.3455</v>
       </c>
       <c r="F168" t="n">
-        <v>68155.93919999999</v>
+        <v>4625059.6773</v>
       </c>
       <c r="G168" t="n">
-        <v>115579054.4276611</v>
+        <v>64960662.32420509</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7262,36 +7450,2750 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="F169" t="n">
+        <v>549544.5453999999</v>
+      </c>
+      <c r="G169" t="n">
+        <v>64960662.32420509</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="F170" t="n">
+        <v>28628.68594331</v>
+      </c>
+      <c r="G170" t="n">
+        <v>64989291.0101484</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1114289.9198</v>
+      </c>
+      <c r="G171" t="n">
+        <v>63875001.0903484</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1114289.9199</v>
+      </c>
+      <c r="G172" t="n">
+        <v>63875001.0903484</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="F173" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G173" t="n">
+        <v>63895001.0903484</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.3496</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.3496</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.3496</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.3496</v>
+      </c>
+      <c r="F174" t="n">
+        <v>596708.1687</v>
+      </c>
+      <c r="G174" t="n">
+        <v>64491709.2590484</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.3509</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.3509</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F175" t="n">
+        <v>499712.89049846</v>
+      </c>
+      <c r="G175" t="n">
+        <v>64991422.14954686</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="F176" t="n">
+        <v>88773</v>
+      </c>
+      <c r="G176" t="n">
+        <v>65080195.14954686</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.3531</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.3531</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="F177" t="n">
+        <v>885475.0598</v>
+      </c>
+      <c r="G177" t="n">
+        <v>65965670.20934686</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.3531</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.3531</v>
+      </c>
+      <c r="F178" t="n">
+        <v>6856711.8061</v>
+      </c>
+      <c r="G178" t="n">
+        <v>72822382.01544686</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="F179" t="n">
+        <v>243285.5865</v>
+      </c>
+      <c r="G179" t="n">
+        <v>72822382.01544686</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F180" t="n">
+        <v>17788</v>
+      </c>
+      <c r="G180" t="n">
+        <v>72840170.01544686</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="F181" t="n">
+        <v>15906.3941</v>
+      </c>
+      <c r="G181" t="n">
+        <v>72824263.62134686</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1003200</v>
+      </c>
+      <c r="G182" t="n">
+        <v>71821063.62134686</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F183" t="n">
+        <v>485212</v>
+      </c>
+      <c r="G183" t="n">
+        <v>72306275.62134686</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G184" t="n">
+        <v>72303075.62134686</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.3557</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.3557</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.3557</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.3557</v>
+      </c>
+      <c r="F185" t="n">
+        <v>265661.2551</v>
+      </c>
+      <c r="G185" t="n">
+        <v>72568736.87644686</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.3563</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.3563</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.3564</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.3563</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3427752.1635</v>
+      </c>
+      <c r="G186" t="n">
+        <v>75996489.03994685</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.3564</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.3563</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.3569</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.3519</v>
+      </c>
+      <c r="F187" t="n">
+        <v>8632296.337359</v>
+      </c>
+      <c r="G187" t="n">
+        <v>75996489.03994685</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.3564</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4819160.39931977</v>
+      </c>
+      <c r="G188" t="n">
+        <v>80815649.43926662</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2842.8094</v>
+      </c>
+      <c r="G189" t="n">
+        <v>80812806.62986661</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="F190" t="n">
+        <v>632819.4943</v>
+      </c>
+      <c r="G190" t="n">
+        <v>80812806.62986661</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2290189.2253</v>
+      </c>
+      <c r="G191" t="n">
+        <v>83102995.85516661</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="F192" t="n">
+        <v>238282.6876</v>
+      </c>
+      <c r="G192" t="n">
+        <v>83102995.85516661</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="F193" t="n">
+        <v>778339.5318999999</v>
+      </c>
+      <c r="G193" t="n">
+        <v>83881335.38706662</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="F194" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G194" t="n">
+        <v>83841335.38706662</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1.058511084481726</v>
+      </c>
+      <c r="N194" t="n">
+        <v>1.01168364289994</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F195" t="n">
+        <v>88554.3437</v>
+      </c>
+      <c r="G195" t="n">
+        <v>83841335.38706662</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="F196" t="n">
+        <v>3583725.4064</v>
+      </c>
+      <c r="G196" t="n">
+        <v>80257609.98066662</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="F197" t="n">
+        <v>600000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>80857609.98066662</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.3541</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.3541</v>
+      </c>
+      <c r="F198" t="n">
+        <v>22704807.7567</v>
+      </c>
+      <c r="G198" t="n">
+        <v>80857609.98066662</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="F199" t="n">
+        <v>671345.1844</v>
+      </c>
+      <c r="G199" t="n">
+        <v>80857609.98066662</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.3595</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.3595</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.3595</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.3595</v>
+      </c>
+      <c r="F200" t="n">
+        <v>4108.48400556</v>
+      </c>
+      <c r="G200" t="n">
+        <v>80853501.49666107</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.3594</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.3594</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.3594</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.3594</v>
+      </c>
+      <c r="F201" t="n">
+        <v>4246.1736</v>
+      </c>
+      <c r="G201" t="n">
+        <v>80849255.32306106</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1052523.0726</v>
+      </c>
+      <c r="G202" t="n">
+        <v>79796732.25046106</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="F203" t="n">
+        <v>15599905.706</v>
+      </c>
+      <c r="G203" t="n">
+        <v>64196826.54446106</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="F204" t="n">
+        <v>6448985.9105</v>
+      </c>
+      <c r="G204" t="n">
+        <v>64196826.54446106</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.3536</v>
+      </c>
+      <c r="F205" t="n">
+        <v>9787025.4146</v>
+      </c>
+      <c r="G205" t="n">
+        <v>64196826.54446106</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="F206" t="n">
+        <v>10309893.1788</v>
+      </c>
+      <c r="G206" t="n">
+        <v>64196826.54446106</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3877859.9702</v>
+      </c>
+      <c r="G207" t="n">
+        <v>64196826.54446106</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="F208" t="n">
+        <v>8666170.1042</v>
+      </c>
+      <c r="G208" t="n">
+        <v>64196826.54446106</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="F209" t="n">
+        <v>89799.6805</v>
+      </c>
+      <c r="G209" t="n">
+        <v>64286626.22496106</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="F210" t="n">
+        <v>4798738.5266</v>
+      </c>
+      <c r="G210" t="n">
+        <v>69085364.75156106</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="F211" t="n">
+        <v>255946.508</v>
+      </c>
+      <c r="G211" t="n">
+        <v>68829418.24356106</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="F212" t="n">
+        <v>408573.8427</v>
+      </c>
+      <c r="G212" t="n">
+        <v>68829418.24356106</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1832910</v>
+      </c>
+      <c r="G213" t="n">
+        <v>70662328.24356106</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="F214" t="n">
+        <v>23572610.9126</v>
+      </c>
+      <c r="G214" t="n">
+        <v>94234939.15616105</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.3613</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.3613</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.3615</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.3613</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1007247.8315</v>
+      </c>
+      <c r="G215" t="n">
+        <v>95242186.98766105</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.3613</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.3613</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="F216" t="n">
+        <v>922357.0658</v>
+      </c>
+      <c r="G216" t="n">
+        <v>94319829.92186105</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.3609</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.3619</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.3619</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.3609</v>
+      </c>
+      <c r="F217" t="n">
+        <v>6726181.9364</v>
+      </c>
+      <c r="G217" t="n">
+        <v>101046011.858261</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="F218" t="n">
+        <v>5655185.6172</v>
+      </c>
+      <c r="G218" t="n">
+        <v>106701197.4754611</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2388710.5982</v>
+      </c>
+      <c r="G219" t="n">
+        <v>106701197.4754611</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="F220" t="n">
+        <v>440424.1108</v>
+      </c>
+      <c r="G220" t="n">
+        <v>107141621.586261</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1442470.1707</v>
+      </c>
+      <c r="G221" t="n">
+        <v>107141621.586261</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1460517.9766</v>
+      </c>
+      <c r="G222" t="n">
+        <v>107141621.586261</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1272676.2352</v>
+      </c>
+      <c r="G223" t="n">
+        <v>107141621.586261</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1421431.4078</v>
+      </c>
+      <c r="G224" t="n">
+        <v>105720190.178461</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="F225" t="n">
+        <v>5317514.328</v>
+      </c>
+      <c r="G225" t="n">
+        <v>105720190.178461</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="F226" t="n">
+        <v>501395.4186</v>
+      </c>
+      <c r="G226" t="n">
+        <v>105720190.178461</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="F227" t="n">
+        <v>2862819.6999</v>
+      </c>
+      <c r="G227" t="n">
+        <v>105720190.178461</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1549362.7487</v>
+      </c>
+      <c r="G228" t="n">
+        <v>104170827.4297611</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1369398.709</v>
+      </c>
+      <c r="G229" t="n">
+        <v>104170827.4297611</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G230" t="n">
+        <v>105170827.4297611</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1684958.3942</v>
+      </c>
+      <c r="G231" t="n">
+        <v>103485869.0355611</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="F232" t="n">
+        <v>10858351.5538</v>
+      </c>
+      <c r="G232" t="n">
+        <v>114344220.5893611</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F233" t="n">
+        <v>760000</v>
+      </c>
+      <c r="G233" t="n">
+        <v>113584220.5893611</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F234" t="n">
+        <v>561167.2278</v>
+      </c>
+      <c r="G234" t="n">
+        <v>113584220.5893611</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.3571</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.3571</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.3571</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.3571</v>
+      </c>
+      <c r="F235" t="n">
+        <v>235090.439</v>
+      </c>
+      <c r="G235" t="n">
+        <v>113349130.1503611</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="F236" t="n">
+        <v>39068.484</v>
+      </c>
+      <c r="G236" t="n">
+        <v>113388198.6343611</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="F237" t="n">
+        <v>173688.1064</v>
+      </c>
+      <c r="G237" t="n">
+        <v>113561886.7407611</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2085323.6261</v>
+      </c>
+      <c r="G238" t="n">
+        <v>115647210.3668611</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="F239" t="n">
+        <v>68155.93919999999</v>
+      </c>
+      <c r="G239" t="n">
+        <v>115579054.4276611</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
         <v>0.362</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C240" t="n">
         <v>0.3621</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D240" t="n">
         <v>0.3621</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E240" t="n">
         <v>0.362</v>
       </c>
-      <c r="F169" t="n">
+      <c r="F240" t="n">
         <v>223399.2483</v>
       </c>
-      <c r="G169" t="n">
+      <c r="G240" t="n">
         <v>115802453.6759611</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest BTT.xlsx
+++ b/BackTest/2020-01-13 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N240"/>
+  <dimension ref="A1:M240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-26409571.96025185</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-25362566.45765185</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.3338</v>
       </c>
       <c r="J3" t="n">
         <v>0.3338</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-25257817.30707892</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.335</v>
       </c>
       <c r="J4" t="n">
-        <v>0.335</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>0.3338</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-25320807.81937892</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.3377</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3377</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>0.3338</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>-20973092.57287892</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.3324</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3324</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0.3338</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,24 +644,23 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0.3396</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,22 +687,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -750,22 +726,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,22 +765,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -834,22 +804,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -876,22 +843,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -918,22 +882,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -960,22 +921,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1002,22 +960,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1044,22 +999,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1086,22 +1038,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1128,22 +1077,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1170,22 +1116,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1212,22 +1155,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1254,22 +1194,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1296,22 +1233,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1338,22 +1272,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1380,22 +1311,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1422,22 +1350,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1464,22 +1389,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1506,22 +1428,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1548,22 +1467,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1590,22 +1506,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1632,22 +1545,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1674,22 +1584,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1716,22 +1623,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1758,22 +1662,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1800,22 +1701,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1842,22 +1740,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1884,22 +1779,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1926,22 +1818,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1968,22 +1857,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2010,22 +1896,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2052,22 +1935,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2094,22 +1974,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2136,22 +2013,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2178,22 +2052,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2220,22 +2091,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2260,24 +2128,21 @@
         <v>-11971769.77047893</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2304,22 +2169,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2346,22 +2208,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2388,22 +2247,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2430,22 +2286,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2472,22 +2325,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2514,22 +2364,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2556,22 +2403,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2598,22 +2442,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2640,22 +2481,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2682,22 +2520,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2724,22 +2559,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2766,22 +2598,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2808,22 +2637,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2850,22 +2676,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2892,22 +2715,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2934,22 +2754,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2976,22 +2793,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3018,22 +2832,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3060,22 +2871,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3102,22 +2910,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3144,22 +2949,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3186,22 +2988,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3228,22 +3027,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3270,22 +3066,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3312,22 +3105,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3354,22 +3144,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3396,22 +3183,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3438,22 +3222,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3480,22 +3261,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3522,22 +3300,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3564,22 +3339,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3606,22 +3378,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3648,22 +3417,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3690,22 +3456,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3732,22 +3495,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3774,22 +3534,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3816,22 +3573,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3858,22 +3612,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3900,22 +3651,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3942,22 +3690,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3984,22 +3729,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4026,22 +3768,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4068,22 +3807,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4110,22 +3846,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4152,22 +3885,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4194,22 +3924,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4236,22 +3963,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4278,22 +4002,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4320,22 +4041,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4362,22 +4080,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4404,22 +4119,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4446,22 +4158,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4488,22 +4197,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4530,22 +4236,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4572,22 +4275,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4614,22 +4314,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4656,22 +4353,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4698,22 +4392,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4740,22 +4431,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4782,22 +4470,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4824,22 +4509,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4866,22 +4548,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4908,22 +4587,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4950,22 +4626,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4992,22 +4665,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5034,22 +4704,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5076,22 +4743,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5118,22 +4782,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5160,22 +4821,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5202,22 +4860,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5244,22 +4899,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5286,22 +4938,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5328,22 +4977,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5370,22 +5016,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5412,22 +5055,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5454,22 +5094,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5496,22 +5133,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5538,22 +5172,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5580,22 +5211,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5622,22 +5250,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5664,22 +5289,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5706,22 +5328,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5748,22 +5367,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5790,22 +5406,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5832,22 +5445,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5874,22 +5484,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5916,22 +5523,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5958,22 +5562,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6000,22 +5601,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6042,22 +5640,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6084,22 +5679,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6126,22 +5718,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6168,22 +5757,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6210,22 +5796,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6252,22 +5835,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6294,22 +5874,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6336,22 +5913,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6378,22 +5952,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6420,22 +5991,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6462,22 +6030,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6504,22 +6069,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6546,22 +6108,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6588,22 +6147,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6630,22 +6186,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6672,22 +6225,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6714,22 +6264,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6756,22 +6303,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6798,22 +6342,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6840,22 +6381,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6882,22 +6420,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6924,22 +6459,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6966,22 +6498,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7008,22 +6537,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7050,22 +6576,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7092,22 +6615,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7134,22 +6654,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7176,22 +6693,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7218,22 +6732,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7260,22 +6771,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7302,22 +6810,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7344,22 +6849,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7386,22 +6888,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7428,22 +6927,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7470,22 +6966,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7512,22 +7005,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7552,24 +7042,21 @@
         <v>63875001.0903484</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7596,22 +7083,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7638,22 +7122,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7680,22 +7161,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7722,22 +7200,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7764,22 +7239,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7806,22 +7278,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7848,22 +7317,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7890,22 +7356,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7932,22 +7395,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7974,22 +7434,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8016,22 +7473,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8058,22 +7512,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8098,24 +7549,21 @@
         <v>72303075.62134686</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1.046527860994608</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8140,24 +7588,15 @@
         <v>72568736.87644686</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8182,24 +7621,15 @@
         <v>75996489.03994685</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8226,22 +7656,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8268,22 +7689,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8310,22 +7722,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8352,22 +7755,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8394,22 +7788,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8436,22 +7821,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8478,22 +7854,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8518,26 +7885,15 @@
         <v>83841335.38706662</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1.058511084481726</v>
-      </c>
-      <c r="N194" t="n">
-        <v>1.01168364289994</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8562,18 +7918,15 @@
         <v>83841335.38706662</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8598,18 +7951,15 @@
         <v>80257609.98066662</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8634,18 +7984,15 @@
         <v>80857609.98066662</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8670,18 +8017,15 @@
         <v>80857609.98066662</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8706,18 +8050,15 @@
         <v>80857609.98066662</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8742,18 +8083,15 @@
         <v>80853501.49666107</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8778,18 +8116,15 @@
         <v>80849255.32306106</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8814,18 +8149,15 @@
         <v>79796732.25046106</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8850,18 +8182,15 @@
         <v>64196826.54446106</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8888,16 +8217,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8922,18 +8248,15 @@
         <v>64196826.54446106</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8960,16 +8283,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8996,16 +8316,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -9030,18 +8347,15 @@
         <v>64196826.54446106</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -9068,16 +8382,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9102,18 +8413,15 @@
         <v>69085364.75156106</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9138,18 +8446,15 @@
         <v>68829418.24356106</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9174,18 +8479,15 @@
         <v>68829418.24356106</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9212,16 +8514,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9248,16 +8547,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9284,16 +8580,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>1</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9320,16 +8613,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9356,16 +8646,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9392,16 +8679,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9426,18 +8710,15 @@
         <v>106701197.4754611</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9464,16 +8745,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9498,18 +8776,15 @@
         <v>107141621.586261</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9536,16 +8811,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9570,18 +8842,15 @@
         <v>107141621.586261</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9608,16 +8877,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9644,16 +8910,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9680,16 +8943,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9716,16 +8976,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9752,16 +9009,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9788,16 +9042,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9824,16 +9075,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9860,16 +9108,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9894,18 +9139,15 @@
         <v>114344220.5893611</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9930,18 +9172,15 @@
         <v>113584220.5893611</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9966,18 +9205,15 @@
         <v>113584220.5893611</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -10002,18 +9238,15 @@
         <v>113349130.1503611</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -10038,18 +9271,15 @@
         <v>113388198.6343611</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -10074,18 +9304,15 @@
         <v>113561886.7407611</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -10112,16 +9339,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10148,16 +9372,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10182,20 +9403,17 @@
         <v>115802453.6759611</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest BTT.xlsx
+++ b/BackTest/2020-01-13 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-26409571.96025185</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-25362566.45765185</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0.3338</v>
@@ -521,7 +521,7 @@
         <v>-25257817.30707892</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0.335</v>
@@ -562,7 +562,7 @@
         <v>-25320807.81937892</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0.3377</v>
@@ -603,7 +603,7 @@
         <v>-20973092.57287892</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0.3324</v>
@@ -644,11 +644,9 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.3396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>0.3338</v>
       </c>
@@ -2128,7 +2126,7 @@
         <v>-11971769.77047893</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
@@ -7042,7 +7040,7 @@
         <v>63875001.0903484</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
@@ -7549,7 +7547,7 @@
         <v>72303075.62134686</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
@@ -7557,11 +7555,11 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1.046527860994608</v>
+        <v>1</v>
       </c>
       <c r="M184" t="inlineStr"/>
     </row>
@@ -7588,11 +7586,17 @@
         <v>72568736.87644686</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7621,11 +7625,17 @@
         <v>75996489.03994685</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7657,8 +7667,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7690,8 +7706,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7723,8 +7745,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7756,8 +7784,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7789,8 +7823,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7822,8 +7862,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7855,8 +7901,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7885,11 +7937,17 @@
         <v>83841335.38706662</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7918,11 +7976,17 @@
         <v>83841335.38706662</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7951,11 +8015,17 @@
         <v>80257609.98066662</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7984,11 +8054,17 @@
         <v>80857609.98066662</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8017,11 +8093,17 @@
         <v>80857609.98066662</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8050,11 +8132,17 @@
         <v>80857609.98066662</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8083,11 +8171,17 @@
         <v>80853501.49666107</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8116,11 +8210,17 @@
         <v>80849255.32306106</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8149,11 +8249,17 @@
         <v>79796732.25046106</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8182,11 +8288,17 @@
         <v>64196826.54446106</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8218,8 +8330,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8248,11 +8366,17 @@
         <v>64196826.54446106</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8284,8 +8408,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8317,8 +8447,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8347,11 +8483,17 @@
         <v>64196826.54446106</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8383,8 +8525,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8413,11 +8561,17 @@
         <v>69085364.75156106</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8446,11 +8600,17 @@
         <v>68829418.24356106</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8479,11 +8639,17 @@
         <v>68829418.24356106</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8515,8 +8681,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8548,8 +8720,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8581,8 +8759,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8614,8 +8798,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8647,8 +8837,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8680,8 +8876,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8710,11 +8912,17 @@
         <v>106701197.4754611</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8746,8 +8954,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8776,11 +8990,17 @@
         <v>107141621.586261</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8812,8 +9032,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8842,11 +9068,17 @@
         <v>107141621.586261</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8878,8 +9110,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8911,8 +9149,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8944,8 +9188,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8977,8 +9227,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9010,8 +9266,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9043,8 +9305,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9076,8 +9344,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9109,8 +9383,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9139,11 +9419,17 @@
         <v>114344220.5893611</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9172,11 +9458,17 @@
         <v>113584220.5893611</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9205,11 +9497,17 @@
         <v>113584220.5893611</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9238,15 +9536,23 @@
         <v>113349130.1503611</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>1.064802276812463</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1.01168364289994</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9271,7 +9577,7 @@
         <v>113388198.6343611</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9304,7 +9610,7 @@
         <v>113561886.7407611</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9337,7 +9643,7 @@
         <v>115647210.3668611</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9370,7 +9676,7 @@
         <v>115579054.4276611</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9403,7 +9709,7 @@
         <v>115802453.6759611</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9414,6 +9720,6 @@
       <c r="M240" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest BTT.xlsx
+++ b/BackTest/2020-01-13 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-26409571.96025185</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-25362566.45765185</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.3338</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,2402 +517,2092 @@
         <v>-25257817.30707892</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.335</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3377</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3377</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="F5" t="n">
+        <v>62990.5123</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-25320807.81937892</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3396</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3396</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4347715.2465</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-20973092.57287892</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5558</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-20967534.57287892</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F8" t="n">
+        <v>126083</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-20967534.57287892</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F9" t="n">
+        <v>352175</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-20967534.57287892</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F10" t="n">
+        <v>725805</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-20967534.57287892</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F11" t="n">
+        <v>182448.1635</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-20967534.57287892</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F12" t="n">
+        <v>161409.7174</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-20967534.57287892</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F13" t="n">
+        <v>75271.08779999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-20967534.57287892</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F14" t="n">
+        <v>256599.3265</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-20710935.24637892</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="F15" t="n">
+        <v>385919.8947</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-20710935.24637892</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2637245.1511</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-20710935.24637892</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="F17" t="n">
+        <v>102720.7561</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-20710935.24637892</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="F18" t="n">
+        <v>58059.4518</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-20710935.24637892</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="F19" t="n">
+        <v>232241.8271</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-20710935.24637892</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="F20" t="n">
+        <v>353088.7089</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-20710935.24637892</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1175639.366</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-20710935.24637892</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="F22" t="n">
+        <v>549838.7675</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-20710935.24637892</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="F23" t="n">
+        <v>345465</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-20710935.24637892</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F24" t="n">
+        <v>90971.68610000001</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-20619963.56027893</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F25" t="n">
+        <v>96774</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-20619963.56027893</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F26" t="n">
+        <v>308135</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-20619963.56027893</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F27" t="n">
+        <v>177258.3856</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-20619963.56027893</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F28" t="n">
+        <v>96774</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-20619963.56027893</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2862842.44</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-20619963.56027893</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F30" t="n">
+        <v>200704.5844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-20619963.56027893</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F31" t="n">
+        <v>733261.6417</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-20619963.56027893</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F32" t="n">
+        <v>526383</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-20619963.56027893</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F33" t="n">
+        <v>947957</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-20619963.56027893</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1195443</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-20619963.56027893</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1006455</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-20619963.56027893</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3429</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.3429</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3743343.3974</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-16876620.16287893</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="F37" t="n">
+        <v>210009.7155</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-16666610.44737893</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4897000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-11769610.44737893</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1892.7463</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-11769610.44737893</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F40" t="n">
+        <v>468085.14211739</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-11769610.44737893</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8405.797101439999</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-11769610.44737893</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F42" t="n">
+        <v>791246.0587000001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-11769610.44737893</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F43" t="n">
+        <v>16253.887</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-11769610.44737893</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5487.2384</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-11769610.44737893</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.3401</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.3401</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.3401</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.3401</v>
+      </c>
+      <c r="F45" t="n">
+        <v>202159.3231</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-11971769.77047893</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.3429</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.3429</v>
+      </c>
+      <c r="F46" t="n">
+        <v>374374</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-11597395.77047893</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.3429</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.3429</v>
+      </c>
+      <c r="F47" t="n">
+        <v>44116.9565</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-11553278.81397893</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.3403</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.3403</v>
+      </c>
+      <c r="F48" t="n">
+        <v>505604.5063</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-11553278.81397893</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="F49" t="n">
+        <v>58163.6288</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-11553278.81397893</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1481.7184</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-11553278.81397893</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="F51" t="n">
+        <v>13097.9839</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-11553278.81397893</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="F52" t="n">
+        <v>75800</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-11553278.81397893</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.3428</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.3428</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.3428</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.3428</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3948.6173</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-11557227.43127893</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="F54" t="n">
+        <v>97808.26089999999</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-11655035.69217893</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1544465.7987</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-11655035.69217893</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="F56" t="n">
+        <v>868505</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-11655035.69217893</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7084671</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-11655035.69217893</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.3377</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3324</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3377</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3324</v>
-      </c>
-      <c r="F5" t="n">
-        <v>62990.5123</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-25320807.81937892</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.3377</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1112329</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-11655035.69217893</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="F59" t="n">
+        <v>905046</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-11655035.69217893</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1058524.4131</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-11655035.69217893</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="F61" t="n">
+        <v>137146.9187</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-11655035.69217893</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.3409</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.3409</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.3409</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.3409</v>
+      </c>
+      <c r="F62" t="n">
+        <v>335286.7241</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-11990322.41627893</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="F63" t="n">
+        <v>53918.3819</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-11936404.03437893</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.3409</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="F64" t="n">
+        <v>75901</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-11936404.03437893</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="F65" t="n">
+        <v>432357.1739</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-11504046.86047893</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.3324</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3396</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3396</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3324</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4347715.2465</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-20973092.57287892</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.3324</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5558</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-20967534.57287892</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F8" t="n">
-        <v>126083</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-20967534.57287892</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F9" t="n">
-        <v>352175</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-20967534.57287892</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F10" t="n">
-        <v>725805</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-20967534.57287892</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F11" t="n">
-        <v>182448.1635</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-20967534.57287892</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F12" t="n">
-        <v>161409.7174</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-20967534.57287892</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F13" t="n">
-        <v>75271.08779999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-20967534.57287892</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F14" t="n">
-        <v>256599.3265</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="F15" t="n">
-        <v>385919.8947</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2637245.1511</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="F17" t="n">
-        <v>102720.7561</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="F18" t="n">
-        <v>58059.4518</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="F19" t="n">
-        <v>232241.8271</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="F20" t="n">
-        <v>353088.7089</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1175639.366</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="F22" t="n">
-        <v>549838.7675</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="F23" t="n">
-        <v>345465</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="F24" t="n">
-        <v>90971.68610000001</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="F25" t="n">
-        <v>96774</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="F26" t="n">
-        <v>308135</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="F27" t="n">
-        <v>177258.3856</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="F28" t="n">
-        <v>96774</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2862842.44</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="F30" t="n">
-        <v>200704.5844</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="F31" t="n">
-        <v>733261.6417</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="F32" t="n">
-        <v>526383</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="F33" t="n">
-        <v>947957</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1195443</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1006455</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.3429</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.3429</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="F36" t="n">
-        <v>3743343.3974</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-16876620.16287893</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="F37" t="n">
-        <v>210009.7155</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-16666610.44737893</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="F38" t="n">
-        <v>4897000</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-11769610.44737893</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1892.7463</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-11769610.44737893</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="F40" t="n">
-        <v>468085.14211739</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-11769610.44737893</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="F41" t="n">
-        <v>8405.797101439999</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-11769610.44737893</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="F42" t="n">
-        <v>791246.0587000001</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-11769610.44737893</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="F43" t="n">
-        <v>16253.887</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-11769610.44737893</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="F44" t="n">
-        <v>5487.2384</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-11769610.44737893</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.3401</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.3401</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.3401</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.3401</v>
-      </c>
-      <c r="F45" t="n">
-        <v>202159.3231</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-11971769.77047893</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.3429</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.3429</v>
-      </c>
-      <c r="F46" t="n">
-        <v>374374</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-11597395.77047893</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.3429</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.3429</v>
-      </c>
-      <c r="F47" t="n">
-        <v>44116.9565</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-11553278.81397893</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.3403</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.3403</v>
-      </c>
-      <c r="F48" t="n">
-        <v>505604.5063</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-11553278.81397893</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="F49" t="n">
-        <v>58163.6288</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-11553278.81397893</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1481.7184</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-11553278.81397893</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="F51" t="n">
-        <v>13097.9839</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-11553278.81397893</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="F52" t="n">
-        <v>75800</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-11553278.81397893</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.3428</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.3428</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.3428</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.3428</v>
-      </c>
-      <c r="F53" t="n">
-        <v>3948.6173</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-11557227.43127893</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="F54" t="n">
-        <v>97808.26089999999</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-11655035.69217893</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1544465.7987</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-11655035.69217893</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="F56" t="n">
-        <v>868505</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-11655035.69217893</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="F57" t="n">
-        <v>7084671</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-11655035.69217893</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1112329</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-11655035.69217893</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="F59" t="n">
-        <v>905046</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-11655035.69217893</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1058524.4131</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-11655035.69217893</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="F61" t="n">
-        <v>137146.9187</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-11655035.69217893</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.3409</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.3409</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.3409</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.3409</v>
-      </c>
-      <c r="F62" t="n">
-        <v>335286.7241</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-11990322.41627893</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="F63" t="n">
-        <v>53918.3819</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-11936404.03437893</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="F64" t="n">
-        <v>75901</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-11936404.03437893</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="F65" t="n">
-        <v>432357.1739</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-11504046.86047893</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2945,11 +2631,13 @@
         <v>-11504046.86047893</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.3424</v>
+      </c>
       <c r="J66" t="n">
-        <v>0.3338</v>
+        <v>0.3424</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2984,11 +2672,13 @@
         <v>-11504046.86047893</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.3424</v>
+      </c>
       <c r="J67" t="n">
-        <v>0.3338</v>
+        <v>0.3424</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3023,11 +2713,13 @@
         <v>-10551619.86047893</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.3424</v>
+      </c>
       <c r="J68" t="n">
-        <v>0.3338</v>
+        <v>0.3424</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3062,11 +2754,13 @@
         <v>-10555568.47777893</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.3446</v>
+      </c>
       <c r="J69" t="n">
-        <v>0.3338</v>
+        <v>0.3424</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3101,11 +2795,13 @@
         <v>-10454060.35712928</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.3409</v>
+      </c>
       <c r="J70" t="n">
-        <v>0.3338</v>
+        <v>0.3424</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3140,11 +2836,11 @@
         <v>-10875371.48142928</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>0.3338</v>
+        <v>0.3424</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3179,11 +2875,11 @@
         <v>-7519768.613129275</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>0.3338</v>
+        <v>0.3424</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3218,11 +2914,13 @@
         <v>-7589323.745529275</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.3447</v>
+      </c>
       <c r="J73" t="n">
-        <v>0.3338</v>
+        <v>0.3424</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3257,11 +2955,11 @@
         <v>-7589323.745529275</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>0.3338</v>
+        <v>0.3424</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3296,11 +2994,11 @@
         <v>-7371442.550829276</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>0.3338</v>
+        <v>0.3424</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3335,19 +3033,19 @@
         <v>-7371442.550829276</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>0.3338</v>
+        <v>0.3424</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>1.002009345794393</v>
       </c>
       <c r="M76" t="inlineStr"/>
     </row>
@@ -3374,17 +3072,11 @@
         <v>-7371442.550829276</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3413,17 +3105,11 @@
         <v>-7371442.550829276</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3452,17 +3138,11 @@
         <v>-7384357.937329276</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3491,17 +3171,15 @@
         <v>-6995735.937329276</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.3413</v>
+      </c>
       <c r="J80" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.3413</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3534,11 +3212,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>0.3338</v>
+        <v>0.3413</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3573,11 +3251,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>0.3338</v>
+        <v>0.3413</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -3611,14 +3289,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3650,14 +3322,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3689,14 +3355,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3728,14 +3388,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3767,14 +3421,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3806,14 +3454,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3845,14 +3487,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3884,14 +3520,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3923,14 +3553,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3962,14 +3586,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4001,14 +3619,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4040,14 +3652,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4079,14 +3685,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4118,14 +3718,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4157,14 +3751,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4196,14 +3784,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4232,17 +3814,11 @@
         <v>3232415.157470724</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4271,17 +3847,11 @@
         <v>6394147.124505084</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4310,17 +3880,11 @@
         <v>6392669.720005084</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4352,14 +3916,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4388,17 +3946,11 @@
         <v>25392654.02150508</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4427,17 +3979,11 @@
         <v>24792654.02150508</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4466,17 +4012,11 @@
         <v>26681193.35700508</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4505,17 +4045,11 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4544,17 +4078,11 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4583,17 +4111,11 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4622,17 +4144,11 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4661,17 +4177,11 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4700,17 +4210,11 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4739,17 +4243,11 @@
         <v>12125165.16640508</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4778,17 +4276,11 @@
         <v>14790204.16640508</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4817,17 +4309,11 @@
         <v>14790204.16640508</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4856,17 +4342,11 @@
         <v>14790204.16640508</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4898,14 +4378,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4937,14 +4411,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4973,17 +4441,11 @@
         <v>16284195.21420508</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5012,17 +4474,11 @@
         <v>16284195.21420508</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5051,17 +4507,11 @@
         <v>17484195.21420508</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5090,17 +4540,11 @@
         <v>17484195.21420508</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5129,17 +4573,11 @@
         <v>17465819.44860508</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5168,17 +4606,11 @@
         <v>12370463.55090508</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5207,17 +4639,11 @@
         <v>12370463.55090508</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5246,17 +4672,11 @@
         <v>12370463.55090508</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5285,17 +4705,11 @@
         <v>12320734.20380508</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5324,17 +4738,11 @@
         <v>12270715.71810508</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5363,17 +4771,11 @@
         <v>12266329.94180508</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5402,17 +4804,11 @@
         <v>12419929.95250508</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5444,14 +4840,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5483,14 +4873,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5522,14 +4906,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5561,14 +4939,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5600,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5639,14 +5005,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5678,14 +5038,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5717,14 +5071,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5756,14 +5104,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5792,17 +5134,11 @@
         <v>41798536.07400508</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5831,17 +5167,11 @@
         <v>35357512.61010508</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5870,17 +5200,11 @@
         <v>35071091.45610508</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5909,17 +5233,11 @@
         <v>35067391.17160508</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5951,14 +5269,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5990,14 +5302,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6029,14 +5335,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6068,14 +5368,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6107,14 +5401,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6146,14 +5434,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6185,14 +5467,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6224,14 +5500,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6263,14 +5533,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6302,14 +5566,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6341,14 +5599,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6380,14 +5632,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6416,17 +5662,11 @@
         <v>48853577.56340508</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6458,14 +5698,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6497,14 +5731,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6533,17 +5761,11 @@
         <v>53839416.63840508</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6572,17 +5794,11 @@
         <v>54634808.15090508</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6611,17 +5827,11 @@
         <v>54634808.15090508</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6650,17 +5860,11 @@
         <v>54634808.15090508</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6689,17 +5893,11 @@
         <v>54791519.59960508</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6728,17 +5926,11 @@
         <v>64965011.16050509</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6767,17 +5959,11 @@
         <v>64965011.16050509</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6806,17 +5992,11 @@
         <v>64960662.32420509</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6845,17 +6025,11 @@
         <v>64960662.32420509</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6884,17 +6058,11 @@
         <v>64960662.32420509</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6923,17 +6091,11 @@
         <v>64960662.32420509</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6965,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7004,14 +6160,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7043,14 +6193,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7082,14 +6226,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7121,14 +6259,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7157,17 +6289,11 @@
         <v>64491709.2590484</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7196,17 +6322,11 @@
         <v>64991422.14954686</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7235,17 +6355,11 @@
         <v>65080195.14954686</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7274,17 +6388,11 @@
         <v>65965670.20934686</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7313,17 +6421,11 @@
         <v>72822382.01544686</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7352,17 +6454,11 @@
         <v>72822382.01544686</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7391,17 +6487,11 @@
         <v>72840170.01544686</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7430,17 +6520,11 @@
         <v>72824263.62134686</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7469,17 +6553,11 @@
         <v>71821063.62134686</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7508,17 +6586,11 @@
         <v>72306275.62134686</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7547,17 +6619,11 @@
         <v>72303075.62134686</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7586,17 +6652,11 @@
         <v>72568736.87644686</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7625,17 +6685,11 @@
         <v>75996489.03994685</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7664,17 +6718,11 @@
         <v>75996489.03994685</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7703,17 +6751,11 @@
         <v>80815649.43926662</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7745,14 +6787,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7781,17 +6817,11 @@
         <v>80812806.62986661</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7820,17 +6850,11 @@
         <v>83102995.85516661</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7859,17 +6883,11 @@
         <v>83102995.85516661</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7898,17 +6916,11 @@
         <v>83881335.38706662</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7940,14 +6952,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7979,14 +6985,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8018,14 +7018,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8057,14 +7051,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8096,14 +7084,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8135,14 +7117,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8174,14 +7150,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8213,14 +7183,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8252,14 +7216,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8291,14 +7249,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8330,14 +7282,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8369,14 +7315,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8408,14 +7348,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8444,17 +7378,11 @@
         <v>64196826.54446106</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8486,14 +7414,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8525,14 +7447,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8564,14 +7480,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8603,14 +7513,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8642,14 +7546,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8681,14 +7579,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8720,14 +7612,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8759,14 +7645,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8798,14 +7678,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8837,14 +7711,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8876,14 +7744,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8915,14 +7777,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8954,14 +7810,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8993,14 +7843,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9032,14 +7876,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9071,14 +7909,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9110,14 +7942,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9149,14 +7975,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9188,14 +8008,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9227,14 +8041,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9266,14 +8074,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9305,14 +8107,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9344,14 +8140,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9383,14 +8173,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9422,14 +8206,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9461,14 +8239,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9500,14 +8272,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9536,23 +8302,15 @@
         <v>113349130.1503611</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
-        <v>1.064802276812463</v>
-      </c>
-      <c r="M235" t="n">
-        <v>1.01168364289994</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9577,7 +8335,7 @@
         <v>113388198.6343611</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9610,7 +8368,7 @@
         <v>113561886.7407611</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9643,7 +8401,7 @@
         <v>115647210.3668611</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9676,7 +8434,7 @@
         <v>115579054.4276611</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9709,7 +8467,7 @@
         <v>115802453.6759611</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9720,6 +8478,6 @@
       <c r="M240" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest BTT.xlsx
+++ b/BackTest/2020-01-13 BackTest BTT.xlsx
@@ -451,7 +451,7 @@
         <v>-26409571.96025185</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-25362566.45765185</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3338</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-25257817.30707892</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-25320807.81937892</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3377</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>-20973092.57287892</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3396</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,17 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +765,17 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +804,17 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +843,17 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +882,17 @@
         <v>-20967534.57287892</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +963,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1002,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1038,17 @@
         <v>-20710935.24637892</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1077,17 @@
         <v>-20710935.24637892</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1116,17 @@
         <v>-20710935.24637892</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1197,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1236,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1275,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1314,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1353,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1389,17 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1428,17 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1467,17 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1506,17 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1545,17 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1584,17 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1623,17 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1662,17 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1701,17 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1740,17 @@
         <v>-20619963.56027893</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1779,17 @@
         <v>-16876620.16287893</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1818,17 @@
         <v>-16666610.44737893</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1857,17 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1896,17 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1935,17 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1974,17 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2013,17 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2052,17 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2091,17 @@
         <v>-11769610.44737893</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2130,17 @@
         <v>-11971769.77047893</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2169,17 @@
         <v>-11597395.77047893</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2208,17 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2247,17 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2286,17 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2325,17 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2364,17 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2403,17 @@
         <v>-11553278.81397893</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2442,17 @@
         <v>-11557227.43127893</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2481,17 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2523,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,15 +2559,17 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+        <v>0.3338</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,17 +2598,15 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2311,17 +2637,15 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2352,15 +2676,17 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+        <v>0.3338</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2389,17 +2715,15 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2430,17 +2754,15 @@
         <v>-11655035.69217893</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2471,15 +2793,17 @@
         <v>-11990322.41627893</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>0.3424</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+        <v>0.3338</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2508,17 +2832,15 @@
         <v>-11936404.03437893</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.3409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2549,17 +2871,15 @@
         <v>-11936404.03437893</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2590,17 +2910,15 @@
         <v>-11504046.86047893</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.3423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2631,13 +2949,11 @@
         <v>-11504046.86047893</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2672,13 +2988,11 @@
         <v>-11504046.86047893</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2713,13 +3027,11 @@
         <v>-10551619.86047893</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.3424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2754,13 +3066,11 @@
         <v>-10555568.47777893</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.3446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2795,13 +3105,11 @@
         <v>-10454060.35712928</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.3409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2836,11 +3144,11 @@
         <v>-10875371.48142928</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2875,11 +3183,11 @@
         <v>-7519768.613129275</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2914,13 +3222,11 @@
         <v>-7589323.745529275</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.3447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2955,11 +3261,11 @@
         <v>-7589323.745529275</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2994,11 +3300,11 @@
         <v>-7371442.550829276</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3033,19 +3339,19 @@
         <v>-7371442.550829276</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>0.3424</v>
+        <v>0.3338</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.002009345794393</v>
+        <v>1</v>
       </c>
       <c r="M76" t="inlineStr"/>
     </row>
@@ -3072,11 +3378,17 @@
         <v>-7371442.550829276</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3105,11 +3417,17 @@
         <v>-7371442.550829276</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3138,11 +3456,17 @@
         <v>-7384357.937329276</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3171,15 +3495,17 @@
         <v>-6995735.937329276</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.3413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>0.3413</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+        <v>0.3338</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3212,11 +3538,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>0.3413</v>
+        <v>0.3338</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3251,11 +3577,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>0.3413</v>
+        <v>0.3338</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -3289,8 +3615,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3322,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3355,8 +3693,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3388,8 +3732,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3421,8 +3771,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3454,8 +3810,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3487,8 +3849,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3520,8 +3888,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3553,8 +3927,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3586,8 +3966,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3619,8 +4005,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3652,8 +4044,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3685,8 +4083,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3718,8 +4122,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3751,8 +4161,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3784,8 +4200,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3814,11 +4236,17 @@
         <v>3232415.157470724</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3847,11 +4275,17 @@
         <v>6394147.124505084</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3880,11 +4314,17 @@
         <v>6392669.720005084</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3916,8 +4356,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3946,11 +4392,17 @@
         <v>25392654.02150508</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3979,11 +4431,17 @@
         <v>24792654.02150508</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4012,11 +4470,17 @@
         <v>26681193.35700508</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4045,11 +4509,17 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4078,11 +4548,17 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4111,11 +4587,17 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4144,11 +4626,17 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4177,11 +4665,17 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4210,11 +4704,17 @@
         <v>12136146.80480508</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4243,11 +4743,17 @@
         <v>12125165.16640508</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4276,11 +4782,17 @@
         <v>14790204.16640508</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4309,11 +4821,17 @@
         <v>14790204.16640508</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4342,11 +4860,17 @@
         <v>14790204.16640508</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4378,8 +4902,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4411,8 +4941,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4441,11 +4977,17 @@
         <v>16284195.21420508</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4474,11 +5016,17 @@
         <v>16284195.21420508</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4507,11 +5055,17 @@
         <v>17484195.21420508</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4540,11 +5094,17 @@
         <v>17484195.21420508</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4573,11 +5133,17 @@
         <v>17465819.44860508</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4606,11 +5172,17 @@
         <v>12370463.55090508</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4639,11 +5211,17 @@
         <v>12370463.55090508</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4672,11 +5250,17 @@
         <v>12370463.55090508</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4705,11 +5289,17 @@
         <v>12320734.20380508</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4738,11 +5328,17 @@
         <v>12270715.71810508</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4771,11 +5367,17 @@
         <v>12266329.94180508</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4804,11 +5406,17 @@
         <v>12419929.95250508</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4840,8 +5448,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4873,8 +5487,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4906,8 +5526,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4939,8 +5565,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4972,8 +5604,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5005,8 +5643,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5038,8 +5682,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5071,8 +5721,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5104,8 +5760,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5134,11 +5796,17 @@
         <v>41798536.07400508</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5167,11 +5835,17 @@
         <v>35357512.61010508</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5200,11 +5874,17 @@
         <v>35071091.45610508</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5233,11 +5913,17 @@
         <v>35067391.17160508</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5269,8 +5955,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5302,8 +5994,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5335,8 +6033,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5368,8 +6072,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5401,8 +6111,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5434,8 +6150,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5467,8 +6189,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5500,8 +6228,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5533,8 +6267,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5566,8 +6306,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5599,8 +6345,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5632,8 +6384,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5662,11 +6420,17 @@
         <v>48853577.56340508</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5698,8 +6462,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5731,8 +6501,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5761,11 +6537,17 @@
         <v>53839416.63840508</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5794,11 +6576,17 @@
         <v>54634808.15090508</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5827,11 +6615,17 @@
         <v>54634808.15090508</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5860,11 +6654,17 @@
         <v>54634808.15090508</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5893,11 +6693,17 @@
         <v>54791519.59960508</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5926,11 +6732,17 @@
         <v>64965011.16050509</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5959,11 +6771,17 @@
         <v>64965011.16050509</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5992,11 +6810,17 @@
         <v>64960662.32420509</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6025,11 +6849,17 @@
         <v>64960662.32420509</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6058,11 +6888,17 @@
         <v>64960662.32420509</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6091,11 +6927,17 @@
         <v>64960662.32420509</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6127,8 +6969,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6160,8 +7008,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6193,8 +7047,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6226,8 +7086,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6259,8 +7125,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6289,11 +7161,17 @@
         <v>64491709.2590484</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6322,11 +7200,17 @@
         <v>64991422.14954686</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6355,11 +7239,17 @@
         <v>65080195.14954686</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6388,11 +7278,17 @@
         <v>65965670.20934686</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6421,11 +7317,17 @@
         <v>72822382.01544686</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6454,11 +7356,17 @@
         <v>72822382.01544686</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6487,11 +7395,17 @@
         <v>72840170.01544686</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6520,11 +7434,17 @@
         <v>72824263.62134686</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6553,11 +7473,17 @@
         <v>71821063.62134686</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6586,11 +7512,17 @@
         <v>72306275.62134686</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6619,11 +7551,17 @@
         <v>72303075.62134686</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6652,11 +7590,17 @@
         <v>72568736.87644686</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6685,11 +7629,17 @@
         <v>75996489.03994685</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6718,11 +7668,17 @@
         <v>75996489.03994685</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6751,11 +7707,17 @@
         <v>80815649.43926662</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6787,8 +7749,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6817,11 +7785,17 @@
         <v>80812806.62986661</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6850,11 +7824,17 @@
         <v>83102995.85516661</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6883,11 +7863,17 @@
         <v>83102995.85516661</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6916,11 +7902,17 @@
         <v>83881335.38706662</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6952,8 +7944,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6985,8 +7983,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7018,8 +8022,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7051,8 +8061,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7084,8 +8100,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7117,8 +8139,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7150,8 +8178,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7183,8 +8217,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7216,8 +8256,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7249,8 +8295,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7282,8 +8334,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7315,8 +8373,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7348,8 +8412,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7378,11 +8448,17 @@
         <v>64196826.54446106</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7414,8 +8490,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7447,8 +8529,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7480,8 +8568,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7513,8 +8607,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7546,8 +8646,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7579,8 +8685,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7612,8 +8724,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7642,15 +8760,23 @@
         <v>95242186.98766105</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>1.077384661473937</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1.01168364289994</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7675,7 +8801,7 @@
         <v>94319829.92186105</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7741,7 +8867,7 @@
         <v>106701197.4754611</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7774,7 +8900,7 @@
         <v>106701197.4754611</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7807,7 +8933,7 @@
         <v>107141621.586261</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7840,7 +8966,7 @@
         <v>107141621.586261</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7873,7 +8999,7 @@
         <v>107141621.586261</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7906,7 +9032,7 @@
         <v>107141621.586261</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7939,7 +9065,7 @@
         <v>105720190.178461</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7972,7 +9098,7 @@
         <v>105720190.178461</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8005,7 +9131,7 @@
         <v>105720190.178461</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8038,7 +9164,7 @@
         <v>105720190.178461</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8071,7 +9197,7 @@
         <v>104170827.4297611</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8104,7 +9230,7 @@
         <v>104170827.4297611</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8137,7 +9263,7 @@
         <v>105170827.4297611</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8170,7 +9296,7 @@
         <v>103485869.0355611</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8203,7 +9329,7 @@
         <v>114344220.5893611</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8236,7 +9362,7 @@
         <v>113584220.5893611</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8269,7 +9395,7 @@
         <v>113584220.5893611</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8302,7 +9428,7 @@
         <v>113349130.1503611</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8401,7 +9527,7 @@
         <v>115647210.3668611</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8434,7 +9560,7 @@
         <v>115579054.4276611</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>

--- a/BackTest/2020-01-13 BackTest BTT.xlsx
+++ b/BackTest/2020-01-13 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M240"/>
+  <dimension ref="A1:L240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3120487.3905</v>
       </c>
       <c r="G2" t="n">
-        <v>-26409571.96025185</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>1047005.5026</v>
       </c>
       <c r="G3" t="n">
-        <v>-25362566.45765185</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.3338</v>
       </c>
       <c r="I3" t="n">
         <v>0.3338</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>104749.15057293</v>
       </c>
       <c r="G4" t="n">
-        <v>-25257817.30707892</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.335</v>
       </c>
       <c r="I4" t="n">
-        <v>0.335</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>0.3338</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,21 @@
         <v>62990.5123</v>
       </c>
       <c r="G5" t="n">
-        <v>-25320807.81937892</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.3377</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>0.3338</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +581,21 @@
         <v>4347715.2465</v>
       </c>
       <c r="G6" t="n">
-        <v>-20973092.57287892</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.3324</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0.3338</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +617,21 @@
         <v>5558</v>
       </c>
       <c r="G7" t="n">
-        <v>-20967534.57287892</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.3396</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0.3338</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +653,21 @@
         <v>126083</v>
       </c>
       <c r="G8" t="n">
-        <v>-20967534.57287892</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0.3338</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,24 +689,21 @@
         <v>352175</v>
       </c>
       <c r="G9" t="n">
-        <v>-20967534.57287892</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -762,24 +725,21 @@
         <v>725805</v>
       </c>
       <c r="G10" t="n">
-        <v>-20967534.57287892</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -801,24 +761,21 @@
         <v>182448.1635</v>
       </c>
       <c r="G11" t="n">
-        <v>-20967534.57287892</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -840,24 +797,21 @@
         <v>161409.7174</v>
       </c>
       <c r="G12" t="n">
-        <v>-20967534.57287892</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -879,24 +833,21 @@
         <v>75271.08779999999</v>
       </c>
       <c r="G13" t="n">
-        <v>-20967534.57287892</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -918,24 +869,21 @@
         <v>256599.3265</v>
       </c>
       <c r="G14" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -957,24 +905,21 @@
         <v>385919.8947</v>
       </c>
       <c r="G15" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -996,24 +941,21 @@
         <v>2637245.1511</v>
       </c>
       <c r="G16" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1035,24 +977,21 @@
         <v>102720.7561</v>
       </c>
       <c r="G17" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1074,24 +1013,21 @@
         <v>58059.4518</v>
       </c>
       <c r="G18" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1113,24 +1049,21 @@
         <v>232241.8271</v>
       </c>
       <c r="G19" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1152,24 +1085,21 @@
         <v>353088.7089</v>
       </c>
       <c r="G20" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1191,24 +1121,21 @@
         <v>1175639.366</v>
       </c>
       <c r="G21" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1230,24 +1157,21 @@
         <v>549838.7675</v>
       </c>
       <c r="G22" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1269,24 +1193,21 @@
         <v>345465</v>
       </c>
       <c r="G23" t="n">
-        <v>-20710935.24637892</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1308,24 +1229,21 @@
         <v>90971.68610000001</v>
       </c>
       <c r="G24" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1347,24 +1265,21 @@
         <v>96774</v>
       </c>
       <c r="G25" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1386,24 +1301,21 @@
         <v>308135</v>
       </c>
       <c r="G26" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1425,24 +1337,21 @@
         <v>177258.3856</v>
       </c>
       <c r="G27" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1464,24 +1373,21 @@
         <v>96774</v>
       </c>
       <c r="G28" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1503,24 +1409,21 @@
         <v>2862842.44</v>
       </c>
       <c r="G29" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1542,24 +1445,21 @@
         <v>200704.5844</v>
       </c>
       <c r="G30" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1581,24 +1481,21 @@
         <v>733261.6417</v>
       </c>
       <c r="G31" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1620,24 +1517,21 @@
         <v>526383</v>
       </c>
       <c r="G32" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1659,24 +1553,21 @@
         <v>947957</v>
       </c>
       <c r="G33" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1698,24 +1589,21 @@
         <v>1195443</v>
       </c>
       <c r="G34" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1737,24 +1625,21 @@
         <v>1006455</v>
       </c>
       <c r="G35" t="n">
-        <v>-20619963.56027893</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1776,24 +1661,21 @@
         <v>3743343.3974</v>
       </c>
       <c r="G36" t="n">
-        <v>-16876620.16287893</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1815,24 +1697,21 @@
         <v>210009.7155</v>
       </c>
       <c r="G37" t="n">
-        <v>-16666610.44737893</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1854,24 +1733,21 @@
         <v>4897000</v>
       </c>
       <c r="G38" t="n">
-        <v>-11769610.44737893</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1893,24 +1769,21 @@
         <v>1892.7463</v>
       </c>
       <c r="G39" t="n">
-        <v>-11769610.44737893</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1932,24 +1805,21 @@
         <v>468085.14211739</v>
       </c>
       <c r="G40" t="n">
-        <v>-11769610.44737893</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1971,24 +1841,21 @@
         <v>8405.797101439999</v>
       </c>
       <c r="G41" t="n">
-        <v>-11769610.44737893</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2010,24 +1877,21 @@
         <v>791246.0587000001</v>
       </c>
       <c r="G42" t="n">
-        <v>-11769610.44737893</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2049,24 +1913,21 @@
         <v>16253.887</v>
       </c>
       <c r="G43" t="n">
-        <v>-11769610.44737893</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2088,24 +1949,21 @@
         <v>5487.2384</v>
       </c>
       <c r="G44" t="n">
-        <v>-11769610.44737893</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2127,24 +1985,21 @@
         <v>202159.3231</v>
       </c>
       <c r="G45" t="n">
-        <v>-11971769.77047893</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2166,24 +2021,21 @@
         <v>374374</v>
       </c>
       <c r="G46" t="n">
-        <v>-11597395.77047893</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2205,24 +2057,21 @@
         <v>44116.9565</v>
       </c>
       <c r="G47" t="n">
-        <v>-11553278.81397893</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2244,24 +2093,21 @@
         <v>505604.5063</v>
       </c>
       <c r="G48" t="n">
-        <v>-11553278.81397893</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2283,24 +2129,21 @@
         <v>58163.6288</v>
       </c>
       <c r="G49" t="n">
-        <v>-11553278.81397893</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2322,24 +2165,21 @@
         <v>1481.7184</v>
       </c>
       <c r="G50" t="n">
-        <v>-11553278.81397893</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2361,24 +2201,21 @@
         <v>13097.9839</v>
       </c>
       <c r="G51" t="n">
-        <v>-11553278.81397893</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2400,24 +2237,21 @@
         <v>75800</v>
       </c>
       <c r="G52" t="n">
-        <v>-11553278.81397893</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2439,24 +2273,21 @@
         <v>3948.6173</v>
       </c>
       <c r="G53" t="n">
-        <v>-11557227.43127893</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2478,24 +2309,21 @@
         <v>97808.26089999999</v>
       </c>
       <c r="G54" t="n">
-        <v>-11655035.69217893</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2517,24 +2345,21 @@
         <v>1544465.7987</v>
       </c>
       <c r="G55" t="n">
-        <v>-11655035.69217893</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2556,24 +2381,21 @@
         <v>868505</v>
       </c>
       <c r="G56" t="n">
-        <v>-11655035.69217893</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2595,24 +2417,21 @@
         <v>7084671</v>
       </c>
       <c r="G57" t="n">
-        <v>-11655035.69217893</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2634,24 +2453,21 @@
         <v>1112329</v>
       </c>
       <c r="G58" t="n">
-        <v>-11655035.69217893</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2673,24 +2489,21 @@
         <v>905046</v>
       </c>
       <c r="G59" t="n">
-        <v>-11655035.69217893</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2712,24 +2525,21 @@
         <v>1058524.4131</v>
       </c>
       <c r="G60" t="n">
-        <v>-11655035.69217893</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2751,24 +2561,21 @@
         <v>137146.9187</v>
       </c>
       <c r="G61" t="n">
-        <v>-11655035.69217893</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2790,24 +2597,21 @@
         <v>335286.7241</v>
       </c>
       <c r="G62" t="n">
-        <v>-11990322.41627893</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2829,24 +2633,21 @@
         <v>53918.3819</v>
       </c>
       <c r="G63" t="n">
-        <v>-11936404.03437893</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2868,24 +2669,21 @@
         <v>75901</v>
       </c>
       <c r="G64" t="n">
-        <v>-11936404.03437893</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2907,24 +2705,21 @@
         <v>432357.1739</v>
       </c>
       <c r="G65" t="n">
-        <v>-11504046.86047893</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2946,24 +2741,21 @@
         <v>9620661</v>
       </c>
       <c r="G66" t="n">
-        <v>-11504046.86047893</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2985,24 +2777,21 @@
         <v>455488.1867</v>
       </c>
       <c r="G67" t="n">
-        <v>-11504046.86047893</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3024,24 +2813,21 @@
         <v>952427</v>
       </c>
       <c r="G68" t="n">
-        <v>-10551619.86047893</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3063,24 +2849,21 @@
         <v>3948.6173</v>
       </c>
       <c r="G69" t="n">
-        <v>-10555568.47777893</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3102,24 +2885,21 @@
         <v>101508.12064965</v>
       </c>
       <c r="G70" t="n">
-        <v>-10454060.35712928</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3141,24 +2921,21 @@
         <v>421311.1243</v>
       </c>
       <c r="G71" t="n">
-        <v>-10875371.48142928</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3180,24 +2957,21 @@
         <v>3355602.8683</v>
       </c>
       <c r="G72" t="n">
-        <v>-7519768.613129275</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3219,24 +2993,21 @@
         <v>69555.1324</v>
       </c>
       <c r="G73" t="n">
-        <v>-7589323.745529275</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3258,24 +3029,21 @@
         <v>487629.6176</v>
       </c>
       <c r="G74" t="n">
-        <v>-7589323.745529275</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3297,24 +3065,21 @@
         <v>217881.1947</v>
       </c>
       <c r="G75" t="n">
-        <v>-7371442.550829276</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3336,24 +3101,21 @@
         <v>449023.0064</v>
       </c>
       <c r="G76" t="n">
-        <v>-7371442.550829276</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3375,24 +3137,21 @@
         <v>855218.9915</v>
       </c>
       <c r="G77" t="n">
-        <v>-7371442.550829276</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3414,24 +3173,21 @@
         <v>659036.3865</v>
       </c>
       <c r="G78" t="n">
-        <v>-7371442.550829276</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3453,24 +3209,21 @@
         <v>12915.3865</v>
       </c>
       <c r="G79" t="n">
-        <v>-7384357.937329276</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3492,24 +3245,21 @@
         <v>388622</v>
       </c>
       <c r="G80" t="n">
-        <v>-6995735.937329276</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3531,24 +3281,21 @@
         <v>582357</v>
       </c>
       <c r="G81" t="n">
-        <v>-6995735.937329276</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3570,24 +3317,21 @@
         <v>2707090.245</v>
       </c>
       <c r="G82" t="n">
-        <v>-4288645.692329275</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3609,24 +3353,21 @@
         <v>52987.5094</v>
       </c>
       <c r="G83" t="n">
-        <v>-4288645.692329275</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3648,24 +3389,21 @@
         <v>286814.9226</v>
       </c>
       <c r="G84" t="n">
-        <v>-4001830.769729275</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3687,24 +3425,21 @@
         <v>1553337.1723</v>
       </c>
       <c r="G85" t="n">
-        <v>-2448493.597429276</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3726,24 +3461,21 @@
         <v>3160.9196</v>
       </c>
       <c r="G86" t="n">
-        <v>-2451654.517029276</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3765,24 +3497,21 @@
         <v>2862842.44</v>
       </c>
       <c r="G87" t="n">
-        <v>411187.9229707243</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3804,24 +3533,21 @@
         <v>8567.609200000001</v>
       </c>
       <c r="G88" t="n">
-        <v>419755.5321707243</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3843,24 +3569,21 @@
         <v>730230.998</v>
       </c>
       <c r="G89" t="n">
-        <v>-310475.4658292757</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3882,24 +3605,21 @@
         <v>41658.1444</v>
       </c>
       <c r="G90" t="n">
-        <v>-268817.3214292757</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3921,24 +3641,21 @@
         <v>5000</v>
       </c>
       <c r="G91" t="n">
-        <v>-268817.3214292757</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3960,24 +3677,21 @@
         <v>874154.9905</v>
       </c>
       <c r="G92" t="n">
-        <v>-268817.3214292757</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3999,24 +3713,21 @@
         <v>145824.4216</v>
       </c>
       <c r="G93" t="n">
-        <v>-414641.7430292757</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4038,24 +3749,21 @@
         <v>447139.2782</v>
       </c>
       <c r="G94" t="n">
-        <v>-414641.7430292757</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4077,24 +3785,21 @@
         <v>322891.1372</v>
       </c>
       <c r="G95" t="n">
-        <v>-91750.60582927574</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4116,24 +3821,21 @@
         <v>2954.809</v>
       </c>
       <c r="G96" t="n">
-        <v>-94705.41482927573</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4155,24 +3857,21 @@
         <v>235104.8343</v>
       </c>
       <c r="G97" t="n">
-        <v>140399.4194707242</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4194,24 +3893,21 @@
         <v>769378.3223999999</v>
       </c>
       <c r="G98" t="n">
-        <v>909777.7418707241</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4233,24 +3929,21 @@
         <v>2322637.4156</v>
       </c>
       <c r="G99" t="n">
-        <v>3232415.157470724</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4272,24 +3965,21 @@
         <v>3161731.96703436</v>
       </c>
       <c r="G100" t="n">
-        <v>6394147.124505084</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4311,24 +4001,21 @@
         <v>1477.4045</v>
       </c>
       <c r="G101" t="n">
-        <v>6392669.720005084</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4350,24 +4037,21 @@
         <v>22001429.3883</v>
       </c>
       <c r="G102" t="n">
-        <v>28394099.10830509</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4389,24 +4073,21 @@
         <v>3001445.0868</v>
       </c>
       <c r="G103" t="n">
-        <v>25392654.02150508</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4428,24 +4109,21 @@
         <v>600000</v>
       </c>
       <c r="G104" t="n">
-        <v>24792654.02150508</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4467,24 +4145,21 @@
         <v>1888539.3355</v>
       </c>
       <c r="G105" t="n">
-        <v>26681193.35700508</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4506,24 +4181,21 @@
         <v>14545046.5522</v>
       </c>
       <c r="G106" t="n">
-        <v>12136146.80480508</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4545,24 +4217,21 @@
         <v>2476128.016</v>
       </c>
       <c r="G107" t="n">
-        <v>12136146.80480508</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4584,24 +4253,21 @@
         <v>2572842</v>
       </c>
       <c r="G108" t="n">
-        <v>12136146.80480508</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4623,24 +4289,21 @@
         <v>2942047.0634</v>
       </c>
       <c r="G109" t="n">
-        <v>12136146.80480508</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4662,24 +4325,21 @@
         <v>1092208.9411</v>
       </c>
       <c r="G110" t="n">
-        <v>12136146.80480508</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4701,24 +4361,21 @@
         <v>863459.2355</v>
       </c>
       <c r="G111" t="n">
-        <v>12136146.80480508</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4740,24 +4397,21 @@
         <v>10981.6384</v>
       </c>
       <c r="G112" t="n">
-        <v>12125165.16640508</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4779,24 +4433,21 @@
         <v>2665039</v>
       </c>
       <c r="G113" t="n">
-        <v>14790204.16640508</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4818,24 +4469,21 @@
         <v>732267</v>
       </c>
       <c r="G114" t="n">
-        <v>14790204.16640508</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4857,24 +4505,21 @@
         <v>1421388.2083</v>
       </c>
       <c r="G115" t="n">
-        <v>14790204.16640508</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4896,24 +4541,21 @@
         <v>293991.0478</v>
       </c>
       <c r="G116" t="n">
-        <v>15084195.21420508</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4935,24 +4577,21 @@
         <v>819637.9521</v>
       </c>
       <c r="G117" t="n">
-        <v>15084195.21420508</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4974,24 +4613,21 @@
         <v>1200000</v>
       </c>
       <c r="G118" t="n">
-        <v>16284195.21420508</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5013,24 +4649,21 @@
         <v>536744</v>
       </c>
       <c r="G119" t="n">
-        <v>16284195.21420508</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5052,24 +4685,21 @@
         <v>1200000</v>
       </c>
       <c r="G120" t="n">
-        <v>17484195.21420508</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5091,24 +4721,21 @@
         <v>101005.5889</v>
       </c>
       <c r="G121" t="n">
-        <v>17484195.21420508</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5130,24 +4757,21 @@
         <v>18375.7656</v>
       </c>
       <c r="G122" t="n">
-        <v>17465819.44860508</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5169,24 +4793,21 @@
         <v>5095355.8977</v>
       </c>
       <c r="G123" t="n">
-        <v>12370463.55090508</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5208,24 +4829,21 @@
         <v>1551</v>
       </c>
       <c r="G124" t="n">
-        <v>12370463.55090508</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5247,24 +4865,21 @@
         <v>65371</v>
       </c>
       <c r="G125" t="n">
-        <v>12370463.55090508</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5286,24 +4901,21 @@
         <v>49729.3471</v>
       </c>
       <c r="G126" t="n">
-        <v>12320734.20380508</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5325,24 +4937,21 @@
         <v>50018.4857</v>
       </c>
       <c r="G127" t="n">
-        <v>12270715.71810508</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5364,24 +4973,21 @@
         <v>4385.7763</v>
       </c>
       <c r="G128" t="n">
-        <v>12266329.94180508</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5403,24 +5009,21 @@
         <v>153600.0107</v>
       </c>
       <c r="G129" t="n">
-        <v>12419929.95250508</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5442,24 +5045,21 @@
         <v>20000</v>
       </c>
       <c r="G130" t="n">
-        <v>12439929.95250508</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5481,24 +5081,21 @@
         <v>52692.53</v>
       </c>
       <c r="G131" t="n">
-        <v>12387237.42250508</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5520,24 +5117,21 @@
         <v>18064.3413</v>
       </c>
       <c r="G132" t="n">
-        <v>12369173.08120508</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5559,24 +5153,21 @@
         <v>19428.8</v>
       </c>
       <c r="G133" t="n">
-        <v>12369173.08120508</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5598,24 +5189,21 @@
         <v>57126.5353</v>
       </c>
       <c r="G134" t="n">
-        <v>12426299.61650508</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5637,24 +5225,21 @@
         <v>770374.5954</v>
       </c>
       <c r="G135" t="n">
-        <v>12426299.61650508</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5676,24 +5261,21 @@
         <v>2188434.0032</v>
       </c>
       <c r="G136" t="n">
-        <v>12426299.61650508</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5715,24 +5297,21 @@
         <v>80299.7595</v>
       </c>
       <c r="G137" t="n">
-        <v>12426299.61650508</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5754,24 +5333,21 @@
         <v>47304123.5939</v>
       </c>
       <c r="G138" t="n">
-        <v>59730423.21040508</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5793,24 +5369,21 @@
         <v>17931887.1364</v>
       </c>
       <c r="G139" t="n">
-        <v>41798536.07400508</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5832,24 +5405,21 @@
         <v>6441023.4639</v>
       </c>
       <c r="G140" t="n">
-        <v>35357512.61010508</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5871,24 +5441,21 @@
         <v>286421.154</v>
       </c>
       <c r="G141" t="n">
-        <v>35071091.45610508</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5910,24 +5477,21 @@
         <v>3700.2845</v>
       </c>
       <c r="G142" t="n">
-        <v>35067391.17160508</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5949,24 +5513,21 @@
         <v>329993.6401</v>
       </c>
       <c r="G143" t="n">
-        <v>35067391.17160508</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5988,24 +5549,21 @@
         <v>20614.6652</v>
       </c>
       <c r="G144" t="n">
-        <v>35046776.50640508</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6027,24 +5585,21 @@
         <v>218065</v>
       </c>
       <c r="G145" t="n">
-        <v>35046776.50640508</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6066,24 +5621,21 @@
         <v>2322637.4156</v>
       </c>
       <c r="G146" t="n">
-        <v>35046776.50640508</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6105,24 +5657,21 @@
         <v>600000</v>
       </c>
       <c r="G147" t="n">
-        <v>35646776.50640508</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6144,24 +5693,21 @@
         <v>1095089.8078</v>
       </c>
       <c r="G148" t="n">
-        <v>34551686.69860508</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6183,24 +5729,21 @@
         <v>7329.1639</v>
       </c>
       <c r="G149" t="n">
-        <v>34559015.86250508</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6222,24 +5765,21 @@
         <v>94833.43060000001</v>
       </c>
       <c r="G150" t="n">
-        <v>34653849.29310508</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6261,24 +5801,21 @@
         <v>13601193.4858</v>
       </c>
       <c r="G151" t="n">
-        <v>48255042.77890508</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6300,24 +5837,21 @@
         <v>1465.2155</v>
       </c>
       <c r="G152" t="n">
-        <v>48253577.56340508</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6339,24 +5873,21 @@
         <v>600000</v>
       </c>
       <c r="G153" t="n">
-        <v>48853577.56340508</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6378,24 +5909,21 @@
         <v>1465.0963</v>
       </c>
       <c r="G154" t="n">
-        <v>48855042.65970508</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6417,24 +5945,21 @@
         <v>1465.0963</v>
       </c>
       <c r="G155" t="n">
-        <v>48853577.56340508</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6456,24 +5981,21 @@
         <v>2706423.1383</v>
       </c>
       <c r="G156" t="n">
-        <v>51560000.70170508</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6495,24 +6017,21 @@
         <v>3131753.638</v>
       </c>
       <c r="G157" t="n">
-        <v>54691754.33970508</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6534,24 +6053,21 @@
         <v>852337.7013</v>
       </c>
       <c r="G158" t="n">
-        <v>53839416.63840508</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6573,24 +6089,21 @@
         <v>795391.5125</v>
       </c>
       <c r="G159" t="n">
-        <v>54634808.15090508</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6612,24 +6125,21 @@
         <v>715308.3461</v>
       </c>
       <c r="G160" t="n">
-        <v>54634808.15090508</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6651,24 +6161,21 @@
         <v>562960</v>
       </c>
       <c r="G161" t="n">
-        <v>54634808.15090508</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6690,24 +6197,21 @@
         <v>156711.4487</v>
       </c>
       <c r="G162" t="n">
-        <v>54791519.59960508</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6729,24 +6233,21 @@
         <v>10173491.5609</v>
       </c>
       <c r="G163" t="n">
-        <v>64965011.16050509</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6768,24 +6269,21 @@
         <v>232399.952</v>
       </c>
       <c r="G164" t="n">
-        <v>64965011.16050509</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6807,24 +6305,21 @@
         <v>4348.8363</v>
       </c>
       <c r="G165" t="n">
-        <v>64960662.32420509</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6846,24 +6341,21 @@
         <v>570995.0218</v>
       </c>
       <c r="G166" t="n">
-        <v>64960662.32420509</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6885,24 +6377,21 @@
         <v>513895.5196</v>
       </c>
       <c r="G167" t="n">
-        <v>64960662.32420509</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6924,24 +6413,21 @@
         <v>4625059.6773</v>
       </c>
       <c r="G168" t="n">
-        <v>64960662.32420509</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6963,24 +6449,21 @@
         <v>549544.5453999999</v>
       </c>
       <c r="G169" t="n">
-        <v>64960662.32420509</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7002,24 +6485,21 @@
         <v>28628.68594331</v>
       </c>
       <c r="G170" t="n">
-        <v>64989291.0101484</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7041,24 +6521,21 @@
         <v>1114289.9198</v>
       </c>
       <c r="G171" t="n">
-        <v>63875001.0903484</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7080,24 +6557,21 @@
         <v>1114289.9199</v>
       </c>
       <c r="G172" t="n">
-        <v>63875001.0903484</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7119,24 +6593,21 @@
         <v>20000</v>
       </c>
       <c r="G173" t="n">
-        <v>63895001.0903484</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7158,24 +6629,21 @@
         <v>596708.1687</v>
       </c>
       <c r="G174" t="n">
-        <v>64491709.2590484</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7197,24 +6665,21 @@
         <v>499712.89049846</v>
       </c>
       <c r="G175" t="n">
-        <v>64991422.14954686</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7236,24 +6701,21 @@
         <v>88773</v>
       </c>
       <c r="G176" t="n">
-        <v>65080195.14954686</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7275,24 +6737,21 @@
         <v>885475.0598</v>
       </c>
       <c r="G177" t="n">
-        <v>65965670.20934686</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7314,24 +6773,21 @@
         <v>6856711.8061</v>
       </c>
       <c r="G178" t="n">
-        <v>72822382.01544686</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7353,24 +6809,21 @@
         <v>243285.5865</v>
       </c>
       <c r="G179" t="n">
-        <v>72822382.01544686</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7392,24 +6845,21 @@
         <v>17788</v>
       </c>
       <c r="G180" t="n">
-        <v>72840170.01544686</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7431,24 +6881,21 @@
         <v>15906.3941</v>
       </c>
       <c r="G181" t="n">
-        <v>72824263.62134686</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7470,24 +6917,21 @@
         <v>1003200</v>
       </c>
       <c r="G182" t="n">
-        <v>71821063.62134686</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7509,24 +6953,21 @@
         <v>485212</v>
       </c>
       <c r="G183" t="n">
-        <v>72306275.62134686</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7548,24 +6989,21 @@
         <v>3200</v>
       </c>
       <c r="G184" t="n">
-        <v>72303075.62134686</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7587,24 +7025,21 @@
         <v>265661.2551</v>
       </c>
       <c r="G185" t="n">
-        <v>72568736.87644686</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7626,24 +7061,21 @@
         <v>3427752.1635</v>
       </c>
       <c r="G186" t="n">
-        <v>75996489.03994685</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7665,24 +7097,21 @@
         <v>8632296.337359</v>
       </c>
       <c r="G187" t="n">
-        <v>75996489.03994685</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7704,24 +7133,21 @@
         <v>4819160.39931977</v>
       </c>
       <c r="G188" t="n">
-        <v>80815649.43926662</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7743,24 +7169,21 @@
         <v>2842.8094</v>
       </c>
       <c r="G189" t="n">
-        <v>80812806.62986661</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7782,24 +7205,21 @@
         <v>632819.4943</v>
       </c>
       <c r="G190" t="n">
-        <v>80812806.62986661</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7821,24 +7241,21 @@
         <v>2290189.2253</v>
       </c>
       <c r="G191" t="n">
-        <v>83102995.85516661</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7860,24 +7277,21 @@
         <v>238282.6876</v>
       </c>
       <c r="G192" t="n">
-        <v>83102995.85516661</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7899,24 +7313,21 @@
         <v>778339.5318999999</v>
       </c>
       <c r="G193" t="n">
-        <v>83881335.38706662</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7938,24 +7349,21 @@
         <v>40000</v>
       </c>
       <c r="G194" t="n">
-        <v>83841335.38706662</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7977,24 +7385,21 @@
         <v>88554.3437</v>
       </c>
       <c r="G195" t="n">
-        <v>83841335.38706662</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8016,24 +7421,21 @@
         <v>3583725.4064</v>
       </c>
       <c r="G196" t="n">
-        <v>80257609.98066662</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8055,24 +7457,21 @@
         <v>600000</v>
       </c>
       <c r="G197" t="n">
-        <v>80857609.98066662</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8094,24 +7493,21 @@
         <v>22704807.7567</v>
       </c>
       <c r="G198" t="n">
-        <v>80857609.98066662</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8133,24 +7529,21 @@
         <v>671345.1844</v>
       </c>
       <c r="G199" t="n">
-        <v>80857609.98066662</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8172,24 +7565,21 @@
         <v>4108.48400556</v>
       </c>
       <c r="G200" t="n">
-        <v>80853501.49666107</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8211,24 +7601,21 @@
         <v>4246.1736</v>
       </c>
       <c r="G201" t="n">
-        <v>80849255.32306106</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8250,24 +7637,21 @@
         <v>1052523.0726</v>
       </c>
       <c r="G202" t="n">
-        <v>79796732.25046106</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8289,24 +7673,21 @@
         <v>15599905.706</v>
       </c>
       <c r="G203" t="n">
-        <v>64196826.54446106</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8328,24 +7709,21 @@
         <v>6448985.9105</v>
       </c>
       <c r="G204" t="n">
-        <v>64196826.54446106</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8367,24 +7745,21 @@
         <v>9787025.4146</v>
       </c>
       <c r="G205" t="n">
-        <v>64196826.54446106</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8406,24 +7781,21 @@
         <v>10309893.1788</v>
       </c>
       <c r="G206" t="n">
-        <v>64196826.54446106</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8445,24 +7817,21 @@
         <v>3877859.9702</v>
       </c>
       <c r="G207" t="n">
-        <v>64196826.54446106</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8484,24 +7853,21 @@
         <v>8666170.1042</v>
       </c>
       <c r="G208" t="n">
-        <v>64196826.54446106</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8523,24 +7889,21 @@
         <v>89799.6805</v>
       </c>
       <c r="G209" t="n">
-        <v>64286626.22496106</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8562,24 +7925,21 @@
         <v>4798738.5266</v>
       </c>
       <c r="G210" t="n">
-        <v>69085364.75156106</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8601,24 +7961,21 @@
         <v>255946.508</v>
       </c>
       <c r="G211" t="n">
-        <v>68829418.24356106</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8640,24 +7997,21 @@
         <v>408573.8427</v>
       </c>
       <c r="G212" t="n">
-        <v>68829418.24356106</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8679,24 +8033,21 @@
         <v>1832910</v>
       </c>
       <c r="G213" t="n">
-        <v>70662328.24356106</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8718,24 +8069,21 @@
         <v>23572610.9126</v>
       </c>
       <c r="G214" t="n">
-        <v>94234939.15616105</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8757,26 +8105,21 @@
         <v>1007247.8315</v>
       </c>
       <c r="G215" t="n">
-        <v>95242186.98766105</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1.077384661473937</v>
-      </c>
-      <c r="M215" t="n">
-        <v>1.01168364289994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8798,18 +8141,21 @@
         <v>922357.0658</v>
       </c>
       <c r="G216" t="n">
-        <v>94319829.92186105</v>
-      </c>
-      <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8831,18 +8177,21 @@
         <v>6726181.9364</v>
       </c>
       <c r="G217" t="n">
-        <v>101046011.858261</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8864,18 +8213,21 @@
         <v>5655185.6172</v>
       </c>
       <c r="G218" t="n">
-        <v>106701197.4754611</v>
-      </c>
-      <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8897,18 +8249,21 @@
         <v>2388710.5982</v>
       </c>
       <c r="G219" t="n">
-        <v>106701197.4754611</v>
-      </c>
-      <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8930,18 +8285,21 @@
         <v>440424.1108</v>
       </c>
       <c r="G220" t="n">
-        <v>107141621.586261</v>
-      </c>
-      <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8963,18 +8321,21 @@
         <v>1442470.1707</v>
       </c>
       <c r="G221" t="n">
-        <v>107141621.586261</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8996,18 +8357,23 @@
         <v>1460517.9766</v>
       </c>
       <c r="G222" t="n">
-        <v>107141621.586261</v>
-      </c>
-      <c r="H222" t="n">
         <v>2</v>
       </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1.085473337327741</v>
+      </c>
       <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>1.01168364289994</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9029,18 +8395,15 @@
         <v>1272676.2352</v>
       </c>
       <c r="G223" t="n">
-        <v>107141621.586261</v>
-      </c>
-      <c r="H223" t="n">
         <v>2</v>
       </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9062,18 +8425,15 @@
         <v>1421431.4078</v>
       </c>
       <c r="G224" t="n">
-        <v>105720190.178461</v>
-      </c>
-      <c r="H224" t="n">
         <v>2</v>
       </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9095,18 +8455,15 @@
         <v>5317514.328</v>
       </c>
       <c r="G225" t="n">
-        <v>105720190.178461</v>
-      </c>
-      <c r="H225" t="n">
         <v>2</v>
       </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9128,18 +8485,15 @@
         <v>501395.4186</v>
       </c>
       <c r="G226" t="n">
-        <v>105720190.178461</v>
-      </c>
-      <c r="H226" t="n">
         <v>2</v>
       </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9161,18 +8515,15 @@
         <v>2862819.6999</v>
       </c>
       <c r="G227" t="n">
-        <v>105720190.178461</v>
-      </c>
-      <c r="H227" t="n">
         <v>2</v>
       </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9194,18 +8545,15 @@
         <v>1549362.7487</v>
       </c>
       <c r="G228" t="n">
-        <v>104170827.4297611</v>
-      </c>
-      <c r="H228" t="n">
         <v>2</v>
       </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9227,18 +8575,15 @@
         <v>1369398.709</v>
       </c>
       <c r="G229" t="n">
-        <v>104170827.4297611</v>
-      </c>
-      <c r="H229" t="n">
         <v>2</v>
       </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9260,18 +8605,15 @@
         <v>1000000</v>
       </c>
       <c r="G230" t="n">
-        <v>105170827.4297611</v>
-      </c>
-      <c r="H230" t="n">
         <v>2</v>
       </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9293,18 +8635,15 @@
         <v>1684958.3942</v>
       </c>
       <c r="G231" t="n">
-        <v>103485869.0355611</v>
-      </c>
-      <c r="H231" t="n">
         <v>2</v>
       </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9326,18 +8665,15 @@
         <v>10858351.5538</v>
       </c>
       <c r="G232" t="n">
-        <v>114344220.5893611</v>
-      </c>
-      <c r="H232" t="n">
         <v>2</v>
       </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9359,18 +8695,15 @@
         <v>760000</v>
       </c>
       <c r="G233" t="n">
-        <v>113584220.5893611</v>
-      </c>
-      <c r="H233" t="n">
         <v>2</v>
       </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9392,18 +8725,15 @@
         <v>561167.2278</v>
       </c>
       <c r="G234" t="n">
-        <v>113584220.5893611</v>
-      </c>
-      <c r="H234" t="n">
         <v>2</v>
       </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9425,18 +8755,15 @@
         <v>235090.439</v>
       </c>
       <c r="G235" t="n">
-        <v>113349130.1503611</v>
-      </c>
-      <c r="H235" t="n">
         <v>2</v>
       </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9458,18 +8785,15 @@
         <v>39068.484</v>
       </c>
       <c r="G236" t="n">
-        <v>113388198.6343611</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9491,18 +8815,15 @@
         <v>173688.1064</v>
       </c>
       <c r="G237" t="n">
-        <v>113561886.7407611</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9524,18 +8845,15 @@
         <v>2085323.6261</v>
       </c>
       <c r="G238" t="n">
-        <v>115647210.3668611</v>
-      </c>
-      <c r="H238" t="n">
         <v>2</v>
       </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9557,18 +8875,15 @@
         <v>68155.93919999999</v>
       </c>
       <c r="G239" t="n">
-        <v>115579054.4276611</v>
-      </c>
-      <c r="H239" t="n">
         <v>2</v>
       </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9590,18 +8905,15 @@
         <v>223399.2483</v>
       </c>
       <c r="G240" t="n">
-        <v>115802453.6759611</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
